--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5987C4D-2AAA-4D9F-B5B7-4F3E965FC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1671727-08E9-475F-B634-D0B0CF9B7C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E224" si="1">B67+D67</f>
+        <f t="shared" ref="E67:E246" si="1">B67+D67</f>
         <v>20</v>
       </c>
     </row>
@@ -4406,6 +4406,402 @@
         <v>6</v>
       </c>
       <c r="E224">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>19</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <v>16</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>12</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>8</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>14</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>15</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>12</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235">
+        <v>16</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>16</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237">
+        <v>14</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>15</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>8</v>
+      </c>
+      <c r="C239">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <v>12</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240">
+        <v>8</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>13</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>7</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>18</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>13</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>13</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244">
+        <v>7</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>8</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>15</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1671727-08E9-475F-B634-D0B0CF9B7C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0E0B5-A945-4D0C-A7B8-26F6187ACD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E246" si="1">B67+D67</f>
+        <f t="shared" ref="E67:E265" si="1">B67+D67</f>
         <v>20</v>
       </c>
     </row>
@@ -4802,6 +4802,348 @@
         <v>5</v>
       </c>
       <c r="E246">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>16</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>19</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>13</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>13</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>13</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="C253">
+        <v>7</v>
+      </c>
+      <c r="D253">
+        <v>8</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>17</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>16</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>4</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>13</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>4</v>
+      </c>
+      <c r="B258">
+        <v>8</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>14</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>18</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>16</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>9</v>
+      </c>
+      <c r="B263">
+        <v>15</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <v>12</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+      <c r="D265">
+        <v>15</v>
+      </c>
+      <c r="E265">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0E0B5-A945-4D0C-A7B8-26F6187ACD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DBA1F-28A1-4AFF-A38D-FA08F844A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E265" si="1">B67+D67</f>
+        <f t="shared" ref="E67:E290" si="1">B67+D67</f>
         <v>20</v>
       </c>
     </row>
@@ -5144,6 +5144,456 @@
         <v>15</v>
       </c>
       <c r="E265">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>17</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>3</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>4</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+      <c r="D267">
+        <v>12</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>16</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>8</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>12</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>7</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270">
+        <v>13</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>8</v>
+      </c>
+      <c r="C271">
+        <v>4</v>
+      </c>
+      <c r="D271">
+        <v>12</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>8</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272">
+        <v>12</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>7</v>
+      </c>
+      <c r="B273">
+        <v>15</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274">
+        <v>14</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275">
+        <v>15</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>6</v>
+      </c>
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <v>7</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>15</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278">
+        <v>14</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+      <c r="D279">
+        <v>13</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280">
+        <v>8</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281">
+        <v>12</v>
+      </c>
+      <c r="C281">
+        <v>7</v>
+      </c>
+      <c r="D281">
+        <v>8</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>15</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>14</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283">
+        <v>6</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>4</v>
+      </c>
+      <c r="B284">
+        <v>15</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>6</v>
+      </c>
+      <c r="D285">
+        <v>13</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <v>6</v>
+      </c>
+      <c r="D286">
+        <v>6</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>8</v>
+      </c>
+      <c r="B287">
+        <v>15</v>
+      </c>
+      <c r="C287">
+        <v>9</v>
+      </c>
+      <c r="D287">
+        <v>5</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>16</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290">
+        <v>14</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>6</v>
+      </c>
+      <c r="E290">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DBA1F-28A1-4AFF-A38D-FA08F844A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F91EF1-1E0C-4EBE-AFEB-300CC052C5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E290" si="1">B67+D67</f>
+        <f t="shared" ref="E67:E313" si="1">B67+D67</f>
         <v>20</v>
       </c>
     </row>
@@ -5594,6 +5594,420 @@
         <v>6</v>
       </c>
       <c r="E290">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>6</v>
+      </c>
+      <c r="B291">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
+      <c r="D291">
+        <v>13</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292">
+        <v>15</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292">
+        <v>5</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>12</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>6</v>
+      </c>
+      <c r="D294">
+        <v>17</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>7</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>4</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>14</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>4</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297">
+        <v>12</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298">
+        <v>17</v>
+      </c>
+      <c r="C298">
+        <v>4</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299">
+        <v>16</v>
+      </c>
+      <c r="C299">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>12</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <v>6</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+      <c r="D302">
+        <v>14</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>12</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
+        <v>8</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>12</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>8</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>13</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+      <c r="D305">
+        <v>7</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>6</v>
+      </c>
+      <c r="B306">
+        <v>6</v>
+      </c>
+      <c r="C306">
+        <v>8</v>
+      </c>
+      <c r="D306">
+        <v>14</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>19</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>15</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>18</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310">
+        <v>15</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>13</v>
+      </c>
+      <c r="C311">
+        <v>4</v>
+      </c>
+      <c r="D311">
+        <v>7</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>9</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>7</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+      <c r="D313">
+        <v>6</v>
+      </c>
+      <c r="E313">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F91EF1-1E0C-4EBE-AFEB-300CC052C5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B2F40-7A88-4F01-999E-48F94F277927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E313" si="1">B67+D67</f>
+        <f t="shared" ref="E67:E321" si="1">B67+D67</f>
         <v>20</v>
       </c>
     </row>
@@ -6009,6 +6009,312 @@
       </c>
       <c r="E313">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>4</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>17</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315">
+        <v>15</v>
+      </c>
+      <c r="C315">
+        <v>5</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>14</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="B317">
+        <v>14</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+      <c r="D317">
+        <v>6</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>8</v>
+      </c>
+      <c r="B318">
+        <v>17</v>
+      </c>
+      <c r="C318">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>4</v>
+      </c>
+      <c r="B319">
+        <v>17</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>8</v>
+      </c>
+      <c r="C320">
+        <v>5</v>
+      </c>
+      <c r="D320">
+        <v>12</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>12</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>15</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>5</v>
+      </c>
+      <c r="E322">
+        <f t="shared" ref="E322:E330" si="2">B322+D322</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>13</v>
+      </c>
+      <c r="C323">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>7</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>8</v>
+      </c>
+      <c r="B324">
+        <v>17</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>3</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>5</v>
+      </c>
+      <c r="B325">
+        <v>12</v>
+      </c>
+      <c r="C325">
+        <v>7</v>
+      </c>
+      <c r="D325">
+        <v>8</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>16</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>16</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>3</v>
+      </c>
+      <c r="B328">
+        <v>17</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>16</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329">
+        <v>4</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>5</v>
+      </c>
+      <c r="B330">
+        <v>16</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330">
+        <v>4</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B2F40-7A88-4F01-999E-48F94F277927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B37A5C-13D6-4932-A2ED-CEABB473596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Player_1</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Points_2</t>
-  </si>
-  <si>
-    <t>Points_Sum</t>
   </si>
 </sst>
 </file>
@@ -368,18 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="H332" sqref="H332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,11 +386,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -409,12 +400,8 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <f>B2+D2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -427,12 +414,8 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">B3+D3</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,12 +428,8 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,12 +442,8 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -481,12 +456,8 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -499,12 +470,8 @@
       <c r="D7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -517,12 +484,8 @@
       <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -535,12 +498,8 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -553,12 +512,8 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -571,12 +526,8 @@
       <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -589,12 +540,8 @@
       <c r="D12">
         <v>17</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -607,12 +554,8 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -625,12 +568,8 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -643,12 +582,8 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -661,12 +596,8 @@
       <c r="D16">
         <v>12</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -679,12 +610,8 @@
       <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -697,12 +624,8 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -715,12 +638,8 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -733,12 +652,8 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -751,12 +666,8 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -769,12 +680,8 @@
       <c r="D22">
         <v>19</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -787,12 +694,8 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -805,12 +708,8 @@
       <c r="D24">
         <v>14</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -823,12 +722,8 @@
       <c r="D25">
         <v>15</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -841,12 +736,8 @@
       <c r="D26">
         <v>12</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -859,12 +750,8 @@
       <c r="D27">
         <v>12</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -877,12 +764,8 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -895,12 +778,8 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -913,12 +792,8 @@
       <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -931,12 +806,8 @@
       <c r="D31">
         <v>12</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -949,12 +820,8 @@
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -967,12 +834,8 @@
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -985,12 +848,8 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1003,12 +862,8 @@
       <c r="D35">
         <v>12</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1021,12 +876,8 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1039,12 +890,8 @@
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1057,12 +904,8 @@
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1075,12 +918,8 @@
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1093,12 +932,8 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1111,12 +946,8 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1129,12 +960,8 @@
       <c r="D42">
         <v>13</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1147,12 +974,8 @@
       <c r="D43">
         <v>12</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1165,12 +988,8 @@
       <c r="D44">
         <v>16</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1183,12 +1002,8 @@
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1201,12 +1016,8 @@
       <c r="D46">
         <v>8</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1219,12 +1030,8 @@
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1237,12 +1044,8 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1255,12 +1058,8 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1273,12 +1072,8 @@
       <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1291,12 +1086,8 @@
       <c r="D51">
         <v>15</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1309,12 +1100,8 @@
       <c r="D52">
         <v>15</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1327,12 +1114,8 @@
       <c r="D53">
         <v>12</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1345,12 +1128,8 @@
       <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1363,12 +1142,8 @@
       <c r="D55">
         <v>13</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1381,12 +1156,8 @@
       <c r="D56">
         <v>14</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1399,12 +1170,8 @@
       <c r="D57">
         <v>7</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1417,12 +1184,8 @@
       <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1435,12 +1198,8 @@
       <c r="D59">
         <v>12</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1453,12 +1212,8 @@
       <c r="D60">
         <v>15</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1471,12 +1226,8 @@
       <c r="D61">
         <v>4</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1489,12 +1240,8 @@
       <c r="D62">
         <v>14</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1507,12 +1254,8 @@
       <c r="D63">
         <v>5</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1525,12 +1268,8 @@
       <c r="D64">
         <v>7</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1543,12 +1282,8 @@
       <c r="D65">
         <v>16</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1561,12 +1296,8 @@
       <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1579,12 +1310,8 @@
       <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E321" si="1">B67+D67</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -1597,12 +1324,8 @@
       <c r="D68">
         <v>4</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1615,12 +1338,8 @@
       <c r="D69">
         <v>3</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1633,12 +1352,8 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1651,12 +1366,8 @@
       <c r="D71">
         <v>12</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -1669,12 +1380,8 @@
       <c r="D72">
         <v>6</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1687,12 +1394,8 @@
       <c r="D73">
         <v>2</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1705,12 +1408,8 @@
       <c r="D74">
         <v>8</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -1723,12 +1422,8 @@
       <c r="D75">
         <v>16</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1741,12 +1436,8 @@
       <c r="D76">
         <v>4</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -1759,12 +1450,8 @@
       <c r="D77">
         <v>17</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -1777,12 +1464,8 @@
       <c r="D78">
         <v>4</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1795,12 +1478,8 @@
       <c r="D79">
         <v>15</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1813,12 +1492,8 @@
       <c r="D80">
         <v>5</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1831,12 +1506,8 @@
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1849,12 +1520,8 @@
       <c r="D82">
         <v>14</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -1867,12 +1534,8 @@
       <c r="D83">
         <v>15</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1885,12 +1548,8 @@
       <c r="D84">
         <v>8</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -1903,12 +1562,8 @@
       <c r="D85">
         <v>15</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -1921,12 +1576,8 @@
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1939,12 +1590,8 @@
       <c r="D87">
         <v>6</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -1957,12 +1604,8 @@
       <c r="D88">
         <v>4</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1975,12 +1618,8 @@
       <c r="D89">
         <v>7</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1993,12 +1632,8 @@
       <c r="D90">
         <v>15</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2011,12 +1646,8 @@
       <c r="D91">
         <v>7</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2029,12 +1660,8 @@
       <c r="D92">
         <v>4</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2047,12 +1674,8 @@
       <c r="D93">
         <v>4</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -2065,12 +1688,8 @@
       <c r="D94">
         <v>6</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2083,12 +1702,8 @@
       <c r="D95">
         <v>5</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2101,12 +1716,8 @@
       <c r="D96">
         <v>18</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -2119,12 +1730,8 @@
       <c r="D97">
         <v>7</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -2137,12 +1744,8 @@
       <c r="D98">
         <v>13</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -2155,12 +1758,8 @@
       <c r="D99">
         <v>13</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -2173,12 +1772,8 @@
       <c r="D100">
         <v>4</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2191,12 +1786,8 @@
       <c r="D101">
         <v>8</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2209,12 +1800,8 @@
       <c r="D102">
         <v>4</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2227,12 +1814,8 @@
       <c r="D103">
         <v>5</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2245,12 +1828,8 @@
       <c r="D104">
         <v>18</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2263,12 +1842,8 @@
       <c r="D105">
         <v>12</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2281,12 +1856,8 @@
       <c r="D106">
         <v>12</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2299,12 +1870,8 @@
       <c r="D107">
         <v>16</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2317,12 +1884,8 @@
       <c r="D108">
         <v>7</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2335,12 +1898,8 @@
       <c r="D109">
         <v>5</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8</v>
       </c>
@@ -2353,12 +1912,8 @@
       <c r="D110">
         <v>16</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2371,12 +1926,8 @@
       <c r="D111">
         <v>14</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -2389,12 +1940,8 @@
       <c r="D112">
         <v>7</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2407,12 +1954,8 @@
       <c r="D113">
         <v>5</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -2425,12 +1968,8 @@
       <c r="D114">
         <v>13</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2443,12 +1982,8 @@
       <c r="D115">
         <v>5</v>
       </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2461,12 +1996,8 @@
       <c r="D116">
         <v>6</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2479,12 +2010,8 @@
       <c r="D117">
         <v>13</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2497,12 +2024,8 @@
       <c r="D118">
         <v>8</v>
       </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -2515,12 +2038,8 @@
       <c r="D119">
         <v>7</v>
       </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
@@ -2533,12 +2052,8 @@
       <c r="D120">
         <v>8</v>
       </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2551,12 +2066,8 @@
       <c r="D121">
         <v>14</v>
       </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2569,12 +2080,8 @@
       <c r="D122">
         <v>13</v>
       </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -2587,12 +2094,8 @@
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -2605,12 +2108,8 @@
       <c r="D124">
         <v>12</v>
       </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2623,12 +2122,8 @@
       <c r="D125">
         <v>2</v>
       </c>
-      <c r="E125">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -2641,12 +2136,8 @@
       <c r="D126">
         <v>13</v>
       </c>
-      <c r="E126">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -2659,12 +2150,8 @@
       <c r="D127">
         <v>13</v>
       </c>
-      <c r="E127">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -2677,12 +2164,8 @@
       <c r="D128">
         <v>7</v>
       </c>
-      <c r="E128">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2695,12 +2178,8 @@
       <c r="D129">
         <v>8</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -2713,12 +2192,8 @@
       <c r="D130">
         <v>8</v>
       </c>
-      <c r="E130">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -2731,12 +2206,8 @@
       <c r="D131">
         <v>14</v>
       </c>
-      <c r="E131">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8</v>
       </c>
@@ -2749,12 +2220,8 @@
       <c r="D132">
         <v>3</v>
       </c>
-      <c r="E132">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -2767,12 +2234,8 @@
       <c r="D133">
         <v>4</v>
       </c>
-      <c r="E133">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -2785,12 +2248,8 @@
       <c r="D134">
         <v>14</v>
       </c>
-      <c r="E134">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -2803,12 +2262,8 @@
       <c r="D135">
         <v>8</v>
       </c>
-      <c r="E135">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -2821,12 +2276,8 @@
       <c r="D136">
         <v>7</v>
       </c>
-      <c r="E136">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -2839,12 +2290,8 @@
       <c r="D137">
         <v>7</v>
       </c>
-      <c r="E137">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9</v>
       </c>
@@ -2857,12 +2304,8 @@
       <c r="D138">
         <v>14</v>
       </c>
-      <c r="E138">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -2875,12 +2318,8 @@
       <c r="D139">
         <v>7</v>
       </c>
-      <c r="E139">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -2893,12 +2332,8 @@
       <c r="D140">
         <v>4</v>
       </c>
-      <c r="E140">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -2911,12 +2346,8 @@
       <c r="D141">
         <v>14</v>
       </c>
-      <c r="E141">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -2929,12 +2360,8 @@
       <c r="D142">
         <v>14</v>
       </c>
-      <c r="E142">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -2947,12 +2374,8 @@
       <c r="D143">
         <v>18</v>
       </c>
-      <c r="E143">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2965,12 +2388,8 @@
       <c r="D144">
         <v>6</v>
       </c>
-      <c r="E144">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -2983,12 +2402,8 @@
       <c r="D145">
         <v>3</v>
       </c>
-      <c r="E145">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9</v>
       </c>
@@ -3001,12 +2416,8 @@
       <c r="D146">
         <v>7</v>
       </c>
-      <c r="E146">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3019,12 +2430,8 @@
       <c r="D147">
         <v>12</v>
       </c>
-      <c r="E147">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3037,12 +2444,8 @@
       <c r="D148">
         <v>14</v>
       </c>
-      <c r="E148">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3055,12 +2458,8 @@
       <c r="D149">
         <v>16</v>
       </c>
-      <c r="E149">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3073,12 +2472,8 @@
       <c r="D150">
         <v>8</v>
       </c>
-      <c r="E150">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -3091,12 +2486,8 @@
       <c r="D151">
         <v>8</v>
       </c>
-      <c r="E151">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3109,12 +2500,8 @@
       <c r="D152">
         <v>12</v>
       </c>
-      <c r="E152">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -3127,12 +2514,8 @@
       <c r="D153">
         <v>7</v>
       </c>
-      <c r="E153">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -3145,12 +2528,8 @@
       <c r="D154">
         <v>14</v>
       </c>
-      <c r="E154">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -3163,12 +2542,8 @@
       <c r="D155">
         <v>0</v>
       </c>
-      <c r="E155">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -3181,12 +2556,8 @@
       <c r="D156">
         <v>18</v>
       </c>
-      <c r="E156">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -3199,12 +2570,8 @@
       <c r="D157">
         <v>8</v>
       </c>
-      <c r="E157">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3217,12 +2584,8 @@
       <c r="D158">
         <v>12</v>
       </c>
-      <c r="E158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -3235,12 +2598,8 @@
       <c r="D159">
         <v>4</v>
       </c>
-      <c r="E159">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -3253,12 +2612,8 @@
       <c r="D160">
         <v>12</v>
       </c>
-      <c r="E160">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -3271,12 +2626,8 @@
       <c r="D161">
         <v>5</v>
       </c>
-      <c r="E161">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -3289,12 +2640,8 @@
       <c r="D162">
         <v>12</v>
       </c>
-      <c r="E162">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -3307,12 +2654,8 @@
       <c r="D163">
         <v>12</v>
       </c>
-      <c r="E163">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -3325,12 +2668,8 @@
       <c r="D164">
         <v>17</v>
       </c>
-      <c r="E164">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -3343,12 +2682,8 @@
       <c r="D165">
         <v>14</v>
       </c>
-      <c r="E165">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -3361,12 +2696,8 @@
       <c r="D166">
         <v>4</v>
       </c>
-      <c r="E166">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -3379,12 +2710,8 @@
       <c r="D167">
         <v>8</v>
       </c>
-      <c r="E167">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -3397,12 +2724,8 @@
       <c r="D168">
         <v>3</v>
       </c>
-      <c r="E168">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -3415,12 +2738,8 @@
       <c r="D169">
         <v>3</v>
       </c>
-      <c r="E169">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -3433,12 +2752,8 @@
       <c r="D170">
         <v>14</v>
       </c>
-      <c r="E170">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -3451,12 +2766,8 @@
       <c r="D171">
         <v>15</v>
       </c>
-      <c r="E171">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -3469,12 +2780,8 @@
       <c r="D172">
         <v>16</v>
       </c>
-      <c r="E172">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -3487,12 +2794,8 @@
       <c r="D173">
         <v>6</v>
       </c>
-      <c r="E173">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -3505,12 +2808,8 @@
       <c r="D174">
         <v>12</v>
       </c>
-      <c r="E174">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -3523,12 +2822,8 @@
       <c r="D175">
         <v>12</v>
       </c>
-      <c r="E175">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
@@ -3541,12 +2836,8 @@
       <c r="D176">
         <v>13</v>
       </c>
-      <c r="E176">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -3559,12 +2850,8 @@
       <c r="D177">
         <v>3</v>
       </c>
-      <c r="E177">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -3577,12 +2864,8 @@
       <c r="D178">
         <v>17</v>
       </c>
-      <c r="E178">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6</v>
       </c>
@@ -3595,12 +2878,8 @@
       <c r="D179">
         <v>6</v>
       </c>
-      <c r="E179">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4</v>
       </c>
@@ -3613,12 +2892,8 @@
       <c r="D180">
         <v>4</v>
       </c>
-      <c r="E180">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2</v>
       </c>
@@ -3631,12 +2906,8 @@
       <c r="D181">
         <v>12</v>
       </c>
-      <c r="E181">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2</v>
       </c>
@@ -3649,12 +2920,8 @@
       <c r="D182">
         <v>6</v>
       </c>
-      <c r="E182">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
@@ -3667,12 +2934,8 @@
       <c r="D183">
         <v>12</v>
       </c>
-      <c r="E183">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
@@ -3685,12 +2948,8 @@
       <c r="D184">
         <v>3</v>
       </c>
-      <c r="E184">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -3703,12 +2962,8 @@
       <c r="D185">
         <v>13</v>
       </c>
-      <c r="E185">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4</v>
       </c>
@@ -3721,12 +2976,8 @@
       <c r="D186">
         <v>13</v>
       </c>
-      <c r="E186">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -3739,12 +2990,8 @@
       <c r="D187">
         <v>7</v>
       </c>
-      <c r="E187">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -3757,12 +3004,8 @@
       <c r="D188">
         <v>6</v>
       </c>
-      <c r="E188">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2</v>
       </c>
@@ -3775,12 +3018,8 @@
       <c r="D189">
         <v>8</v>
       </c>
-      <c r="E189">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4</v>
       </c>
@@ -3793,12 +3032,8 @@
       <c r="D190">
         <v>15</v>
       </c>
-      <c r="E190">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -3811,12 +3046,8 @@
       <c r="D191">
         <v>4</v>
       </c>
-      <c r="E191">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3829,12 +3060,8 @@
       <c r="D192">
         <v>7</v>
       </c>
-      <c r="E192">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -3847,12 +3074,8 @@
       <c r="D193">
         <v>12</v>
       </c>
-      <c r="E193">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -3865,12 +3088,8 @@
       <c r="D194">
         <v>5</v>
       </c>
-      <c r="E194">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -3883,12 +3102,8 @@
       <c r="D195">
         <v>5</v>
       </c>
-      <c r="E195">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5</v>
       </c>
@@ -3901,12 +3116,8 @@
       <c r="D196">
         <v>15</v>
       </c>
-      <c r="E196">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3919,12 +3130,8 @@
       <c r="D197">
         <v>13</v>
       </c>
-      <c r="E197">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -3937,12 +3144,8 @@
       <c r="D198">
         <v>15</v>
       </c>
-      <c r="E198">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4</v>
       </c>
@@ -3955,12 +3158,8 @@
       <c r="D199">
         <v>6</v>
       </c>
-      <c r="E199">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -3973,12 +3172,8 @@
       <c r="D200">
         <v>7</v>
       </c>
-      <c r="E200">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -3991,12 +3186,8 @@
       <c r="D201">
         <v>6</v>
       </c>
-      <c r="E201">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5</v>
       </c>
@@ -4009,12 +3200,8 @@
       <c r="D202">
         <v>13</v>
       </c>
-      <c r="E202">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4027,12 +3214,8 @@
       <c r="D203">
         <v>14</v>
       </c>
-      <c r="E203">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -4045,12 +3228,8 @@
       <c r="D204">
         <v>13</v>
       </c>
-      <c r="E204">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
@@ -4063,12 +3242,8 @@
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6</v>
       </c>
@@ -4081,12 +3256,8 @@
       <c r="D206">
         <v>12</v>
       </c>
-      <c r="E206">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7</v>
       </c>
@@ -4099,12 +3270,8 @@
       <c r="D207">
         <v>8</v>
       </c>
-      <c r="E207">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -4117,12 +3284,8 @@
       <c r="D208">
         <v>12</v>
       </c>
-      <c r="E208">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -4135,12 +3298,8 @@
       <c r="D209">
         <v>14</v>
       </c>
-      <c r="E209">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -4153,12 +3312,8 @@
       <c r="D210">
         <v>14</v>
       </c>
-      <c r="E210">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6</v>
       </c>
@@ -4171,12 +3326,8 @@
       <c r="D211">
         <v>14</v>
       </c>
-      <c r="E211">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2</v>
       </c>
@@ -4189,12 +3340,8 @@
       <c r="D212">
         <v>8</v>
       </c>
-      <c r="E212">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
@@ -4207,12 +3354,8 @@
       <c r="D213">
         <v>0</v>
       </c>
-      <c r="E213">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9</v>
       </c>
@@ -4225,12 +3368,8 @@
       <c r="D214">
         <v>3</v>
       </c>
-      <c r="E214">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -4243,12 +3382,8 @@
       <c r="D215">
         <v>7</v>
       </c>
-      <c r="E215">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -4261,12 +3396,8 @@
       <c r="D216">
         <v>16</v>
       </c>
-      <c r="E216">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -4279,12 +3410,8 @@
       <c r="D217">
         <v>7</v>
       </c>
-      <c r="E217">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -4297,12 +3424,8 @@
       <c r="D218">
         <v>12</v>
       </c>
-      <c r="E218">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3</v>
       </c>
@@ -4315,12 +3438,8 @@
       <c r="D219">
         <v>16</v>
       </c>
-      <c r="E219">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>6</v>
       </c>
@@ -4333,12 +3452,8 @@
       <c r="D220">
         <v>12</v>
       </c>
-      <c r="E220">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -4351,12 +3466,8 @@
       <c r="D221">
         <v>6</v>
       </c>
-      <c r="E221">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2</v>
       </c>
@@ -4369,12 +3480,8 @@
       <c r="D222">
         <v>15</v>
       </c>
-      <c r="E222">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>6</v>
       </c>
@@ -4387,12 +3494,8 @@
       <c r="D223">
         <v>15</v>
       </c>
-      <c r="E223">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>3</v>
       </c>
@@ -4405,12 +3508,8 @@
       <c r="D224">
         <v>6</v>
       </c>
-      <c r="E224">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -4423,12 +3522,8 @@
       <c r="D225">
         <v>1</v>
       </c>
-      <c r="E225">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -4441,12 +3536,8 @@
       <c r="D226">
         <v>4</v>
       </c>
-      <c r="E226">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -4459,12 +3550,8 @@
       <c r="D227">
         <v>7</v>
       </c>
-      <c r="E227">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -4477,12 +3564,8 @@
       <c r="D228">
         <v>8</v>
       </c>
-      <c r="E228">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8</v>
       </c>
@@ -4495,12 +3578,8 @@
       <c r="D229">
         <v>6</v>
       </c>
-      <c r="E229">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -4513,12 +3592,8 @@
       <c r="D230">
         <v>7</v>
       </c>
-      <c r="E230">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -4531,12 +3606,8 @@
       <c r="D231">
         <v>5</v>
       </c>
-      <c r="E231">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -4549,12 +3620,8 @@
       <c r="D232">
         <v>8</v>
       </c>
-      <c r="E232">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3</v>
       </c>
@@ -4567,12 +3634,8 @@
       <c r="D233">
         <v>5</v>
       </c>
-      <c r="E233">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3</v>
       </c>
@@ -4585,12 +3648,8 @@
       <c r="D234">
         <v>12</v>
       </c>
-      <c r="E234">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3</v>
       </c>
@@ -4603,12 +3662,8 @@
       <c r="D235">
         <v>4</v>
       </c>
-      <c r="E235">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -4621,12 +3676,8 @@
       <c r="D236">
         <v>16</v>
       </c>
-      <c r="E236">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>7</v>
       </c>
@@ -4639,12 +3690,8 @@
       <c r="D237">
         <v>6</v>
       </c>
-      <c r="E237">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -4657,12 +3704,8 @@
       <c r="D238">
         <v>15</v>
       </c>
-      <c r="E238">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3</v>
       </c>
@@ -4675,12 +3718,8 @@
       <c r="D239">
         <v>12</v>
       </c>
-      <c r="E239">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -4693,12 +3732,8 @@
       <c r="D240">
         <v>8</v>
       </c>
-      <c r="E240">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5</v>
       </c>
@@ -4711,12 +3746,8 @@
       <c r="D241">
         <v>7</v>
       </c>
-      <c r="E241">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -4729,12 +3760,8 @@
       <c r="D242">
         <v>2</v>
       </c>
-      <c r="E242">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3</v>
       </c>
@@ -4747,12 +3774,8 @@
       <c r="D243">
         <v>13</v>
       </c>
-      <c r="E243">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -4765,12 +3788,8 @@
       <c r="D244">
         <v>7</v>
       </c>
-      <c r="E244">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2</v>
       </c>
@@ -4783,12 +3802,8 @@
       <c r="D245">
         <v>12</v>
       </c>
-      <c r="E245">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9</v>
       </c>
@@ -4801,12 +3816,8 @@
       <c r="D246">
         <v>5</v>
       </c>
-      <c r="E246">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -4819,12 +3830,8 @@
       <c r="D247">
         <v>12</v>
       </c>
-      <c r="E247">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -4837,12 +3844,8 @@
       <c r="D248">
         <v>4</v>
       </c>
-      <c r="E248">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3</v>
       </c>
@@ -4855,12 +3858,8 @@
       <c r="D249">
         <v>1</v>
       </c>
-      <c r="E249">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -4873,12 +3872,8 @@
       <c r="D250">
         <v>13</v>
       </c>
-      <c r="E250">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -4891,12 +3886,8 @@
       <c r="D251">
         <v>13</v>
       </c>
-      <c r="E251">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4</v>
       </c>
@@ -4909,12 +3900,8 @@
       <c r="D252">
         <v>7</v>
       </c>
-      <c r="E252">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -4927,12 +3914,8 @@
       <c r="D253">
         <v>8</v>
       </c>
-      <c r="E253">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -4945,12 +3928,8 @@
       <c r="D254">
         <v>8</v>
       </c>
-      <c r="E254">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4</v>
       </c>
@@ -4963,12 +3942,8 @@
       <c r="D255">
         <v>3</v>
       </c>
-      <c r="E255">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>7</v>
       </c>
@@ -4981,12 +3956,8 @@
       <c r="D256">
         <v>4</v>
       </c>
-      <c r="E256">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -4999,12 +3970,8 @@
       <c r="D257">
         <v>13</v>
       </c>
-      <c r="E257">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4</v>
       </c>
@@ -5017,12 +3984,8 @@
       <c r="D258">
         <v>12</v>
       </c>
-      <c r="E258">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -5035,12 +3998,8 @@
       <c r="D259">
         <v>14</v>
       </c>
-      <c r="E259">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -5053,12 +4012,8 @@
       <c r="D260">
         <v>5</v>
       </c>
-      <c r="E260">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -5071,12 +4026,8 @@
       <c r="D261">
         <v>18</v>
       </c>
-      <c r="E261">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -5089,12 +4040,8 @@
       <c r="D262">
         <v>16</v>
       </c>
-      <c r="E262">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>9</v>
       </c>
@@ -5107,12 +4054,8 @@
       <c r="D263">
         <v>5</v>
       </c>
-      <c r="E263">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>3</v>
       </c>
@@ -5125,12 +4068,8 @@
       <c r="D264">
         <v>8</v>
       </c>
-      <c r="E264">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -5143,12 +4082,8 @@
       <c r="D265">
         <v>15</v>
       </c>
-      <c r="E265">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -5161,12 +4096,8 @@
       <c r="D266">
         <v>3</v>
       </c>
-      <c r="E266">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -5179,12 +4110,8 @@
       <c r="D267">
         <v>12</v>
       </c>
-      <c r="E267">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4</v>
       </c>
@@ -5197,12 +4124,8 @@
       <c r="D268">
         <v>16</v>
       </c>
-      <c r="E268">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -5215,12 +4138,8 @@
       <c r="D269">
         <v>12</v>
       </c>
-      <c r="E269">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>5</v>
       </c>
@@ -5233,12 +4152,8 @@
       <c r="D270">
         <v>13</v>
       </c>
-      <c r="E270">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5</v>
       </c>
@@ -5251,12 +4166,8 @@
       <c r="D271">
         <v>12</v>
       </c>
-      <c r="E271">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3</v>
       </c>
@@ -5269,12 +4180,8 @@
       <c r="D272">
         <v>12</v>
       </c>
-      <c r="E272">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
@@ -5287,12 +4194,8 @@
       <c r="D273">
         <v>5</v>
       </c>
-      <c r="E273">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -5305,12 +4208,8 @@
       <c r="D274">
         <v>6</v>
       </c>
-      <c r="E274">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -5323,12 +4222,8 @@
       <c r="D275">
         <v>5</v>
       </c>
-      <c r="E275">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -5341,12 +4236,8 @@
       <c r="D276">
         <v>7</v>
       </c>
-      <c r="E276">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3</v>
       </c>
@@ -5359,12 +4250,8 @@
       <c r="D277">
         <v>5</v>
       </c>
-      <c r="E277">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -5377,12 +4264,8 @@
       <c r="D278">
         <v>6</v>
       </c>
-      <c r="E278">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -5395,12 +4278,8 @@
       <c r="D279">
         <v>13</v>
       </c>
-      <c r="E279">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3</v>
       </c>
@@ -5413,12 +4292,8 @@
       <c r="D280">
         <v>8</v>
       </c>
-      <c r="E280">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8</v>
       </c>
@@ -5431,12 +4306,8 @@
       <c r="D281">
         <v>8</v>
       </c>
-      <c r="E281">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>5</v>
       </c>
@@ -5449,12 +4320,8 @@
       <c r="D282">
         <v>15</v>
       </c>
-      <c r="E282">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -5467,12 +4334,8 @@
       <c r="D283">
         <v>6</v>
       </c>
-      <c r="E283">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -5485,12 +4348,8 @@
       <c r="D284">
         <v>5</v>
       </c>
-      <c r="E284">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -5503,12 +4362,8 @@
       <c r="D285">
         <v>13</v>
       </c>
-      <c r="E285">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5</v>
       </c>
@@ -5521,12 +4376,8 @@
       <c r="D286">
         <v>6</v>
       </c>
-      <c r="E286">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8</v>
       </c>
@@ -5539,12 +4390,8 @@
       <c r="D287">
         <v>5</v>
       </c>
-      <c r="E287">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4</v>
       </c>
@@ -5557,12 +4404,8 @@
       <c r="D288">
         <v>16</v>
       </c>
-      <c r="E288">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -5575,12 +4418,8 @@
       <c r="D289">
         <v>8</v>
       </c>
-      <c r="E289">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>5</v>
       </c>
@@ -5593,12 +4432,8 @@
       <c r="D290">
         <v>6</v>
       </c>
-      <c r="E290">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6</v>
       </c>
@@ -5611,12 +4446,8 @@
       <c r="D291">
         <v>13</v>
       </c>
-      <c r="E291">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>5</v>
       </c>
@@ -5629,12 +4460,8 @@
       <c r="D292">
         <v>5</v>
       </c>
-      <c r="E292">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -5647,12 +4474,8 @@
       <c r="D293">
         <v>12</v>
       </c>
-      <c r="E293">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -5665,12 +4488,8 @@
       <c r="D294">
         <v>17</v>
       </c>
-      <c r="E294">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -5683,12 +4502,8 @@
       <c r="D295">
         <v>7</v>
       </c>
-      <c r="E295">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4</v>
       </c>
@@ -5701,12 +4516,8 @@
       <c r="D296">
         <v>14</v>
       </c>
-      <c r="E296">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -5719,12 +4530,8 @@
       <c r="D297">
         <v>12</v>
       </c>
-      <c r="E297">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5</v>
       </c>
@@ -5737,12 +4544,8 @@
       <c r="D298">
         <v>3</v>
       </c>
-      <c r="E298">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4</v>
       </c>
@@ -5755,12 +4558,8 @@
       <c r="D299">
         <v>4</v>
       </c>
-      <c r="E299">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5</v>
       </c>
@@ -5773,12 +4572,8 @@
       <c r="D300">
         <v>12</v>
       </c>
-      <c r="E300">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -5791,12 +4586,8 @@
       <c r="D301">
         <v>15</v>
       </c>
-      <c r="E301">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>7</v>
       </c>
@@ -5809,12 +4600,8 @@
       <c r="D302">
         <v>14</v>
       </c>
-      <c r="E302">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -5827,12 +4614,8 @@
       <c r="D303">
         <v>8</v>
       </c>
-      <c r="E303">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -5845,12 +4628,8 @@
       <c r="D304">
         <v>8</v>
       </c>
-      <c r="E304">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4</v>
       </c>
@@ -5863,12 +4642,8 @@
       <c r="D305">
         <v>7</v>
       </c>
-      <c r="E305">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -5881,12 +4656,8 @@
       <c r="D306">
         <v>14</v>
       </c>
-      <c r="E306">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>6</v>
       </c>
@@ -5899,12 +4670,8 @@
       <c r="D307">
         <v>1</v>
       </c>
-      <c r="E307">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3</v>
       </c>
@@ -5917,12 +4684,8 @@
       <c r="D308">
         <v>15</v>
       </c>
-      <c r="E308">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -5935,12 +4698,8 @@
       <c r="D309">
         <v>18</v>
       </c>
-      <c r="E309">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -5953,12 +4712,8 @@
       <c r="D310">
         <v>5</v>
       </c>
-      <c r="E310">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -5971,12 +4726,8 @@
       <c r="D311">
         <v>7</v>
       </c>
-      <c r="E311">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>9</v>
       </c>
@@ -5989,12 +4740,8 @@
       <c r="D312">
         <v>7</v>
       </c>
-      <c r="E312">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5</v>
       </c>
@@ -6007,12 +4754,8 @@
       <c r="D313">
         <v>6</v>
       </c>
-      <c r="E313">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>4</v>
       </c>
@@ -6025,12 +4768,8 @@
       <c r="D314">
         <v>17</v>
       </c>
-      <c r="E314">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>6</v>
       </c>
@@ -6043,12 +4782,8 @@
       <c r="D315">
         <v>5</v>
       </c>
-      <c r="E315">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -6061,12 +4796,8 @@
       <c r="D316">
         <v>14</v>
       </c>
-      <c r="E316">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -6079,12 +4810,8 @@
       <c r="D317">
         <v>6</v>
       </c>
-      <c r="E317">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>8</v>
       </c>
@@ -6097,12 +4824,8 @@
       <c r="D318">
         <v>3</v>
       </c>
-      <c r="E318">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>4</v>
       </c>
@@ -6115,12 +4838,8 @@
       <c r="D319">
         <v>3</v>
       </c>
-      <c r="E319">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4</v>
       </c>
@@ -6133,12 +4852,8 @@
       <c r="D320">
         <v>12</v>
       </c>
-      <c r="E320">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5</v>
       </c>
@@ -6151,12 +4866,8 @@
       <c r="D321">
         <v>12</v>
       </c>
-      <c r="E321">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -6169,12 +4880,8 @@
       <c r="D322">
         <v>5</v>
       </c>
-      <c r="E322">
-        <f t="shared" ref="E322:E330" si="2">B322+D322</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4</v>
       </c>
@@ -6187,12 +4894,8 @@
       <c r="D323">
         <v>7</v>
       </c>
-      <c r="E323">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8</v>
       </c>
@@ -6205,12 +4908,8 @@
       <c r="D324">
         <v>3</v>
       </c>
-      <c r="E324">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -6223,12 +4922,8 @@
       <c r="D325">
         <v>8</v>
       </c>
-      <c r="E325">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>5</v>
       </c>
@@ -6241,12 +4936,8 @@
       <c r="D326">
         <v>16</v>
       </c>
-      <c r="E326">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>5</v>
       </c>
@@ -6259,12 +4950,8 @@
       <c r="D327">
         <v>16</v>
       </c>
-      <c r="E327">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3</v>
       </c>
@@ -6277,12 +4964,8 @@
       <c r="D328">
         <v>3</v>
       </c>
-      <c r="E328">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -6295,12 +4978,8 @@
       <c r="D329">
         <v>4</v>
       </c>
-      <c r="E329">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -6313,12 +4992,9 @@
       <c r="D330">
         <v>4</v>
       </c>
-      <c r="E330">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B37A5C-13D6-4932-A2ED-CEABB473596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8138C6-0C72-47BF-8270-4CC6444D7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="H332" sqref="H332"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="A680" sqref="A680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,6 +4993,4892 @@
         <v>4</v>
       </c>
     </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>5</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>4</v>
+      </c>
+      <c r="B332">
+        <v>7</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>7</v>
+      </c>
+      <c r="B334">
+        <v>5</v>
+      </c>
+      <c r="C334">
+        <v>5</v>
+      </c>
+      <c r="D334">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>4</v>
+      </c>
+      <c r="B335">
+        <v>13</v>
+      </c>
+      <c r="C335">
+        <v>5</v>
+      </c>
+      <c r="D335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>4</v>
+      </c>
+      <c r="B336">
+        <v>4</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>15</v>
+      </c>
+      <c r="C337">
+        <v>8</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>4</v>
+      </c>
+      <c r="B338">
+        <v>5</v>
+      </c>
+      <c r="C338">
+        <v>5</v>
+      </c>
+      <c r="D338">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339">
+        <v>5</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>6</v>
+      </c>
+      <c r="B340">
+        <v>8</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>4</v>
+      </c>
+      <c r="B342">
+        <v>8</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>4</v>
+      </c>
+      <c r="B343">
+        <v>5</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>6</v>
+      </c>
+      <c r="B344">
+        <v>15</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+      <c r="D345">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>6</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+      <c r="C346">
+        <v>7</v>
+      </c>
+      <c r="D346">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3</v>
+      </c>
+      <c r="B347">
+        <v>16</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>14</v>
+      </c>
+      <c r="C348">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>3</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+      <c r="D349">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>4</v>
+      </c>
+      <c r="B350">
+        <v>12</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>6</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>5</v>
+      </c>
+      <c r="D351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>6</v>
+      </c>
+      <c r="C352">
+        <v>4</v>
+      </c>
+      <c r="D352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>6</v>
+      </c>
+      <c r="B353">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>5</v>
+      </c>
+      <c r="D353">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>4</v>
+      </c>
+      <c r="B354">
+        <v>16</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>6</v>
+      </c>
+      <c r="B355">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>9</v>
+      </c>
+      <c r="D355">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>4</v>
+      </c>
+      <c r="B356">
+        <v>16</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+      <c r="D356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>12</v>
+      </c>
+      <c r="C357">
+        <v>4</v>
+      </c>
+      <c r="D357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>4</v>
+      </c>
+      <c r="B358">
+        <v>15</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>5</v>
+      </c>
+      <c r="B359">
+        <v>15</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>4</v>
+      </c>
+      <c r="B360">
+        <v>6</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>5</v>
+      </c>
+      <c r="B361">
+        <v>15</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>12</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="B363">
+        <v>17</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+      <c r="D363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>5</v>
+      </c>
+      <c r="B364">
+        <v>8</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>7</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>12</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>5</v>
+      </c>
+      <c r="D367">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>4</v>
+      </c>
+      <c r="B370">
+        <v>8</v>
+      </c>
+      <c r="C370">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>6</v>
+      </c>
+      <c r="B371">
+        <v>14</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+      <c r="C372">
+        <v>4</v>
+      </c>
+      <c r="D372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>5</v>
+      </c>
+      <c r="B373">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+      <c r="D373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>4</v>
+      </c>
+      <c r="B374">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>15</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>4</v>
+      </c>
+      <c r="B376">
+        <v>14</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
+      </c>
+      <c r="D376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>4</v>
+      </c>
+      <c r="B377">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>5</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>5</v>
+      </c>
+      <c r="B379">
+        <v>8</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+      <c r="D379">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>5</v>
+      </c>
+      <c r="B380">
+        <v>13</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>5</v>
+      </c>
+      <c r="B382">
+        <v>18</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>7</v>
+      </c>
+      <c r="B383">
+        <v>14</v>
+      </c>
+      <c r="C383">
+        <v>5</v>
+      </c>
+      <c r="D383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>14</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>4</v>
+      </c>
+      <c r="B385">
+        <v>8</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>4</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>4</v>
+      </c>
+      <c r="B387">
+        <v>16</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>4</v>
+      </c>
+      <c r="B388">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>6</v>
+      </c>
+      <c r="B389">
+        <v>12</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>4</v>
+      </c>
+      <c r="B390">
+        <v>6</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+      <c r="D390">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>5</v>
+      </c>
+      <c r="B391">
+        <v>13</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>8</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>4</v>
+      </c>
+      <c r="B393">
+        <v>15</v>
+      </c>
+      <c r="C393">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4</v>
+      </c>
+      <c r="B394">
+        <v>4</v>
+      </c>
+      <c r="C394">
+        <v>5</v>
+      </c>
+      <c r="D394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>6</v>
+      </c>
+      <c r="B395">
+        <v>8</v>
+      </c>
+      <c r="C395">
+        <v>5</v>
+      </c>
+      <c r="D395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2</v>
+      </c>
+      <c r="B396">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4</v>
+      </c>
+      <c r="B397">
+        <v>6</v>
+      </c>
+      <c r="C397">
+        <v>5</v>
+      </c>
+      <c r="D397">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>4</v>
+      </c>
+      <c r="B398">
+        <v>7</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>4</v>
+      </c>
+      <c r="B399">
+        <v>12</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>14</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2</v>
+      </c>
+      <c r="B401">
+        <v>13</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="B403">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+      <c r="D403">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2</v>
+      </c>
+      <c r="B404">
+        <v>8</v>
+      </c>
+      <c r="C404">
+        <v>4</v>
+      </c>
+      <c r="D404">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>6</v>
+      </c>
+      <c r="B405">
+        <v>16</v>
+      </c>
+      <c r="C405">
+        <v>4</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>3</v>
+      </c>
+      <c r="B406">
+        <v>14</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>5</v>
+      </c>
+      <c r="B407">
+        <v>12</v>
+      </c>
+      <c r="C407">
+        <v>6</v>
+      </c>
+      <c r="D407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>5</v>
+      </c>
+      <c r="B408">
+        <v>7</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>5</v>
+      </c>
+      <c r="B409">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2</v>
+      </c>
+      <c r="B410">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>6</v>
+      </c>
+      <c r="D410">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>16</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>5</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>3</v>
+      </c>
+      <c r="D412">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2</v>
+      </c>
+      <c r="B413">
+        <v>16</v>
+      </c>
+      <c r="C413">
+        <v>3</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>5</v>
+      </c>
+      <c r="B414">
+        <v>6</v>
+      </c>
+      <c r="C414">
+        <v>4</v>
+      </c>
+      <c r="D414">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>5</v>
+      </c>
+      <c r="B415">
+        <v>16</v>
+      </c>
+      <c r="C415">
+        <v>6</v>
+      </c>
+      <c r="D415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1</v>
+      </c>
+      <c r="B416">
+        <v>6</v>
+      </c>
+      <c r="C416">
+        <v>4</v>
+      </c>
+      <c r="D416">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>9</v>
+      </c>
+      <c r="B417">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>7</v>
+      </c>
+      <c r="D417">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>5</v>
+      </c>
+      <c r="B418">
+        <v>12</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+      <c r="D418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>3</v>
+      </c>
+      <c r="B419">
+        <v>8</v>
+      </c>
+      <c r="C419">
+        <v>4</v>
+      </c>
+      <c r="D419">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420">
+        <v>6</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421">
+        <v>15</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>4</v>
+      </c>
+      <c r="B422">
+        <v>13</v>
+      </c>
+      <c r="C422">
+        <v>5</v>
+      </c>
+      <c r="D422">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>4</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>5</v>
+      </c>
+      <c r="D423">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>6</v>
+      </c>
+      <c r="B424">
+        <v>12</v>
+      </c>
+      <c r="C424">
+        <v>4</v>
+      </c>
+      <c r="D424">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>6</v>
+      </c>
+      <c r="B425">
+        <v>15</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>7</v>
+      </c>
+      <c r="B426">
+        <v>7</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+      <c r="D426">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4</v>
+      </c>
+      <c r="B427">
+        <v>6</v>
+      </c>
+      <c r="C427">
+        <v>8</v>
+      </c>
+      <c r="D427">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>6</v>
+      </c>
+      <c r="B428">
+        <v>12</v>
+      </c>
+      <c r="C428">
+        <v>5</v>
+      </c>
+      <c r="D428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>6</v>
+      </c>
+      <c r="B429">
+        <v>18</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>5</v>
+      </c>
+      <c r="D430">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2</v>
+      </c>
+      <c r="B431">
+        <v>17</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>4</v>
+      </c>
+      <c r="B432">
+        <v>8</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+      <c r="D432">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4</v>
+      </c>
+      <c r="B433">
+        <v>7</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>3</v>
+      </c>
+      <c r="B434">
+        <v>12</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4</v>
+      </c>
+      <c r="B435">
+        <v>13</v>
+      </c>
+      <c r="C435">
+        <v>5</v>
+      </c>
+      <c r="D435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>4</v>
+      </c>
+      <c r="B436">
+        <v>5</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>3</v>
+      </c>
+      <c r="B437">
+        <v>18</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>4</v>
+      </c>
+      <c r="B438">
+        <v>8</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>3</v>
+      </c>
+      <c r="B439">
+        <v>16</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+      <c r="D439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>7</v>
+      </c>
+      <c r="D440">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>5</v>
+      </c>
+      <c r="B441">
+        <v>6</v>
+      </c>
+      <c r="C441">
+        <v>4</v>
+      </c>
+      <c r="D441">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>3</v>
+      </c>
+      <c r="B442">
+        <v>8</v>
+      </c>
+      <c r="C442">
+        <v>4</v>
+      </c>
+      <c r="D442">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>3</v>
+      </c>
+      <c r="B443">
+        <v>13</v>
+      </c>
+      <c r="C443">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>5</v>
+      </c>
+      <c r="B444">
+        <v>14</v>
+      </c>
+      <c r="C444">
+        <v>4</v>
+      </c>
+      <c r="D444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2</v>
+      </c>
+      <c r="B445">
+        <v>13</v>
+      </c>
+      <c r="C445">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>3</v>
+      </c>
+      <c r="B446">
+        <v>17</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2</v>
+      </c>
+      <c r="B447">
+        <v>5</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>5</v>
+      </c>
+      <c r="B448">
+        <v>13</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+      <c r="D448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2</v>
+      </c>
+      <c r="B449">
+        <v>6</v>
+      </c>
+      <c r="C449">
+        <v>4</v>
+      </c>
+      <c r="D449">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>5</v>
+      </c>
+      <c r="B450">
+        <v>16</v>
+      </c>
+      <c r="C450">
+        <v>6</v>
+      </c>
+      <c r="D450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>5</v>
+      </c>
+      <c r="B451">
+        <v>14</v>
+      </c>
+      <c r="C451">
+        <v>6</v>
+      </c>
+      <c r="D451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>7</v>
+      </c>
+      <c r="B452">
+        <v>7</v>
+      </c>
+      <c r="C452">
+        <v>4</v>
+      </c>
+      <c r="D452">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>7</v>
+      </c>
+      <c r="B453">
+        <v>13</v>
+      </c>
+      <c r="C453">
+        <v>6</v>
+      </c>
+      <c r="D453">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>6</v>
+      </c>
+      <c r="B454">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>4</v>
+      </c>
+      <c r="D454">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1</v>
+      </c>
+      <c r="B455">
+        <v>13</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>8</v>
+      </c>
+      <c r="B456">
+        <v>8</v>
+      </c>
+      <c r="C456">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3</v>
+      </c>
+      <c r="B457">
+        <v>7</v>
+      </c>
+      <c r="C457">
+        <v>4</v>
+      </c>
+      <c r="D457">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3</v>
+      </c>
+      <c r="B458">
+        <v>8</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+      <c r="D458">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2</v>
+      </c>
+      <c r="B459">
+        <v>12</v>
+      </c>
+      <c r="C459">
+        <v>3</v>
+      </c>
+      <c r="D459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>6</v>
+      </c>
+      <c r="B460">
+        <v>12</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>5</v>
+      </c>
+      <c r="B461">
+        <v>13</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>4</v>
+      </c>
+      <c r="B462">
+        <v>16</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+      <c r="D462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1</v>
+      </c>
+      <c r="B463">
+        <v>8</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>6</v>
+      </c>
+      <c r="B464">
+        <v>6</v>
+      </c>
+      <c r="C464">
+        <v>3</v>
+      </c>
+      <c r="D464">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2</v>
+      </c>
+      <c r="B465">
+        <v>15</v>
+      </c>
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>4</v>
+      </c>
+      <c r="B466">
+        <v>4</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>6</v>
+      </c>
+      <c r="B467">
+        <v>14</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>3</v>
+      </c>
+      <c r="B468">
+        <v>13</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>5</v>
+      </c>
+      <c r="B469">
+        <v>5</v>
+      </c>
+      <c r="C469">
+        <v>6</v>
+      </c>
+      <c r="D469">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>6</v>
+      </c>
+      <c r="B470">
+        <v>5</v>
+      </c>
+      <c r="C470">
+        <v>4</v>
+      </c>
+      <c r="D470">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>5</v>
+      </c>
+      <c r="B471">
+        <v>16</v>
+      </c>
+      <c r="C471">
+        <v>4</v>
+      </c>
+      <c r="D471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>2</v>
+      </c>
+      <c r="B472">
+        <v>6</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>7</v>
+      </c>
+      <c r="B473">
+        <v>3</v>
+      </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3</v>
+      </c>
+      <c r="B474">
+        <v>6</v>
+      </c>
+      <c r="C474">
+        <v>5</v>
+      </c>
+      <c r="D474">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475">
+        <v>14</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>3</v>
+      </c>
+      <c r="B476">
+        <v>3</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>5</v>
+      </c>
+      <c r="B477">
+        <v>17</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>5</v>
+      </c>
+      <c r="B478">
+        <v>7</v>
+      </c>
+      <c r="C478">
+        <v>6</v>
+      </c>
+      <c r="D478">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>5</v>
+      </c>
+      <c r="B479">
+        <v>14</v>
+      </c>
+      <c r="C479">
+        <v>7</v>
+      </c>
+      <c r="D479">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2</v>
+      </c>
+      <c r="B480">
+        <v>12</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>9</v>
+      </c>
+      <c r="B481">
+        <v>13</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+      <c r="D481">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2</v>
+      </c>
+      <c r="B482">
+        <v>6</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3</v>
+      </c>
+      <c r="B483">
+        <v>8</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+      <c r="D483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484">
+        <v>12</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1</v>
+      </c>
+      <c r="B485">
+        <v>18</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1</v>
+      </c>
+      <c r="B486">
+        <v>14</v>
+      </c>
+      <c r="C486">
+        <v>3</v>
+      </c>
+      <c r="D486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>5</v>
+      </c>
+      <c r="B487">
+        <v>7</v>
+      </c>
+      <c r="C487">
+        <v>6</v>
+      </c>
+      <c r="D487">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>7</v>
+      </c>
+      <c r="B488">
+        <v>15</v>
+      </c>
+      <c r="C488">
+        <v>5</v>
+      </c>
+      <c r="D488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>5</v>
+      </c>
+      <c r="B489">
+        <v>6</v>
+      </c>
+      <c r="C489">
+        <v>4</v>
+      </c>
+      <c r="D489">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3</v>
+      </c>
+      <c r="B490">
+        <v>13</v>
+      </c>
+      <c r="C490">
+        <v>4</v>
+      </c>
+      <c r="D490">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>6</v>
+      </c>
+      <c r="B491">
+        <v>15</v>
+      </c>
+      <c r="C491">
+        <v>5</v>
+      </c>
+      <c r="D491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>5</v>
+      </c>
+      <c r="B492">
+        <v>19</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>3</v>
+      </c>
+      <c r="B493">
+        <v>8</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>14</v>
+      </c>
+      <c r="C494">
+        <v>5</v>
+      </c>
+      <c r="D494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>5</v>
+      </c>
+      <c r="B495">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>6</v>
+      </c>
+      <c r="D495">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>5</v>
+      </c>
+      <c r="B496">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>4</v>
+      </c>
+      <c r="D496">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2</v>
+      </c>
+      <c r="B497">
+        <v>8</v>
+      </c>
+      <c r="C497">
+        <v>4</v>
+      </c>
+      <c r="D497">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498">
+        <v>12</v>
+      </c>
+      <c r="C498">
+        <v>5</v>
+      </c>
+      <c r="D498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3</v>
+      </c>
+      <c r="B499">
+        <v>15</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>6</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>6</v>
+      </c>
+      <c r="B501">
+        <v>8</v>
+      </c>
+      <c r="C501">
+        <v>5</v>
+      </c>
+      <c r="D501">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>4</v>
+      </c>
+      <c r="B502">
+        <v>8</v>
+      </c>
+      <c r="C502">
+        <v>8</v>
+      </c>
+      <c r="D502">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>4</v>
+      </c>
+      <c r="B503">
+        <v>3</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>4</v>
+      </c>
+      <c r="B504">
+        <v>12</v>
+      </c>
+      <c r="C504">
+        <v>6</v>
+      </c>
+      <c r="D504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>3</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506">
+        <v>13</v>
+      </c>
+      <c r="C506">
+        <v>6</v>
+      </c>
+      <c r="D506">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>4</v>
+      </c>
+      <c r="B507">
+        <v>3</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="D507">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>7</v>
+      </c>
+      <c r="B508">
+        <v>14</v>
+      </c>
+      <c r="C508">
+        <v>6</v>
+      </c>
+      <c r="D508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>4</v>
+      </c>
+      <c r="B509">
+        <v>12</v>
+      </c>
+      <c r="C509">
+        <v>3</v>
+      </c>
+      <c r="D509">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>1</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>4</v>
+      </c>
+      <c r="D510">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>6</v>
+      </c>
+      <c r="B511">
+        <v>5</v>
+      </c>
+      <c r="C511">
+        <v>5</v>
+      </c>
+      <c r="D511">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>3</v>
+      </c>
+      <c r="B512">
+        <v>14</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>6</v>
+      </c>
+      <c r="B513">
+        <v>8</v>
+      </c>
+      <c r="C513">
+        <v>4</v>
+      </c>
+      <c r="D513">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>2</v>
+      </c>
+      <c r="B514">
+        <v>16</v>
+      </c>
+      <c r="C514">
+        <v>4</v>
+      </c>
+      <c r="D514">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>4</v>
+      </c>
+      <c r="B515">
+        <v>6</v>
+      </c>
+      <c r="C515">
+        <v>5</v>
+      </c>
+      <c r="D515">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1</v>
+      </c>
+      <c r="B516">
+        <v>14</v>
+      </c>
+      <c r="C516">
+        <v>3</v>
+      </c>
+      <c r="D516">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>7</v>
+      </c>
+      <c r="B517">
+        <v>16</v>
+      </c>
+      <c r="C517">
+        <v>6</v>
+      </c>
+      <c r="D517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>3</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>3</v>
+      </c>
+      <c r="B519">
+        <v>6</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>6</v>
+      </c>
+      <c r="B520">
+        <v>8</v>
+      </c>
+      <c r="C520">
+        <v>5</v>
+      </c>
+      <c r="D520">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>4</v>
+      </c>
+      <c r="B521">
+        <v>12</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>6</v>
+      </c>
+      <c r="B522">
+        <v>6</v>
+      </c>
+      <c r="C522">
+        <v>9</v>
+      </c>
+      <c r="D522">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>2</v>
+      </c>
+      <c r="B523">
+        <v>4</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
+      <c r="D523">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>6</v>
+      </c>
+      <c r="B524">
+        <v>12</v>
+      </c>
+      <c r="C524">
+        <v>4</v>
+      </c>
+      <c r="D524">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2</v>
+      </c>
+      <c r="B525">
+        <v>7</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+      <c r="D525">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>6</v>
+      </c>
+      <c r="B526">
+        <v>12</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>1</v>
+      </c>
+      <c r="B527">
+        <v>14</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>5</v>
+      </c>
+      <c r="B528">
+        <v>12</v>
+      </c>
+      <c r="C528">
+        <v>4</v>
+      </c>
+      <c r="D528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>14</v>
+      </c>
+      <c r="C529">
+        <v>4</v>
+      </c>
+      <c r="D529">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>3</v>
+      </c>
+      <c r="B530">
+        <v>7</v>
+      </c>
+      <c r="C530">
+        <v>4</v>
+      </c>
+      <c r="D530">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>4</v>
+      </c>
+      <c r="B531">
+        <v>8</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+      <c r="D531">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>4</v>
+      </c>
+      <c r="B532">
+        <v>8</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>4</v>
+      </c>
+      <c r="B533">
+        <v>18</v>
+      </c>
+      <c r="C533">
+        <v>4</v>
+      </c>
+      <c r="D533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>3</v>
+      </c>
+      <c r="B534">
+        <v>7</v>
+      </c>
+      <c r="C534">
+        <v>4</v>
+      </c>
+      <c r="D534">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>4</v>
+      </c>
+      <c r="B535">
+        <v>2</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+      <c r="D535">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>4</v>
+      </c>
+      <c r="B536">
+        <v>6</v>
+      </c>
+      <c r="C536">
+        <v>5</v>
+      </c>
+      <c r="D536">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>3</v>
+      </c>
+      <c r="B537">
+        <v>13</v>
+      </c>
+      <c r="C537">
+        <v>5</v>
+      </c>
+      <c r="D537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>8</v>
+      </c>
+      <c r="C538">
+        <v>7</v>
+      </c>
+      <c r="D538">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>6</v>
+      </c>
+      <c r="B539">
+        <v>2</v>
+      </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
+      <c r="D539">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>3</v>
+      </c>
+      <c r="B540">
+        <v>5</v>
+      </c>
+      <c r="C540">
+        <v>5</v>
+      </c>
+      <c r="D540">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>2</v>
+      </c>
+      <c r="B541">
+        <v>13</v>
+      </c>
+      <c r="C541">
+        <v>3</v>
+      </c>
+      <c r="D541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>5</v>
+      </c>
+      <c r="B542">
+        <v>12</v>
+      </c>
+      <c r="C542">
+        <v>6</v>
+      </c>
+      <c r="D542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>4</v>
+      </c>
+      <c r="B543">
+        <v>12</v>
+      </c>
+      <c r="C543">
+        <v>5</v>
+      </c>
+      <c r="D543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>5</v>
+      </c>
+      <c r="B544">
+        <v>15</v>
+      </c>
+      <c r="C544">
+        <v>6</v>
+      </c>
+      <c r="D544">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>3</v>
+      </c>
+      <c r="B545">
+        <v>16</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+      <c r="D545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>2</v>
+      </c>
+      <c r="B546">
+        <v>8</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+      <c r="D546">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>9</v>
+      </c>
+      <c r="B547">
+        <v>7</v>
+      </c>
+      <c r="C547">
+        <v>6</v>
+      </c>
+      <c r="D547">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>4</v>
+      </c>
+      <c r="B548">
+        <v>13</v>
+      </c>
+      <c r="C548">
+        <v>6</v>
+      </c>
+      <c r="D548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>4</v>
+      </c>
+      <c r="B549">
+        <v>14</v>
+      </c>
+      <c r="C549">
+        <v>3</v>
+      </c>
+      <c r="D549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>4</v>
+      </c>
+      <c r="B550">
+        <v>5</v>
+      </c>
+      <c r="C550">
+        <v>6</v>
+      </c>
+      <c r="D550">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>7</v>
+      </c>
+      <c r="B551">
+        <v>5</v>
+      </c>
+      <c r="C551">
+        <v>5</v>
+      </c>
+      <c r="D551">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>4</v>
+      </c>
+      <c r="B552">
+        <v>6</v>
+      </c>
+      <c r="C552">
+        <v>6</v>
+      </c>
+      <c r="D552">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1</v>
+      </c>
+      <c r="B553">
+        <v>7</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>5</v>
+      </c>
+      <c r="B554">
+        <v>13</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>3</v>
+      </c>
+      <c r="B555">
+        <v>6</v>
+      </c>
+      <c r="C555">
+        <v>4</v>
+      </c>
+      <c r="D555">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>5</v>
+      </c>
+      <c r="B556">
+        <v>8</v>
+      </c>
+      <c r="C556">
+        <v>6</v>
+      </c>
+      <c r="D556">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>4</v>
+      </c>
+      <c r="B557">
+        <v>2</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="D557">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>2</v>
+      </c>
+      <c r="B558">
+        <v>8</v>
+      </c>
+      <c r="C558">
+        <v>5</v>
+      </c>
+      <c r="D558">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>5</v>
+      </c>
+      <c r="B559">
+        <v>8</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>6</v>
+      </c>
+      <c r="B560">
+        <v>14</v>
+      </c>
+      <c r="C560">
+        <v>5</v>
+      </c>
+      <c r="D560">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>3</v>
+      </c>
+      <c r="B561">
+        <v>8</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>7</v>
+      </c>
+      <c r="B562">
+        <v>12</v>
+      </c>
+      <c r="C562">
+        <v>6</v>
+      </c>
+      <c r="D562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1</v>
+      </c>
+      <c r="B563">
+        <v>8</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+      <c r="D563">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>4</v>
+      </c>
+      <c r="B564">
+        <v>8</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>4</v>
+      </c>
+      <c r="B565">
+        <v>6</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>5</v>
+      </c>
+      <c r="B566">
+        <v>5</v>
+      </c>
+      <c r="C566">
+        <v>9</v>
+      </c>
+      <c r="D566">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>6</v>
+      </c>
+      <c r="B567">
+        <v>13</v>
+      </c>
+      <c r="C567">
+        <v>4</v>
+      </c>
+      <c r="D567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>3</v>
+      </c>
+      <c r="B568">
+        <v>13</v>
+      </c>
+      <c r="C568">
+        <v>4</v>
+      </c>
+      <c r="D568">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>2</v>
+      </c>
+      <c r="B569">
+        <v>12</v>
+      </c>
+      <c r="C569">
+        <v>4</v>
+      </c>
+      <c r="D569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>5</v>
+      </c>
+      <c r="B570">
+        <v>15</v>
+      </c>
+      <c r="C570">
+        <v>4</v>
+      </c>
+      <c r="D570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>5</v>
+      </c>
+      <c r="B571">
+        <v>6</v>
+      </c>
+      <c r="C571">
+        <v>4</v>
+      </c>
+      <c r="D571">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>5</v>
+      </c>
+      <c r="B572">
+        <v>5</v>
+      </c>
+      <c r="C572">
+        <v>4</v>
+      </c>
+      <c r="D572">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>4</v>
+      </c>
+      <c r="B573">
+        <v>12</v>
+      </c>
+      <c r="C573">
+        <v>5</v>
+      </c>
+      <c r="D573">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>4</v>
+      </c>
+      <c r="B574">
+        <v>4</v>
+      </c>
+      <c r="C574">
+        <v>6</v>
+      </c>
+      <c r="D574">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>5</v>
+      </c>
+      <c r="B575">
+        <v>15</v>
+      </c>
+      <c r="C575">
+        <v>6</v>
+      </c>
+      <c r="D575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>6</v>
+      </c>
+      <c r="B576">
+        <v>15</v>
+      </c>
+      <c r="C576">
+        <v>4</v>
+      </c>
+      <c r="D576">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>3</v>
+      </c>
+      <c r="B577">
+        <v>5</v>
+      </c>
+      <c r="C577">
+        <v>4</v>
+      </c>
+      <c r="D577">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>2</v>
+      </c>
+      <c r="B578">
+        <v>13</v>
+      </c>
+      <c r="C578">
+        <v>3</v>
+      </c>
+      <c r="D578">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1</v>
+      </c>
+      <c r="B579">
+        <v>6</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+      <c r="D579">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>7</v>
+      </c>
+      <c r="B580">
+        <v>8</v>
+      </c>
+      <c r="C580">
+        <v>6</v>
+      </c>
+      <c r="D580">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>4</v>
+      </c>
+      <c r="B581">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>5</v>
+      </c>
+      <c r="D581">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>4</v>
+      </c>
+      <c r="B582">
+        <v>12</v>
+      </c>
+      <c r="C582">
+        <v>2</v>
+      </c>
+      <c r="D582">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>5</v>
+      </c>
+      <c r="B583">
+        <v>12</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>3</v>
+      </c>
+      <c r="B584">
+        <v>8</v>
+      </c>
+      <c r="C584">
+        <v>4</v>
+      </c>
+      <c r="D584">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>4</v>
+      </c>
+      <c r="B585">
+        <v>19</v>
+      </c>
+      <c r="C585">
+        <v>3</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>5</v>
+      </c>
+      <c r="B586">
+        <v>16</v>
+      </c>
+      <c r="C586">
+        <v>4</v>
+      </c>
+      <c r="D586">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>5</v>
+      </c>
+      <c r="B587">
+        <v>6</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+      <c r="D587">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>3</v>
+      </c>
+      <c r="B588">
+        <v>8</v>
+      </c>
+      <c r="C588">
+        <v>4</v>
+      </c>
+      <c r="D588">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>5</v>
+      </c>
+      <c r="B589">
+        <v>15</v>
+      </c>
+      <c r="C589">
+        <v>3</v>
+      </c>
+      <c r="D589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>2</v>
+      </c>
+      <c r="B590">
+        <v>4</v>
+      </c>
+      <c r="C590">
+        <v>4</v>
+      </c>
+      <c r="D590">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>3</v>
+      </c>
+      <c r="B591">
+        <v>6</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+      <c r="D591">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>7</v>
+      </c>
+      <c r="B592">
+        <v>5</v>
+      </c>
+      <c r="C592">
+        <v>5</v>
+      </c>
+      <c r="D592">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>4</v>
+      </c>
+      <c r="B593">
+        <v>8</v>
+      </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
+      <c r="D593">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>4</v>
+      </c>
+      <c r="B594">
+        <v>8</v>
+      </c>
+      <c r="C594">
+        <v>5</v>
+      </c>
+      <c r="D594">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>4</v>
+      </c>
+      <c r="B595">
+        <v>12</v>
+      </c>
+      <c r="C595">
+        <v>2</v>
+      </c>
+      <c r="D595">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>4</v>
+      </c>
+      <c r="B596">
+        <v>8</v>
+      </c>
+      <c r="C596">
+        <v>6</v>
+      </c>
+      <c r="D596">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>6</v>
+      </c>
+      <c r="B597">
+        <v>13</v>
+      </c>
+      <c r="C597">
+        <v>7</v>
+      </c>
+      <c r="D597">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>4</v>
+      </c>
+      <c r="B598">
+        <v>15</v>
+      </c>
+      <c r="C598">
+        <v>5</v>
+      </c>
+      <c r="D598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>4</v>
+      </c>
+      <c r="B599">
+        <v>12</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>6</v>
+      </c>
+      <c r="B600">
+        <v>16</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+      <c r="D600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>4</v>
+      </c>
+      <c r="B601">
+        <v>17</v>
+      </c>
+      <c r="C601">
+        <v>3</v>
+      </c>
+      <c r="D601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>5</v>
+      </c>
+      <c r="B602">
+        <v>16</v>
+      </c>
+      <c r="C602">
+        <v>4</v>
+      </c>
+      <c r="D602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>6</v>
+      </c>
+      <c r="B603">
+        <v>12</v>
+      </c>
+      <c r="C603">
+        <v>5</v>
+      </c>
+      <c r="D603">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>2</v>
+      </c>
+      <c r="B604">
+        <v>16</v>
+      </c>
+      <c r="C604">
+        <v>3</v>
+      </c>
+      <c r="D604">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>2</v>
+      </c>
+      <c r="B605">
+        <v>15</v>
+      </c>
+      <c r="C605">
+        <v>3</v>
+      </c>
+      <c r="D605">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>5</v>
+      </c>
+      <c r="B606">
+        <v>7</v>
+      </c>
+      <c r="C606">
+        <v>6</v>
+      </c>
+      <c r="D606">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>6</v>
+      </c>
+      <c r="B607">
+        <v>13</v>
+      </c>
+      <c r="C607">
+        <v>5</v>
+      </c>
+      <c r="D607">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>3</v>
+      </c>
+      <c r="B608">
+        <v>12</v>
+      </c>
+      <c r="C608">
+        <v>2</v>
+      </c>
+      <c r="D608">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>3</v>
+      </c>
+      <c r="B609">
+        <v>5</v>
+      </c>
+      <c r="C609">
+        <v>4</v>
+      </c>
+      <c r="D609">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>4</v>
+      </c>
+      <c r="B610">
+        <v>7</v>
+      </c>
+      <c r="C610">
+        <v>3</v>
+      </c>
+      <c r="D610">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>5</v>
+      </c>
+      <c r="B611">
+        <v>14</v>
+      </c>
+      <c r="C611">
+        <v>8</v>
+      </c>
+      <c r="D611">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>1</v>
+      </c>
+      <c r="B612">
+        <v>8</v>
+      </c>
+      <c r="C612">
+        <v>4</v>
+      </c>
+      <c r="D612">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>2</v>
+      </c>
+      <c r="B613">
+        <v>15</v>
+      </c>
+      <c r="C613">
+        <v>3</v>
+      </c>
+      <c r="D613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>4</v>
+      </c>
+      <c r="B614">
+        <v>13</v>
+      </c>
+      <c r="C614">
+        <v>5</v>
+      </c>
+      <c r="D614">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>2</v>
+      </c>
+      <c r="B615">
+        <v>15</v>
+      </c>
+      <c r="C615">
+        <v>4</v>
+      </c>
+      <c r="D615">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>5</v>
+      </c>
+      <c r="B616">
+        <v>12</v>
+      </c>
+      <c r="C616">
+        <v>4</v>
+      </c>
+      <c r="D616">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>6</v>
+      </c>
+      <c r="B617">
+        <v>6</v>
+      </c>
+      <c r="C617">
+        <v>4</v>
+      </c>
+      <c r="D617">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>5</v>
+      </c>
+      <c r="B618">
+        <v>16</v>
+      </c>
+      <c r="C618">
+        <v>4</v>
+      </c>
+      <c r="D618">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>2</v>
+      </c>
+      <c r="B619">
+        <v>6</v>
+      </c>
+      <c r="C619">
+        <v>4</v>
+      </c>
+      <c r="D619">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1</v>
+      </c>
+      <c r="B620">
+        <v>14</v>
+      </c>
+      <c r="C620">
+        <v>3</v>
+      </c>
+      <c r="D620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>6</v>
+      </c>
+      <c r="B621">
+        <v>16</v>
+      </c>
+      <c r="C621">
+        <v>4</v>
+      </c>
+      <c r="D621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>7</v>
+      </c>
+      <c r="B622">
+        <v>5</v>
+      </c>
+      <c r="C622">
+        <v>6</v>
+      </c>
+      <c r="D622">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>6</v>
+      </c>
+      <c r="B623">
+        <v>7</v>
+      </c>
+      <c r="C623">
+        <v>7</v>
+      </c>
+      <c r="D623">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>5</v>
+      </c>
+      <c r="B624">
+        <v>16</v>
+      </c>
+      <c r="C624">
+        <v>4</v>
+      </c>
+      <c r="D624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>5</v>
+      </c>
+      <c r="B625">
+        <v>8</v>
+      </c>
+      <c r="C625">
+        <v>6</v>
+      </c>
+      <c r="D625">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>3</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+      <c r="C626">
+        <v>4</v>
+      </c>
+      <c r="D626">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>5</v>
+      </c>
+      <c r="B627">
+        <v>7</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>5</v>
+      </c>
+      <c r="B628">
+        <v>14</v>
+      </c>
+      <c r="C628">
+        <v>6</v>
+      </c>
+      <c r="D628">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>5</v>
+      </c>
+      <c r="B629">
+        <v>13</v>
+      </c>
+      <c r="C629">
+        <v>6</v>
+      </c>
+      <c r="D629">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>3</v>
+      </c>
+      <c r="B630">
+        <v>5</v>
+      </c>
+      <c r="C630">
+        <v>4</v>
+      </c>
+      <c r="D630">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>5</v>
+      </c>
+      <c r="B631">
+        <v>14</v>
+      </c>
+      <c r="C631">
+        <v>3</v>
+      </c>
+      <c r="D631">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>2</v>
+      </c>
+      <c r="B632">
+        <v>12</v>
+      </c>
+      <c r="C632">
+        <v>3</v>
+      </c>
+      <c r="D632">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>8</v>
+      </c>
+      <c r="B633">
+        <v>17</v>
+      </c>
+      <c r="C633">
+        <v>7</v>
+      </c>
+      <c r="D633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>1</v>
+      </c>
+      <c r="B634">
+        <v>15</v>
+      </c>
+      <c r="C634">
+        <v>2</v>
+      </c>
+      <c r="D634">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>3</v>
+      </c>
+      <c r="B635">
+        <v>1</v>
+      </c>
+      <c r="C635">
+        <v>2</v>
+      </c>
+      <c r="D635">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>4</v>
+      </c>
+      <c r="B636">
+        <v>7</v>
+      </c>
+      <c r="C636">
+        <v>6</v>
+      </c>
+      <c r="D636">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>7</v>
+      </c>
+      <c r="B637">
+        <v>14</v>
+      </c>
+      <c r="C637">
+        <v>6</v>
+      </c>
+      <c r="D637">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>4</v>
+      </c>
+      <c r="B638">
+        <v>14</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>4</v>
+      </c>
+      <c r="B639">
+        <v>15</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+      <c r="D639">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>4</v>
+      </c>
+      <c r="B640">
+        <v>18</v>
+      </c>
+      <c r="C640">
+        <v>3</v>
+      </c>
+      <c r="D640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>5</v>
+      </c>
+      <c r="B641">
+        <v>12</v>
+      </c>
+      <c r="C641">
+        <v>6</v>
+      </c>
+      <c r="D641">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>4</v>
+      </c>
+      <c r="B642">
+        <v>12</v>
+      </c>
+      <c r="C642">
+        <v>5</v>
+      </c>
+      <c r="D642">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>6</v>
+      </c>
+      <c r="B643">
+        <v>4</v>
+      </c>
+      <c r="C643">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>5</v>
+      </c>
+      <c r="B644">
+        <v>14</v>
+      </c>
+      <c r="C644">
+        <v>4</v>
+      </c>
+      <c r="D644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>4</v>
+      </c>
+      <c r="B645">
+        <v>12</v>
+      </c>
+      <c r="C645">
+        <v>3</v>
+      </c>
+      <c r="D645">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>6</v>
+      </c>
+      <c r="B646">
+        <v>17</v>
+      </c>
+      <c r="C646">
+        <v>4</v>
+      </c>
+      <c r="D646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>5</v>
+      </c>
+      <c r="B647">
+        <v>12</v>
+      </c>
+      <c r="C647">
+        <v>4</v>
+      </c>
+      <c r="D647">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>2</v>
+      </c>
+      <c r="B648">
+        <v>7</v>
+      </c>
+      <c r="C648">
+        <v>3</v>
+      </c>
+      <c r="D648">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>6</v>
+      </c>
+      <c r="B649">
+        <v>5</v>
+      </c>
+      <c r="C649">
+        <v>5</v>
+      </c>
+      <c r="D649">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>2</v>
+      </c>
+      <c r="B650">
+        <v>17</v>
+      </c>
+      <c r="C650">
+        <v>6</v>
+      </c>
+      <c r="D650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>6</v>
+      </c>
+      <c r="B651">
+        <v>15</v>
+      </c>
+      <c r="C651">
+        <v>5</v>
+      </c>
+      <c r="D651">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>3</v>
+      </c>
+      <c r="B652">
+        <v>12</v>
+      </c>
+      <c r="C652">
+        <v>4</v>
+      </c>
+      <c r="D652">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>6</v>
+      </c>
+      <c r="B653">
+        <v>13</v>
+      </c>
+      <c r="C653">
+        <v>5</v>
+      </c>
+      <c r="D653">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>4</v>
+      </c>
+      <c r="B654">
+        <v>14</v>
+      </c>
+      <c r="C654">
+        <v>2</v>
+      </c>
+      <c r="D654">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>1</v>
+      </c>
+      <c r="B655">
+        <v>16</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+      <c r="D655">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>6</v>
+      </c>
+      <c r="B656">
+        <v>7</v>
+      </c>
+      <c r="C656">
+        <v>5</v>
+      </c>
+      <c r="D656">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>4</v>
+      </c>
+      <c r="B657">
+        <v>7</v>
+      </c>
+      <c r="C657">
+        <v>9</v>
+      </c>
+      <c r="D657">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>7</v>
+      </c>
+      <c r="B658">
+        <v>15</v>
+      </c>
+      <c r="C658">
+        <v>4</v>
+      </c>
+      <c r="D658">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>2</v>
+      </c>
+      <c r="B659">
+        <v>13</v>
+      </c>
+      <c r="C659">
+        <v>4</v>
+      </c>
+      <c r="D659">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>5</v>
+      </c>
+      <c r="B660">
+        <v>6</v>
+      </c>
+      <c r="C660">
+        <v>4</v>
+      </c>
+      <c r="D660">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>6</v>
+      </c>
+      <c r="B661">
+        <v>16</v>
+      </c>
+      <c r="C661">
+        <v>7</v>
+      </c>
+      <c r="D661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>3</v>
+      </c>
+      <c r="B662">
+        <v>6</v>
+      </c>
+      <c r="C662">
+        <v>4</v>
+      </c>
+      <c r="D662">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>5</v>
+      </c>
+      <c r="B663">
+        <v>6</v>
+      </c>
+      <c r="C663">
+        <v>3</v>
+      </c>
+      <c r="D663">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>6</v>
+      </c>
+      <c r="B664">
+        <v>8</v>
+      </c>
+      <c r="C664">
+        <v>4</v>
+      </c>
+      <c r="D664">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>5</v>
+      </c>
+      <c r="B665">
+        <v>5</v>
+      </c>
+      <c r="C665">
+        <v>4</v>
+      </c>
+      <c r="D665">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>4</v>
+      </c>
+      <c r="B666">
+        <v>2</v>
+      </c>
+      <c r="C666">
+        <v>5</v>
+      </c>
+      <c r="D666">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>4</v>
+      </c>
+      <c r="B667">
+        <v>8</v>
+      </c>
+      <c r="C667">
+        <v>7</v>
+      </c>
+      <c r="D667">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>5</v>
+      </c>
+      <c r="B668">
+        <v>6</v>
+      </c>
+      <c r="C668">
+        <v>6</v>
+      </c>
+      <c r="D668">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>2</v>
+      </c>
+      <c r="B669">
+        <v>8</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="D669">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>3</v>
+      </c>
+      <c r="B670">
+        <v>17</v>
+      </c>
+      <c r="C670">
+        <v>4</v>
+      </c>
+      <c r="D670">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>5</v>
+      </c>
+      <c r="B671">
+        <v>5</v>
+      </c>
+      <c r="C671">
+        <v>6</v>
+      </c>
+      <c r="D671">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>4</v>
+      </c>
+      <c r="B672">
+        <v>12</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+      <c r="D672">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>5</v>
+      </c>
+      <c r="B673">
+        <v>7</v>
+      </c>
+      <c r="C673">
+        <v>6</v>
+      </c>
+      <c r="D673">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>3</v>
+      </c>
+      <c r="B674">
+        <v>12</v>
+      </c>
+      <c r="C674">
+        <v>5</v>
+      </c>
+      <c r="D674">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>3</v>
+      </c>
+      <c r="B675">
+        <v>14</v>
+      </c>
+      <c r="C675">
+        <v>6</v>
+      </c>
+      <c r="D675">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>5</v>
+      </c>
+      <c r="B676">
+        <v>7</v>
+      </c>
+      <c r="C676">
+        <v>6</v>
+      </c>
+      <c r="D676">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>6</v>
+      </c>
+      <c r="B677">
+        <v>12</v>
+      </c>
+      <c r="C677">
+        <v>3</v>
+      </c>
+      <c r="D677">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>3</v>
+      </c>
+      <c r="B678">
+        <v>8</v>
+      </c>
+      <c r="C678">
+        <v>4</v>
+      </c>
+      <c r="D678">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>5</v>
+      </c>
+      <c r="B679">
+        <v>13</v>
+      </c>
+      <c r="C679">
+        <v>4</v>
+      </c>
+      <c r="D679">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8138C6-0C72-47BF-8270-4CC6444D7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92D571-8180-4FCB-A8DB-62335790D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92D571-8180-4FCB-A8DB-62335790D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12BC65-A616-4B04-A72D-98A2A396FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D679"/>
+  <dimension ref="A1:D775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
-      <selection activeCell="A680" sqref="A680"/>
+    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
+      <selection activeCell="A776" sqref="A776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9879,6 +9879,1350 @@
         <v>7</v>
       </c>
     </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>6</v>
+      </c>
+      <c r="B680">
+        <v>7</v>
+      </c>
+      <c r="C680">
+        <v>5</v>
+      </c>
+      <c r="D680">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>5</v>
+      </c>
+      <c r="B681">
+        <v>8</v>
+      </c>
+      <c r="C681">
+        <v>4</v>
+      </c>
+      <c r="D681">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>5</v>
+      </c>
+      <c r="B682">
+        <v>3</v>
+      </c>
+      <c r="C682">
+        <v>4</v>
+      </c>
+      <c r="D682">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>4</v>
+      </c>
+      <c r="B683">
+        <v>16</v>
+      </c>
+      <c r="C683">
+        <v>5</v>
+      </c>
+      <c r="D683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>5</v>
+      </c>
+      <c r="B684">
+        <v>16</v>
+      </c>
+      <c r="C684">
+        <v>4</v>
+      </c>
+      <c r="D684">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>5</v>
+      </c>
+      <c r="B685">
+        <v>5</v>
+      </c>
+      <c r="C685">
+        <v>4</v>
+      </c>
+      <c r="D685">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>3</v>
+      </c>
+      <c r="B686">
+        <v>14</v>
+      </c>
+      <c r="C686">
+        <v>4</v>
+      </c>
+      <c r="D686">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>2</v>
+      </c>
+      <c r="B687">
+        <v>8</v>
+      </c>
+      <c r="C687">
+        <v>3</v>
+      </c>
+      <c r="D687">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>4</v>
+      </c>
+      <c r="B688">
+        <v>13</v>
+      </c>
+      <c r="C688">
+        <v>3</v>
+      </c>
+      <c r="D688">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>3</v>
+      </c>
+      <c r="B689">
+        <v>16</v>
+      </c>
+      <c r="C689">
+        <v>5</v>
+      </c>
+      <c r="D689">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>6</v>
+      </c>
+      <c r="B690">
+        <v>15</v>
+      </c>
+      <c r="C690">
+        <v>4</v>
+      </c>
+      <c r="D690">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>3</v>
+      </c>
+      <c r="B691">
+        <v>12</v>
+      </c>
+      <c r="C691">
+        <v>2</v>
+      </c>
+      <c r="D691">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>6</v>
+      </c>
+      <c r="B692">
+        <v>12</v>
+      </c>
+      <c r="C692">
+        <v>7</v>
+      </c>
+      <c r="D692">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>4</v>
+      </c>
+      <c r="B693">
+        <v>8</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+      <c r="D693">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>5</v>
+      </c>
+      <c r="B694">
+        <v>8</v>
+      </c>
+      <c r="C694">
+        <v>6</v>
+      </c>
+      <c r="D694">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>4</v>
+      </c>
+      <c r="B695">
+        <v>12</v>
+      </c>
+      <c r="C695">
+        <v>5</v>
+      </c>
+      <c r="D695">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>4</v>
+      </c>
+      <c r="B696">
+        <v>4</v>
+      </c>
+      <c r="C696">
+        <v>5</v>
+      </c>
+      <c r="D696">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>1</v>
+      </c>
+      <c r="B697">
+        <v>4</v>
+      </c>
+      <c r="C697">
+        <v>3</v>
+      </c>
+      <c r="D697">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>5</v>
+      </c>
+      <c r="B698">
+        <v>7</v>
+      </c>
+      <c r="C698">
+        <v>3</v>
+      </c>
+      <c r="D698">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>3</v>
+      </c>
+      <c r="B699">
+        <v>12</v>
+      </c>
+      <c r="C699">
+        <v>4</v>
+      </c>
+      <c r="D699">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>5</v>
+      </c>
+      <c r="B700">
+        <v>13</v>
+      </c>
+      <c r="C700">
+        <v>3</v>
+      </c>
+      <c r="D700">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>3</v>
+      </c>
+      <c r="B701">
+        <v>2</v>
+      </c>
+      <c r="C701">
+        <v>5</v>
+      </c>
+      <c r="D701">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>3</v>
+      </c>
+      <c r="B702">
+        <v>4</v>
+      </c>
+      <c r="C702">
+        <v>5</v>
+      </c>
+      <c r="D702">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>2</v>
+      </c>
+      <c r="B703">
+        <v>7</v>
+      </c>
+      <c r="C703">
+        <v>3</v>
+      </c>
+      <c r="D703">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>3</v>
+      </c>
+      <c r="B704">
+        <v>4</v>
+      </c>
+      <c r="C704">
+        <v>5</v>
+      </c>
+      <c r="D704">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>6</v>
+      </c>
+      <c r="B705">
+        <v>14</v>
+      </c>
+      <c r="C705">
+        <v>4</v>
+      </c>
+      <c r="D705">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>4</v>
+      </c>
+      <c r="B706">
+        <v>14</v>
+      </c>
+      <c r="C706">
+        <v>7</v>
+      </c>
+      <c r="D706">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>2</v>
+      </c>
+      <c r="B707">
+        <v>14</v>
+      </c>
+      <c r="C707">
+        <v>3</v>
+      </c>
+      <c r="D707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>4</v>
+      </c>
+      <c r="B708">
+        <v>15</v>
+      </c>
+      <c r="C708">
+        <v>2</v>
+      </c>
+      <c r="D708">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>5</v>
+      </c>
+      <c r="B709">
+        <v>7</v>
+      </c>
+      <c r="C709">
+        <v>9</v>
+      </c>
+      <c r="D709">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>5</v>
+      </c>
+      <c r="B710">
+        <v>8</v>
+      </c>
+      <c r="C710">
+        <v>4</v>
+      </c>
+      <c r="D710">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>5</v>
+      </c>
+      <c r="B711">
+        <v>20</v>
+      </c>
+      <c r="C711">
+        <v>4</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>3</v>
+      </c>
+      <c r="B712">
+        <v>8</v>
+      </c>
+      <c r="C712">
+        <v>4</v>
+      </c>
+      <c r="D712">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>6</v>
+      </c>
+      <c r="B713">
+        <v>7</v>
+      </c>
+      <c r="C713">
+        <v>4</v>
+      </c>
+      <c r="D713">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>3</v>
+      </c>
+      <c r="B714">
+        <v>8</v>
+      </c>
+      <c r="C714">
+        <v>6</v>
+      </c>
+      <c r="D714">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>4</v>
+      </c>
+      <c r="B715">
+        <v>14</v>
+      </c>
+      <c r="C715">
+        <v>1</v>
+      </c>
+      <c r="D715">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>5</v>
+      </c>
+      <c r="B716">
+        <v>6</v>
+      </c>
+      <c r="C716">
+        <v>7</v>
+      </c>
+      <c r="D716">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>4</v>
+      </c>
+      <c r="B717">
+        <v>6</v>
+      </c>
+      <c r="C717">
+        <v>5</v>
+      </c>
+      <c r="D717">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>5</v>
+      </c>
+      <c r="B718">
+        <v>17</v>
+      </c>
+      <c r="C718">
+        <v>8</v>
+      </c>
+      <c r="D718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>5</v>
+      </c>
+      <c r="B719">
+        <v>12</v>
+      </c>
+      <c r="C719">
+        <v>3</v>
+      </c>
+      <c r="D719">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>5</v>
+      </c>
+      <c r="B720">
+        <v>13</v>
+      </c>
+      <c r="C720">
+        <v>6</v>
+      </c>
+      <c r="D720">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>5</v>
+      </c>
+      <c r="B721">
+        <v>5</v>
+      </c>
+      <c r="C721">
+        <v>3</v>
+      </c>
+      <c r="D721">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>6</v>
+      </c>
+      <c r="B722">
+        <v>5</v>
+      </c>
+      <c r="C722">
+        <v>4</v>
+      </c>
+      <c r="D722">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>4</v>
+      </c>
+      <c r="B723">
+        <v>8</v>
+      </c>
+      <c r="C723">
+        <v>5</v>
+      </c>
+      <c r="D723">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="B724">
+        <v>12</v>
+      </c>
+      <c r="C724">
+        <v>4</v>
+      </c>
+      <c r="D724">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>6</v>
+      </c>
+      <c r="B725">
+        <v>5</v>
+      </c>
+      <c r="C725">
+        <v>5</v>
+      </c>
+      <c r="D725">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>2</v>
+      </c>
+      <c r="B726">
+        <v>2</v>
+      </c>
+      <c r="C726">
+        <v>4</v>
+      </c>
+      <c r="D726">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>4</v>
+      </c>
+      <c r="B727">
+        <v>14</v>
+      </c>
+      <c r="C727">
+        <v>5</v>
+      </c>
+      <c r="D727">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>4</v>
+      </c>
+      <c r="B728">
+        <v>6</v>
+      </c>
+      <c r="C728">
+        <v>3</v>
+      </c>
+      <c r="D728">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>3</v>
+      </c>
+      <c r="B729">
+        <v>8</v>
+      </c>
+      <c r="C729">
+        <v>2</v>
+      </c>
+      <c r="D729">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>7</v>
+      </c>
+      <c r="B730">
+        <v>4</v>
+      </c>
+      <c r="C730">
+        <v>6</v>
+      </c>
+      <c r="D730">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>3</v>
+      </c>
+      <c r="B731">
+        <v>4</v>
+      </c>
+      <c r="C731">
+        <v>2</v>
+      </c>
+      <c r="D731">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>5</v>
+      </c>
+      <c r="B732">
+        <v>5</v>
+      </c>
+      <c r="C732">
+        <v>6</v>
+      </c>
+      <c r="D732">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>6</v>
+      </c>
+      <c r="B733">
+        <v>16</v>
+      </c>
+      <c r="C733">
+        <v>4</v>
+      </c>
+      <c r="D733">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>6</v>
+      </c>
+      <c r="B734">
+        <v>7</v>
+      </c>
+      <c r="C734">
+        <v>4</v>
+      </c>
+      <c r="D734">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>4</v>
+      </c>
+      <c r="B735">
+        <v>13</v>
+      </c>
+      <c r="C735">
+        <v>5</v>
+      </c>
+      <c r="D735">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>4</v>
+      </c>
+      <c r="B736">
+        <v>14</v>
+      </c>
+      <c r="C736">
+        <v>5</v>
+      </c>
+      <c r="D736">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>4</v>
+      </c>
+      <c r="B737">
+        <v>17</v>
+      </c>
+      <c r="C737">
+        <v>3</v>
+      </c>
+      <c r="D737">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>2</v>
+      </c>
+      <c r="B738">
+        <v>16</v>
+      </c>
+      <c r="C738">
+        <v>4</v>
+      </c>
+      <c r="D738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>5</v>
+      </c>
+      <c r="B739">
+        <v>7</v>
+      </c>
+      <c r="C739">
+        <v>4</v>
+      </c>
+      <c r="D739">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>5</v>
+      </c>
+      <c r="B740">
+        <v>6</v>
+      </c>
+      <c r="C740">
+        <v>6</v>
+      </c>
+      <c r="D740">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>5</v>
+      </c>
+      <c r="B741">
+        <v>13</v>
+      </c>
+      <c r="C741">
+        <v>6</v>
+      </c>
+      <c r="D741">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>3</v>
+      </c>
+      <c r="B742">
+        <v>16</v>
+      </c>
+      <c r="C742">
+        <v>2</v>
+      </c>
+      <c r="D742">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1</v>
+      </c>
+      <c r="B743">
+        <v>15</v>
+      </c>
+      <c r="C743">
+        <v>4</v>
+      </c>
+      <c r="D743">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>6</v>
+      </c>
+      <c r="B744">
+        <v>7</v>
+      </c>
+      <c r="C744">
+        <v>4</v>
+      </c>
+      <c r="D744">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>4</v>
+      </c>
+      <c r="B745">
+        <v>12</v>
+      </c>
+      <c r="C745">
+        <v>5</v>
+      </c>
+      <c r="D745">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>4</v>
+      </c>
+      <c r="B746">
+        <v>7</v>
+      </c>
+      <c r="C746">
+        <v>3</v>
+      </c>
+      <c r="D746">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>3</v>
+      </c>
+      <c r="B747">
+        <v>13</v>
+      </c>
+      <c r="C747">
+        <v>2</v>
+      </c>
+      <c r="D747">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>5</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="C748">
+        <v>3</v>
+      </c>
+      <c r="D748">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>6</v>
+      </c>
+      <c r="B749">
+        <v>15</v>
+      </c>
+      <c r="C749">
+        <v>2</v>
+      </c>
+      <c r="D749">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>6</v>
+      </c>
+      <c r="B750">
+        <v>7</v>
+      </c>
+      <c r="C750">
+        <v>3</v>
+      </c>
+      <c r="D750">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>3</v>
+      </c>
+      <c r="B751">
+        <v>8</v>
+      </c>
+      <c r="C751">
+        <v>6</v>
+      </c>
+      <c r="D751">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>5</v>
+      </c>
+      <c r="B752">
+        <v>13</v>
+      </c>
+      <c r="C752">
+        <v>4</v>
+      </c>
+      <c r="D752">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>5</v>
+      </c>
+      <c r="B753">
+        <v>5</v>
+      </c>
+      <c r="C753">
+        <v>4</v>
+      </c>
+      <c r="D753">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>16</v>
+      </c>
+      <c r="C754">
+        <v>4</v>
+      </c>
+      <c r="D754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>4</v>
+      </c>
+      <c r="B755">
+        <v>16</v>
+      </c>
+      <c r="C755">
+        <v>5</v>
+      </c>
+      <c r="D755">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>4</v>
+      </c>
+      <c r="B756">
+        <v>8</v>
+      </c>
+      <c r="C756">
+        <v>5</v>
+      </c>
+      <c r="D756">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>4</v>
+      </c>
+      <c r="B757">
+        <v>15</v>
+      </c>
+      <c r="C757">
+        <v>3</v>
+      </c>
+      <c r="D757">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>2</v>
+      </c>
+      <c r="B758">
+        <v>16</v>
+      </c>
+      <c r="C758">
+        <v>5</v>
+      </c>
+      <c r="D758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>3</v>
+      </c>
+      <c r="B759">
+        <v>4</v>
+      </c>
+      <c r="C759">
+        <v>4</v>
+      </c>
+      <c r="D759">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>6</v>
+      </c>
+      <c r="B760">
+        <v>4</v>
+      </c>
+      <c r="C760">
+        <v>5</v>
+      </c>
+      <c r="D760">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>4</v>
+      </c>
+      <c r="B761">
+        <v>13</v>
+      </c>
+      <c r="C761">
+        <v>5</v>
+      </c>
+      <c r="D761">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>9</v>
+      </c>
+      <c r="B762">
+        <v>5</v>
+      </c>
+      <c r="C762">
+        <v>7</v>
+      </c>
+      <c r="D762">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>2</v>
+      </c>
+      <c r="B763">
+        <v>7</v>
+      </c>
+      <c r="C763">
+        <v>3</v>
+      </c>
+      <c r="D763">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>3</v>
+      </c>
+      <c r="B764">
+        <v>8</v>
+      </c>
+      <c r="C764">
+        <v>2</v>
+      </c>
+      <c r="D764">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>5</v>
+      </c>
+      <c r="B765">
+        <v>15</v>
+      </c>
+      <c r="C765">
+        <v>4</v>
+      </c>
+      <c r="D765">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>5</v>
+      </c>
+      <c r="B766">
+        <v>12</v>
+      </c>
+      <c r="C766">
+        <v>4</v>
+      </c>
+      <c r="D766">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>6</v>
+      </c>
+      <c r="B767">
+        <v>15</v>
+      </c>
+      <c r="C767">
+        <v>5</v>
+      </c>
+      <c r="D767">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>4</v>
+      </c>
+      <c r="B768">
+        <v>7</v>
+      </c>
+      <c r="C768">
+        <v>7</v>
+      </c>
+      <c r="D768">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>3</v>
+      </c>
+      <c r="B769">
+        <v>8</v>
+      </c>
+      <c r="C769">
+        <v>2</v>
+      </c>
+      <c r="D769">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>3</v>
+      </c>
+      <c r="B770">
+        <v>12</v>
+      </c>
+      <c r="C770">
+        <v>4</v>
+      </c>
+      <c r="D770">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>7</v>
+      </c>
+      <c r="B771">
+        <v>14</v>
+      </c>
+      <c r="C771">
+        <v>6</v>
+      </c>
+      <c r="D771">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>5</v>
+      </c>
+      <c r="B772">
+        <v>8</v>
+      </c>
+      <c r="C772">
+        <v>3</v>
+      </c>
+      <c r="D772">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>4</v>
+      </c>
+      <c r="B773">
+        <v>17</v>
+      </c>
+      <c r="C773">
+        <v>5</v>
+      </c>
+      <c r="D773">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>6</v>
+      </c>
+      <c r="B774">
+        <v>8</v>
+      </c>
+      <c r="C774">
+        <v>4</v>
+      </c>
+      <c r="D774">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>8</v>
+      </c>
+      <c r="B775">
+        <v>16</v>
+      </c>
+      <c r="C775">
+        <v>9</v>
+      </c>
+      <c r="D775">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12BC65-A616-4B04-A72D-98A2A396FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8CA32-B620-4008-A410-3163E6799003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D775"/>
+  <dimension ref="A1:D795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
-      <selection activeCell="A776" sqref="A776"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="A796" sqref="A796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11223,6 +11223,286 @@
         <v>4</v>
       </c>
     </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>5</v>
+      </c>
+      <c r="B776">
+        <v>16</v>
+      </c>
+      <c r="C776">
+        <v>4</v>
+      </c>
+      <c r="D776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>5</v>
+      </c>
+      <c r="B777">
+        <v>13</v>
+      </c>
+      <c r="C777">
+        <v>4</v>
+      </c>
+      <c r="D777">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>2</v>
+      </c>
+      <c r="B778">
+        <v>17</v>
+      </c>
+      <c r="C778">
+        <v>5</v>
+      </c>
+      <c r="D778">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>3</v>
+      </c>
+      <c r="B779">
+        <v>14</v>
+      </c>
+      <c r="C779">
+        <v>4</v>
+      </c>
+      <c r="D779">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>6</v>
+      </c>
+      <c r="B780">
+        <v>17</v>
+      </c>
+      <c r="C780">
+        <v>5</v>
+      </c>
+      <c r="D780">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>5</v>
+      </c>
+      <c r="B781">
+        <v>13</v>
+      </c>
+      <c r="C781">
+        <v>3</v>
+      </c>
+      <c r="D781">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>5</v>
+      </c>
+      <c r="B782">
+        <v>12</v>
+      </c>
+      <c r="C782">
+        <v>4</v>
+      </c>
+      <c r="D782">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>3</v>
+      </c>
+      <c r="B783">
+        <v>17</v>
+      </c>
+      <c r="C783">
+        <v>2</v>
+      </c>
+      <c r="D783">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>5</v>
+      </c>
+      <c r="B784">
+        <v>12</v>
+      </c>
+      <c r="C784">
+        <v>7</v>
+      </c>
+      <c r="D784">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>6</v>
+      </c>
+      <c r="B785">
+        <v>13</v>
+      </c>
+      <c r="C785">
+        <v>5</v>
+      </c>
+      <c r="D785">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>4</v>
+      </c>
+      <c r="B786">
+        <v>12</v>
+      </c>
+      <c r="C786">
+        <v>5</v>
+      </c>
+      <c r="D786">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>6</v>
+      </c>
+      <c r="B787">
+        <v>8</v>
+      </c>
+      <c r="C787">
+        <v>7</v>
+      </c>
+      <c r="D787">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>5</v>
+      </c>
+      <c r="B788">
+        <v>7</v>
+      </c>
+      <c r="C788">
+        <v>4</v>
+      </c>
+      <c r="D788">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>8</v>
+      </c>
+      <c r="B789">
+        <v>15</v>
+      </c>
+      <c r="C789">
+        <v>4</v>
+      </c>
+      <c r="D789">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1</v>
+      </c>
+      <c r="B790">
+        <v>14</v>
+      </c>
+      <c r="C790">
+        <v>4</v>
+      </c>
+      <c r="D790">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>3</v>
+      </c>
+      <c r="B791">
+        <v>8</v>
+      </c>
+      <c r="C791">
+        <v>5</v>
+      </c>
+      <c r="D791">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>5</v>
+      </c>
+      <c r="B792">
+        <v>8</v>
+      </c>
+      <c r="C792">
+        <v>4</v>
+      </c>
+      <c r="D792">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>7</v>
+      </c>
+      <c r="B793">
+        <v>8</v>
+      </c>
+      <c r="C793">
+        <v>4</v>
+      </c>
+      <c r="D793">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>3</v>
+      </c>
+      <c r="B794">
+        <v>17</v>
+      </c>
+      <c r="C794">
+        <v>4</v>
+      </c>
+      <c r="D794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>5</v>
+      </c>
+      <c r="B795">
+        <v>4</v>
+      </c>
+      <c r="C795">
+        <v>4</v>
+      </c>
+      <c r="D795">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8CA32-B620-4008-A410-3163E6799003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6510DD-2FF3-45B0-B0D2-E780FA5DB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D795"/>
+  <dimension ref="A1:D811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="A796" sqref="A796"/>
+    <sheetView tabSelected="1" topLeftCell="A800" workbookViewId="0">
+      <selection activeCell="A812" sqref="A812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11503,6 +11503,230 @@
         <v>16</v>
       </c>
     </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>6</v>
+      </c>
+      <c r="B796">
+        <v>16</v>
+      </c>
+      <c r="C796">
+        <v>4</v>
+      </c>
+      <c r="D796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>5</v>
+      </c>
+      <c r="B797">
+        <v>13</v>
+      </c>
+      <c r="C797">
+        <v>7</v>
+      </c>
+      <c r="D797">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>6</v>
+      </c>
+      <c r="B798">
+        <v>8</v>
+      </c>
+      <c r="C798">
+        <v>4</v>
+      </c>
+      <c r="D798">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>3</v>
+      </c>
+      <c r="B799">
+        <v>13</v>
+      </c>
+      <c r="C799">
+        <v>4</v>
+      </c>
+      <c r="D799">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>7</v>
+      </c>
+      <c r="B800">
+        <v>12</v>
+      </c>
+      <c r="C800">
+        <v>5</v>
+      </c>
+      <c r="D800">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>6</v>
+      </c>
+      <c r="B801">
+        <v>6</v>
+      </c>
+      <c r="C801">
+        <v>5</v>
+      </c>
+      <c r="D801">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>6</v>
+      </c>
+      <c r="B802">
+        <v>4</v>
+      </c>
+      <c r="C802">
+        <v>5</v>
+      </c>
+      <c r="D802">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>4</v>
+      </c>
+      <c r="B803">
+        <v>8</v>
+      </c>
+      <c r="C803">
+        <v>5</v>
+      </c>
+      <c r="D803">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>3</v>
+      </c>
+      <c r="B804">
+        <v>12</v>
+      </c>
+      <c r="C804">
+        <v>4</v>
+      </c>
+      <c r="D804">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>2</v>
+      </c>
+      <c r="B805">
+        <v>14</v>
+      </c>
+      <c r="C805">
+        <v>3</v>
+      </c>
+      <c r="D805">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>3</v>
+      </c>
+      <c r="B806">
+        <v>14</v>
+      </c>
+      <c r="C806">
+        <v>4</v>
+      </c>
+      <c r="D806">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>7</v>
+      </c>
+      <c r="B807">
+        <v>15</v>
+      </c>
+      <c r="C807">
+        <v>4</v>
+      </c>
+      <c r="D807">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>2</v>
+      </c>
+      <c r="B808">
+        <v>8</v>
+      </c>
+      <c r="C808">
+        <v>4</v>
+      </c>
+      <c r="D808">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>4</v>
+      </c>
+      <c r="B809">
+        <v>12</v>
+      </c>
+      <c r="C809">
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>4</v>
+      </c>
+      <c r="B810">
+        <v>12</v>
+      </c>
+      <c r="C810">
+        <v>3</v>
+      </c>
+      <c r="D810">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>5</v>
+      </c>
+      <c r="B811">
+        <v>13</v>
+      </c>
+      <c r="C811">
+        <v>5</v>
+      </c>
+      <c r="D811">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6510DD-2FF3-45B0-B0D2-E780FA5DB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957D271-D56F-450A-9C15-83DC8E447A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D811"/>
+  <dimension ref="A1:D827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A800" workbookViewId="0">
-      <selection activeCell="A812" sqref="A812"/>
+    <sheetView tabSelected="1" topLeftCell="A809" workbookViewId="0">
+      <selection activeCell="A828" sqref="A828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11727,6 +11727,230 @@
         <v>7</v>
       </c>
     </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>5</v>
+      </c>
+      <c r="B812">
+        <v>8</v>
+      </c>
+      <c r="C812">
+        <v>6</v>
+      </c>
+      <c r="D812">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>5</v>
+      </c>
+      <c r="B813">
+        <v>16</v>
+      </c>
+      <c r="C813">
+        <v>6</v>
+      </c>
+      <c r="D813">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>4</v>
+      </c>
+      <c r="B814">
+        <v>13</v>
+      </c>
+      <c r="C814">
+        <v>3</v>
+      </c>
+      <c r="D814">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>5</v>
+      </c>
+      <c r="B815">
+        <v>6</v>
+      </c>
+      <c r="C815">
+        <v>6</v>
+      </c>
+      <c r="D815">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>4</v>
+      </c>
+      <c r="B816">
+        <v>5</v>
+      </c>
+      <c r="C816">
+        <v>3</v>
+      </c>
+      <c r="D816">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>4</v>
+      </c>
+      <c r="B817">
+        <v>3</v>
+      </c>
+      <c r="C817">
+        <v>2</v>
+      </c>
+      <c r="D817">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>4</v>
+      </c>
+      <c r="B818">
+        <v>7</v>
+      </c>
+      <c r="C818">
+        <v>6</v>
+      </c>
+      <c r="D818">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>7</v>
+      </c>
+      <c r="B819">
+        <v>6</v>
+      </c>
+      <c r="C819">
+        <v>2</v>
+      </c>
+      <c r="D819">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>4</v>
+      </c>
+      <c r="B820">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>5</v>
+      </c>
+      <c r="D820">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>4</v>
+      </c>
+      <c r="B821">
+        <v>4</v>
+      </c>
+      <c r="C821">
+        <v>3</v>
+      </c>
+      <c r="D821">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>4</v>
+      </c>
+      <c r="B822">
+        <v>5</v>
+      </c>
+      <c r="C822">
+        <v>9</v>
+      </c>
+      <c r="D822">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>4</v>
+      </c>
+      <c r="B823">
+        <v>15</v>
+      </c>
+      <c r="C823">
+        <v>6</v>
+      </c>
+      <c r="D823">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>2</v>
+      </c>
+      <c r="B824">
+        <v>5</v>
+      </c>
+      <c r="C824">
+        <v>5</v>
+      </c>
+      <c r="D824">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>6</v>
+      </c>
+      <c r="B825">
+        <v>13</v>
+      </c>
+      <c r="C825">
+        <v>5</v>
+      </c>
+      <c r="D825">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>3</v>
+      </c>
+      <c r="B826">
+        <v>13</v>
+      </c>
+      <c r="C826">
+        <v>5</v>
+      </c>
+      <c r="D826">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>8</v>
+      </c>
+      <c r="B827">
+        <v>7</v>
+      </c>
+      <c r="C827">
+        <v>5</v>
+      </c>
+      <c r="D827">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957D271-D56F-450A-9C15-83DC8E447A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B2E10-AF6A-4BEB-915A-ADFAD8A31BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D827"/>
+  <dimension ref="A1:D841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A809" workbookViewId="0">
-      <selection activeCell="A828" sqref="A828"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="A842" sqref="A842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11951,6 +11951,202 @@
         <v>13</v>
       </c>
     </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>2</v>
+      </c>
+      <c r="B828">
+        <v>14</v>
+      </c>
+      <c r="C828">
+        <v>3</v>
+      </c>
+      <c r="D828">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>4</v>
+      </c>
+      <c r="B829">
+        <v>15</v>
+      </c>
+      <c r="C829">
+        <v>5</v>
+      </c>
+      <c r="D829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>4</v>
+      </c>
+      <c r="B830">
+        <v>3</v>
+      </c>
+      <c r="C830">
+        <v>5</v>
+      </c>
+      <c r="D830">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>4</v>
+      </c>
+      <c r="B831">
+        <v>13</v>
+      </c>
+      <c r="C831">
+        <v>5</v>
+      </c>
+      <c r="D831">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>2</v>
+      </c>
+      <c r="B832">
+        <v>4</v>
+      </c>
+      <c r="C832">
+        <v>4</v>
+      </c>
+      <c r="D832">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>9</v>
+      </c>
+      <c r="B833">
+        <v>3</v>
+      </c>
+      <c r="C833">
+        <v>5</v>
+      </c>
+      <c r="D833">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>3</v>
+      </c>
+      <c r="B834">
+        <v>18</v>
+      </c>
+      <c r="C834">
+        <v>4</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>5</v>
+      </c>
+      <c r="B835">
+        <v>16</v>
+      </c>
+      <c r="C835">
+        <v>8</v>
+      </c>
+      <c r="D835">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>3</v>
+      </c>
+      <c r="B836">
+        <v>3</v>
+      </c>
+      <c r="C836">
+        <v>2</v>
+      </c>
+      <c r="D836">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>4</v>
+      </c>
+      <c r="B837">
+        <v>12</v>
+      </c>
+      <c r="C837">
+        <v>6</v>
+      </c>
+      <c r="D837">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>4</v>
+      </c>
+      <c r="B838">
+        <v>6</v>
+      </c>
+      <c r="C838">
+        <v>2</v>
+      </c>
+      <c r="D838">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>3</v>
+      </c>
+      <c r="B839">
+        <v>7</v>
+      </c>
+      <c r="C839">
+        <v>2</v>
+      </c>
+      <c r="D839">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>8</v>
+      </c>
+      <c r="B840">
+        <v>16</v>
+      </c>
+      <c r="C840">
+        <v>7</v>
+      </c>
+      <c r="D840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1</v>
+      </c>
+      <c r="B841">
+        <v>16</v>
+      </c>
+      <c r="C841">
+        <v>3</v>
+      </c>
+      <c r="D841">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B2E10-AF6A-4BEB-915A-ADFAD8A31BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69315A8B-FBEC-4CC6-ADB9-F316E30F4AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D841"/>
+  <dimension ref="A1:D859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="A842" sqref="A842"/>
+    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
+      <selection activeCell="A860" sqref="A860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12147,6 +12147,258 @@
         <v>4</v>
       </c>
     </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>6</v>
+      </c>
+      <c r="B842">
+        <v>4</v>
+      </c>
+      <c r="C842">
+        <v>5</v>
+      </c>
+      <c r="D842">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>5</v>
+      </c>
+      <c r="B843">
+        <v>5</v>
+      </c>
+      <c r="C843">
+        <v>4</v>
+      </c>
+      <c r="D843">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>3</v>
+      </c>
+      <c r="B844">
+        <v>15</v>
+      </c>
+      <c r="C844">
+        <v>4</v>
+      </c>
+      <c r="D844">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>6</v>
+      </c>
+      <c r="B845">
+        <v>17</v>
+      </c>
+      <c r="C845">
+        <v>7</v>
+      </c>
+      <c r="D845">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>4</v>
+      </c>
+      <c r="B846">
+        <v>7</v>
+      </c>
+      <c r="C846">
+        <v>5</v>
+      </c>
+      <c r="D846">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>5</v>
+      </c>
+      <c r="B847">
+        <v>6</v>
+      </c>
+      <c r="C847">
+        <v>4</v>
+      </c>
+      <c r="D847">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>4</v>
+      </c>
+      <c r="B848">
+        <v>7</v>
+      </c>
+      <c r="C848">
+        <v>5</v>
+      </c>
+      <c r="D848">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>3</v>
+      </c>
+      <c r="B849">
+        <v>14</v>
+      </c>
+      <c r="C849">
+        <v>4</v>
+      </c>
+      <c r="D849">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>3</v>
+      </c>
+      <c r="B850">
+        <v>7</v>
+      </c>
+      <c r="C850">
+        <v>6</v>
+      </c>
+      <c r="D850">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>7</v>
+      </c>
+      <c r="B851">
+        <v>3</v>
+      </c>
+      <c r="C851">
+        <v>6</v>
+      </c>
+      <c r="D851">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>4</v>
+      </c>
+      <c r="B852">
+        <v>12</v>
+      </c>
+      <c r="C852">
+        <v>3</v>
+      </c>
+      <c r="D852">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>4</v>
+      </c>
+      <c r="B853">
+        <v>16</v>
+      </c>
+      <c r="C853">
+        <v>5</v>
+      </c>
+      <c r="D853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>4</v>
+      </c>
+      <c r="B854">
+        <v>14</v>
+      </c>
+      <c r="C854">
+        <v>3</v>
+      </c>
+      <c r="D854">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>5</v>
+      </c>
+      <c r="B855">
+        <v>14</v>
+      </c>
+      <c r="C855">
+        <v>4</v>
+      </c>
+      <c r="D855">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>6</v>
+      </c>
+      <c r="B856">
+        <v>13</v>
+      </c>
+      <c r="C856">
+        <v>5</v>
+      </c>
+      <c r="D856">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>3</v>
+      </c>
+      <c r="B857">
+        <v>16</v>
+      </c>
+      <c r="C857">
+        <v>7</v>
+      </c>
+      <c r="D857">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>6</v>
+      </c>
+      <c r="B858">
+        <v>12</v>
+      </c>
+      <c r="C858">
+        <v>5</v>
+      </c>
+      <c r="D858">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>9</v>
+      </c>
+      <c r="B859">
+        <v>4</v>
+      </c>
+      <c r="C859">
+        <v>2</v>
+      </c>
+      <c r="D859">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69315A8B-FBEC-4CC6-ADB9-F316E30F4AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011A245-8AB4-4704-869B-261881048313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D859"/>
+  <dimension ref="A1:D876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
-      <selection activeCell="A860" sqref="A860"/>
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="F878" sqref="F878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12399,6 +12399,244 @@
         <v>16</v>
       </c>
     </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>5</v>
+      </c>
+      <c r="B860">
+        <v>18</v>
+      </c>
+      <c r="C860">
+        <v>6</v>
+      </c>
+      <c r="D860">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>4</v>
+      </c>
+      <c r="B861">
+        <v>5</v>
+      </c>
+      <c r="C861">
+        <v>5</v>
+      </c>
+      <c r="D861">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>4</v>
+      </c>
+      <c r="B862">
+        <v>5</v>
+      </c>
+      <c r="C862">
+        <v>5</v>
+      </c>
+      <c r="D862">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>4</v>
+      </c>
+      <c r="B863">
+        <v>14</v>
+      </c>
+      <c r="C863">
+        <v>3</v>
+      </c>
+      <c r="D863">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>4</v>
+      </c>
+      <c r="B864">
+        <v>13</v>
+      </c>
+      <c r="C864">
+        <v>3</v>
+      </c>
+      <c r="D864">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>5</v>
+      </c>
+      <c r="B865">
+        <v>12</v>
+      </c>
+      <c r="C865">
+        <v>4</v>
+      </c>
+      <c r="D865">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>6</v>
+      </c>
+      <c r="B866">
+        <v>12</v>
+      </c>
+      <c r="C866">
+        <v>5</v>
+      </c>
+      <c r="D866">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>4</v>
+      </c>
+      <c r="B867">
+        <v>14</v>
+      </c>
+      <c r="C867">
+        <v>3</v>
+      </c>
+      <c r="D867">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>4</v>
+      </c>
+      <c r="B868">
+        <v>18</v>
+      </c>
+      <c r="C868">
+        <v>5</v>
+      </c>
+      <c r="D868">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>3</v>
+      </c>
+      <c r="B869">
+        <v>12</v>
+      </c>
+      <c r="C869">
+        <v>4</v>
+      </c>
+      <c r="D869">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>5</v>
+      </c>
+      <c r="B870">
+        <v>15</v>
+      </c>
+      <c r="C870">
+        <v>7</v>
+      </c>
+      <c r="D870">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>7</v>
+      </c>
+      <c r="B871">
+        <v>6</v>
+      </c>
+      <c r="C871">
+        <v>5</v>
+      </c>
+      <c r="D871">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>3</v>
+      </c>
+      <c r="B872">
+        <v>8</v>
+      </c>
+      <c r="C872">
+        <v>4</v>
+      </c>
+      <c r="D872">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>4</v>
+      </c>
+      <c r="B873">
+        <v>13</v>
+      </c>
+      <c r="C873">
+        <v>2</v>
+      </c>
+      <c r="D873">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>2</v>
+      </c>
+      <c r="B874">
+        <v>12</v>
+      </c>
+      <c r="C874">
+        <v>3</v>
+      </c>
+      <c r="D874">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>2</v>
+      </c>
+      <c r="B875">
+        <v>18</v>
+      </c>
+      <c r="C875">
+        <v>3</v>
+      </c>
+      <c r="D875">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>9</v>
+      </c>
+      <c r="B876">
+        <v>7</v>
+      </c>
+      <c r="C876">
+        <v>6</v>
+      </c>
+      <c r="D876">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011A245-8AB4-4704-869B-261881048313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC818BB2-4B66-4A7E-B261-6EE3E4FF62FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="2055" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D876"/>
+  <dimension ref="A1:D890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
-      <selection activeCell="F878" sqref="F878"/>
+    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
+      <selection activeCell="A891" sqref="A891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12637,6 +12637,202 @@
         <v>13</v>
       </c>
     </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>6</v>
+      </c>
+      <c r="B877">
+        <v>17</v>
+      </c>
+      <c r="C877">
+        <v>5</v>
+      </c>
+      <c r="D877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>6</v>
+      </c>
+      <c r="B878">
+        <v>2</v>
+      </c>
+      <c r="C878">
+        <v>5</v>
+      </c>
+      <c r="D878">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>3</v>
+      </c>
+      <c r="B879">
+        <v>17</v>
+      </c>
+      <c r="C879">
+        <v>4</v>
+      </c>
+      <c r="D879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>5</v>
+      </c>
+      <c r="B880">
+        <v>4</v>
+      </c>
+      <c r="C880">
+        <v>6</v>
+      </c>
+      <c r="D880">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>4</v>
+      </c>
+      <c r="B881">
+        <v>4</v>
+      </c>
+      <c r="C881">
+        <v>5</v>
+      </c>
+      <c r="D881">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>5</v>
+      </c>
+      <c r="B882">
+        <v>12</v>
+      </c>
+      <c r="C882">
+        <v>7</v>
+      </c>
+      <c r="D882">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>2</v>
+      </c>
+      <c r="B883">
+        <v>15</v>
+      </c>
+      <c r="C883">
+        <v>3</v>
+      </c>
+      <c r="D883">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>5</v>
+      </c>
+      <c r="B884">
+        <v>15</v>
+      </c>
+      <c r="C884">
+        <v>4</v>
+      </c>
+      <c r="D884">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>7</v>
+      </c>
+      <c r="B885">
+        <v>6</v>
+      </c>
+      <c r="C885">
+        <v>6</v>
+      </c>
+      <c r="D885">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>2</v>
+      </c>
+      <c r="B886">
+        <v>6</v>
+      </c>
+      <c r="C886">
+        <v>4</v>
+      </c>
+      <c r="D886">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>5</v>
+      </c>
+      <c r="B887">
+        <v>6</v>
+      </c>
+      <c r="C887">
+        <v>6</v>
+      </c>
+      <c r="D887">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>5</v>
+      </c>
+      <c r="B888">
+        <v>14</v>
+      </c>
+      <c r="C888">
+        <v>4</v>
+      </c>
+      <c r="D888">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>2</v>
+      </c>
+      <c r="B889">
+        <v>15</v>
+      </c>
+      <c r="C889">
+        <v>4</v>
+      </c>
+      <c r="D889">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>7</v>
+      </c>
+      <c r="B890">
+        <v>17</v>
+      </c>
+      <c r="C890">
+        <v>5</v>
+      </c>
+      <c r="D890">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC818BB2-4B66-4A7E-B261-6EE3E4FF62FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A940004C-2B8E-435E-9C3E-0087799A0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D890"/>
+  <dimension ref="A1:D911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
-      <selection activeCell="A891" sqref="A891"/>
+    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
+      <selection activeCell="A912" sqref="A912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,6 +12833,300 @@
         <v>3</v>
       </c>
     </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>5</v>
+      </c>
+      <c r="B891">
+        <v>12</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>4</v>
+      </c>
+      <c r="B892">
+        <v>5</v>
+      </c>
+      <c r="C892">
+        <v>6</v>
+      </c>
+      <c r="D892">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>4</v>
+      </c>
+      <c r="B893">
+        <v>13</v>
+      </c>
+      <c r="C893">
+        <v>5</v>
+      </c>
+      <c r="D893">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>4</v>
+      </c>
+      <c r="B894">
+        <v>4</v>
+      </c>
+      <c r="C894">
+        <v>6</v>
+      </c>
+      <c r="D894">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>5</v>
+      </c>
+      <c r="B895">
+        <v>5</v>
+      </c>
+      <c r="C895">
+        <v>4</v>
+      </c>
+      <c r="D895">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>5</v>
+      </c>
+      <c r="B896">
+        <v>8</v>
+      </c>
+      <c r="C896">
+        <v>3</v>
+      </c>
+      <c r="D896">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>4</v>
+      </c>
+      <c r="B897">
+        <v>16</v>
+      </c>
+      <c r="C897">
+        <v>3</v>
+      </c>
+      <c r="D897">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>4</v>
+      </c>
+      <c r="B898">
+        <v>13</v>
+      </c>
+      <c r="C898">
+        <v>5</v>
+      </c>
+      <c r="D898">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>6</v>
+      </c>
+      <c r="B899">
+        <v>12</v>
+      </c>
+      <c r="C899">
+        <v>5</v>
+      </c>
+      <c r="D899">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>2</v>
+      </c>
+      <c r="B900">
+        <v>15</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+      <c r="D900">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>2</v>
+      </c>
+      <c r="B901">
+        <v>16</v>
+      </c>
+      <c r="C901">
+        <v>5</v>
+      </c>
+      <c r="D901">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>9</v>
+      </c>
+      <c r="B902">
+        <v>7</v>
+      </c>
+      <c r="C902">
+        <v>5</v>
+      </c>
+      <c r="D902">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>3</v>
+      </c>
+      <c r="B903">
+        <v>6</v>
+      </c>
+      <c r="C903">
+        <v>2</v>
+      </c>
+      <c r="D903">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>4</v>
+      </c>
+      <c r="B904">
+        <v>8</v>
+      </c>
+      <c r="C904">
+        <v>6</v>
+      </c>
+      <c r="D904">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>4</v>
+      </c>
+      <c r="B905">
+        <v>12</v>
+      </c>
+      <c r="C905">
+        <v>3</v>
+      </c>
+      <c r="D905">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>5</v>
+      </c>
+      <c r="B906">
+        <v>15</v>
+      </c>
+      <c r="C906">
+        <v>6</v>
+      </c>
+      <c r="D906">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>8</v>
+      </c>
+      <c r="B907">
+        <v>7</v>
+      </c>
+      <c r="C907">
+        <v>9</v>
+      </c>
+      <c r="D907">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>5</v>
+      </c>
+      <c r="B908">
+        <v>6</v>
+      </c>
+      <c r="C908">
+        <v>3</v>
+      </c>
+      <c r="D908">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>3</v>
+      </c>
+      <c r="B909">
+        <v>8</v>
+      </c>
+      <c r="C909">
+        <v>2</v>
+      </c>
+      <c r="D909">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>5</v>
+      </c>
+      <c r="B910">
+        <v>8</v>
+      </c>
+      <c r="C910">
+        <v>4</v>
+      </c>
+      <c r="D910">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>2</v>
+      </c>
+      <c r="B911">
+        <v>3</v>
+      </c>
+      <c r="C911">
+        <v>5</v>
+      </c>
+      <c r="D911">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A940004C-2B8E-435E-9C3E-0087799A0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486FEBE-99F1-4467-A82A-54957342391B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D911"/>
+  <dimension ref="A1:D926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
-      <selection activeCell="A912" sqref="A912"/>
+    <sheetView tabSelected="1" topLeftCell="A911" workbookViewId="0">
+      <selection activeCell="F921" sqref="F921:G923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,6 +13127,216 @@
         <v>17</v>
       </c>
     </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>4</v>
+      </c>
+      <c r="B912">
+        <v>12</v>
+      </c>
+      <c r="C912">
+        <v>2</v>
+      </c>
+      <c r="D912">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>5</v>
+      </c>
+      <c r="B913">
+        <v>7</v>
+      </c>
+      <c r="C913">
+        <v>4</v>
+      </c>
+      <c r="D913">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>4</v>
+      </c>
+      <c r="B914">
+        <v>12</v>
+      </c>
+      <c r="C914">
+        <v>6</v>
+      </c>
+      <c r="D914">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>5</v>
+      </c>
+      <c r="B915">
+        <v>13</v>
+      </c>
+      <c r="C915">
+        <v>9</v>
+      </c>
+      <c r="D915">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>7</v>
+      </c>
+      <c r="B916">
+        <v>6</v>
+      </c>
+      <c r="C916">
+        <v>5</v>
+      </c>
+      <c r="D916">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>5</v>
+      </c>
+      <c r="B917">
+        <v>8</v>
+      </c>
+      <c r="C917">
+        <v>4</v>
+      </c>
+      <c r="D917">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>6</v>
+      </c>
+      <c r="B918">
+        <v>19</v>
+      </c>
+      <c r="C918">
+        <v>5</v>
+      </c>
+      <c r="D918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>2</v>
+      </c>
+      <c r="B919">
+        <v>19</v>
+      </c>
+      <c r="C919">
+        <v>1</v>
+      </c>
+      <c r="D919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>6</v>
+      </c>
+      <c r="B920">
+        <v>4</v>
+      </c>
+      <c r="C920">
+        <v>5</v>
+      </c>
+      <c r="D920">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>4</v>
+      </c>
+      <c r="B921">
+        <v>6</v>
+      </c>
+      <c r="C921">
+        <v>8</v>
+      </c>
+      <c r="D921">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>5</v>
+      </c>
+      <c r="B922">
+        <v>7</v>
+      </c>
+      <c r="C922">
+        <v>4</v>
+      </c>
+      <c r="D922">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>4</v>
+      </c>
+      <c r="B923">
+        <v>16</v>
+      </c>
+      <c r="C923">
+        <v>5</v>
+      </c>
+      <c r="D923">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>4</v>
+      </c>
+      <c r="B924">
+        <v>12</v>
+      </c>
+      <c r="C924">
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>7</v>
+      </c>
+      <c r="B925">
+        <v>6</v>
+      </c>
+      <c r="C925">
+        <v>6</v>
+      </c>
+      <c r="D925">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>3</v>
+      </c>
+      <c r="B926">
+        <v>18</v>
+      </c>
+      <c r="C926">
+        <v>4</v>
+      </c>
+      <c r="D926">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486FEBE-99F1-4467-A82A-54957342391B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D2C94-024B-49E2-92E9-2A16A80404C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D926"/>
+  <dimension ref="A1:D942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A911" workbookViewId="0">
-      <selection activeCell="F921" sqref="F921:G923"/>
+    <sheetView tabSelected="1" topLeftCell="A932" workbookViewId="0">
+      <selection activeCell="A943" sqref="A943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13337,6 +13337,230 @@
         <v>2</v>
       </c>
     </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>3</v>
+      </c>
+      <c r="B927">
+        <v>13</v>
+      </c>
+      <c r="C927">
+        <v>5</v>
+      </c>
+      <c r="D927">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>2</v>
+      </c>
+      <c r="B928">
+        <v>14</v>
+      </c>
+      <c r="C928">
+        <v>3</v>
+      </c>
+      <c r="D928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>4</v>
+      </c>
+      <c r="B929">
+        <v>6</v>
+      </c>
+      <c r="C929">
+        <v>6</v>
+      </c>
+      <c r="D929">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>4</v>
+      </c>
+      <c r="B930">
+        <v>16</v>
+      </c>
+      <c r="C930">
+        <v>5</v>
+      </c>
+      <c r="D930">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>4</v>
+      </c>
+      <c r="B931">
+        <v>17</v>
+      </c>
+      <c r="C931">
+        <v>5</v>
+      </c>
+      <c r="D931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>4</v>
+      </c>
+      <c r="B932">
+        <v>7</v>
+      </c>
+      <c r="C932">
+        <v>5</v>
+      </c>
+      <c r="D932">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>5</v>
+      </c>
+      <c r="B933">
+        <v>5</v>
+      </c>
+      <c r="C933">
+        <v>4</v>
+      </c>
+      <c r="D933">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>5</v>
+      </c>
+      <c r="B934">
+        <v>15</v>
+      </c>
+      <c r="C934">
+        <v>7</v>
+      </c>
+      <c r="D934">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>4</v>
+      </c>
+      <c r="B935">
+        <v>18</v>
+      </c>
+      <c r="C935">
+        <v>3</v>
+      </c>
+      <c r="D935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>3</v>
+      </c>
+      <c r="B936">
+        <v>5</v>
+      </c>
+      <c r="C936">
+        <v>4</v>
+      </c>
+      <c r="D936">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>4</v>
+      </c>
+      <c r="B937">
+        <v>6</v>
+      </c>
+      <c r="C937">
+        <v>3</v>
+      </c>
+      <c r="D937">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>6</v>
+      </c>
+      <c r="B938">
+        <v>16</v>
+      </c>
+      <c r="C938">
+        <v>4</v>
+      </c>
+      <c r="D938">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>5</v>
+      </c>
+      <c r="B939">
+        <v>18</v>
+      </c>
+      <c r="C939">
+        <v>6</v>
+      </c>
+      <c r="D939">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>5</v>
+      </c>
+      <c r="B940">
+        <v>8</v>
+      </c>
+      <c r="C940">
+        <v>4</v>
+      </c>
+      <c r="D940">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>7</v>
+      </c>
+      <c r="B941">
+        <v>16</v>
+      </c>
+      <c r="C941">
+        <v>4</v>
+      </c>
+      <c r="D941">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>4</v>
+      </c>
+      <c r="B942">
+        <v>13</v>
+      </c>
+      <c r="C942">
+        <v>2</v>
+      </c>
+      <c r="D942">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D2C94-024B-49E2-92E9-2A16A80404C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B27BB0-CD95-4919-8517-36FECCF25044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D942"/>
+  <dimension ref="A1:D950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A932" workbookViewId="0">
-      <selection activeCell="A943" sqref="A943"/>
+    <sheetView tabSelected="1" topLeftCell="A944" workbookViewId="0">
+      <selection activeCell="A951" sqref="A951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13561,6 +13561,118 @@
         <v>7</v>
       </c>
     </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>2</v>
+      </c>
+      <c r="B943">
+        <v>7</v>
+      </c>
+      <c r="C943">
+        <v>3</v>
+      </c>
+      <c r="D943">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>5</v>
+      </c>
+      <c r="B944">
+        <v>7</v>
+      </c>
+      <c r="C944">
+        <v>4</v>
+      </c>
+      <c r="D944">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>7</v>
+      </c>
+      <c r="B945">
+        <v>4</v>
+      </c>
+      <c r="C945">
+        <v>4</v>
+      </c>
+      <c r="D945">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>5</v>
+      </c>
+      <c r="B946">
+        <v>4</v>
+      </c>
+      <c r="C946">
+        <v>4</v>
+      </c>
+      <c r="D946">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>6</v>
+      </c>
+      <c r="B947">
+        <v>7</v>
+      </c>
+      <c r="C947">
+        <v>5</v>
+      </c>
+      <c r="D947">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>6</v>
+      </c>
+      <c r="B948">
+        <v>5</v>
+      </c>
+      <c r="C948">
+        <v>4</v>
+      </c>
+      <c r="D948">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>3</v>
+      </c>
+      <c r="B949">
+        <v>4</v>
+      </c>
+      <c r="C949">
+        <v>4</v>
+      </c>
+      <c r="D949">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>5</v>
+      </c>
+      <c r="B950">
+        <v>8</v>
+      </c>
+      <c r="C950">
+        <v>4</v>
+      </c>
+      <c r="D950">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B27BB0-CD95-4919-8517-36FECCF25044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04944B1A-8E24-4B7F-A41F-31946E796A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D950"/>
+  <dimension ref="A1:D965"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A944" workbookViewId="0">
-      <selection activeCell="A951" sqref="A951"/>
+      <selection activeCell="A966" sqref="A966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13673,6 +13673,216 @@
         <v>12</v>
       </c>
     </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>1</v>
+      </c>
+      <c r="B951">
+        <v>16</v>
+      </c>
+      <c r="C951">
+        <v>3</v>
+      </c>
+      <c r="D951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>3</v>
+      </c>
+      <c r="B952">
+        <v>16</v>
+      </c>
+      <c r="C952">
+        <v>4</v>
+      </c>
+      <c r="D952">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>7</v>
+      </c>
+      <c r="B953">
+        <v>14</v>
+      </c>
+      <c r="C953">
+        <v>5</v>
+      </c>
+      <c r="D953">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>4</v>
+      </c>
+      <c r="B954">
+        <v>14</v>
+      </c>
+      <c r="C954">
+        <v>3</v>
+      </c>
+      <c r="D954">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>4</v>
+      </c>
+      <c r="B955">
+        <v>16</v>
+      </c>
+      <c r="C955">
+        <v>5</v>
+      </c>
+      <c r="D955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1</v>
+      </c>
+      <c r="B956">
+        <v>5</v>
+      </c>
+      <c r="C956">
+        <v>5</v>
+      </c>
+      <c r="D956">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>4</v>
+      </c>
+      <c r="B957">
+        <v>12</v>
+      </c>
+      <c r="C957">
+        <v>5</v>
+      </c>
+      <c r="D957">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>5</v>
+      </c>
+      <c r="B958">
+        <v>12</v>
+      </c>
+      <c r="C958">
+        <v>2</v>
+      </c>
+      <c r="D958">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>3</v>
+      </c>
+      <c r="B959">
+        <v>8</v>
+      </c>
+      <c r="C959">
+        <v>4</v>
+      </c>
+      <c r="D959">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>4</v>
+      </c>
+      <c r="B960">
+        <v>12</v>
+      </c>
+      <c r="C960">
+        <v>2</v>
+      </c>
+      <c r="D960">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>4</v>
+      </c>
+      <c r="B961">
+        <v>8</v>
+      </c>
+      <c r="C961">
+        <v>3</v>
+      </c>
+      <c r="D961">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>5</v>
+      </c>
+      <c r="B962">
+        <v>8</v>
+      </c>
+      <c r="C962">
+        <v>7</v>
+      </c>
+      <c r="D962">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>4</v>
+      </c>
+      <c r="B963">
+        <v>8</v>
+      </c>
+      <c r="C963">
+        <v>3</v>
+      </c>
+      <c r="D963">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>6</v>
+      </c>
+      <c r="B964">
+        <v>4</v>
+      </c>
+      <c r="C964">
+        <v>5</v>
+      </c>
+      <c r="D964">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>4</v>
+      </c>
+      <c r="B965">
+        <v>6</v>
+      </c>
+      <c r="C965">
+        <v>3</v>
+      </c>
+      <c r="D965">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04944B1A-8E24-4B7F-A41F-31946E796A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA7C7D-7C25-4FA7-9A9E-6F85B6716F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D965"/>
+  <dimension ref="A1:D975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A944" workbookViewId="0">
-      <selection activeCell="A966" sqref="A966"/>
+    <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
+      <selection activeCell="A976" sqref="A976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13883,6 +13883,146 @@
         <v>14</v>
       </c>
     </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>4</v>
+      </c>
+      <c r="B966">
+        <v>12</v>
+      </c>
+      <c r="C966">
+        <v>5</v>
+      </c>
+      <c r="D966">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>6</v>
+      </c>
+      <c r="B967">
+        <v>2</v>
+      </c>
+      <c r="C967">
+        <v>5</v>
+      </c>
+      <c r="D967">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>3</v>
+      </c>
+      <c r="B968">
+        <v>2</v>
+      </c>
+      <c r="C968">
+        <v>2</v>
+      </c>
+      <c r="D968">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>6</v>
+      </c>
+      <c r="B969">
+        <v>7</v>
+      </c>
+      <c r="C969">
+        <v>5</v>
+      </c>
+      <c r="D969">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>4</v>
+      </c>
+      <c r="B970">
+        <v>5</v>
+      </c>
+      <c r="C970">
+        <v>3</v>
+      </c>
+      <c r="D970">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>4</v>
+      </c>
+      <c r="B971">
+        <v>14</v>
+      </c>
+      <c r="C971">
+        <v>3</v>
+      </c>
+      <c r="D971">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>2</v>
+      </c>
+      <c r="B972">
+        <v>14</v>
+      </c>
+      <c r="C972">
+        <v>4</v>
+      </c>
+      <c r="D972">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>3</v>
+      </c>
+      <c r="B973">
+        <v>5</v>
+      </c>
+      <c r="C973">
+        <v>4</v>
+      </c>
+      <c r="D973">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>5</v>
+      </c>
+      <c r="B974">
+        <v>8</v>
+      </c>
+      <c r="C974">
+        <v>4</v>
+      </c>
+      <c r="D974">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>4</v>
+      </c>
+      <c r="B975">
+        <v>3</v>
+      </c>
+      <c r="C975">
+        <v>6</v>
+      </c>
+      <c r="D975">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA7C7D-7C25-4FA7-9A9E-6F85B6716F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089509F-6B46-41F3-A950-D49BB03A039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D975"/>
+  <dimension ref="A1:D988"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
-      <selection activeCell="A976" sqref="A976"/>
+      <selection activeCell="A989" sqref="A989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14023,6 +14023,188 @@
         <v>17</v>
       </c>
     </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>5</v>
+      </c>
+      <c r="B976">
+        <v>16</v>
+      </c>
+      <c r="C976">
+        <v>4</v>
+      </c>
+      <c r="D976">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>2</v>
+      </c>
+      <c r="B977">
+        <v>15</v>
+      </c>
+      <c r="C977">
+        <v>4</v>
+      </c>
+      <c r="D977">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>4</v>
+      </c>
+      <c r="B978">
+        <v>5</v>
+      </c>
+      <c r="C978">
+        <v>3</v>
+      </c>
+      <c r="D978">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>3</v>
+      </c>
+      <c r="B979">
+        <v>5</v>
+      </c>
+      <c r="C979">
+        <v>4</v>
+      </c>
+      <c r="D979">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>7</v>
+      </c>
+      <c r="B980">
+        <v>19</v>
+      </c>
+      <c r="C980">
+        <v>4</v>
+      </c>
+      <c r="D980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>5</v>
+      </c>
+      <c r="B981">
+        <v>12</v>
+      </c>
+      <c r="C981">
+        <v>4</v>
+      </c>
+      <c r="D981">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>5</v>
+      </c>
+      <c r="B982">
+        <v>7</v>
+      </c>
+      <c r="C982">
+        <v>4</v>
+      </c>
+      <c r="D982">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>5</v>
+      </c>
+      <c r="B983">
+        <v>15</v>
+      </c>
+      <c r="C983">
+        <v>4</v>
+      </c>
+      <c r="D983">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>2</v>
+      </c>
+      <c r="B984">
+        <v>2</v>
+      </c>
+      <c r="C984">
+        <v>3</v>
+      </c>
+      <c r="D984">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>6</v>
+      </c>
+      <c r="B985">
+        <v>8</v>
+      </c>
+      <c r="C985">
+        <v>4</v>
+      </c>
+      <c r="D985">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>4</v>
+      </c>
+      <c r="B986">
+        <v>8</v>
+      </c>
+      <c r="C986">
+        <v>2</v>
+      </c>
+      <c r="D986">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>3</v>
+      </c>
+      <c r="B987">
+        <v>6</v>
+      </c>
+      <c r="C987">
+        <v>5</v>
+      </c>
+      <c r="D987">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>6</v>
+      </c>
+      <c r="B988">
+        <v>7</v>
+      </c>
+      <c r="C988">
+        <v>9</v>
+      </c>
+      <c r="D988">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089509F-6B46-41F3-A950-D49BB03A039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385064A4-8394-4B66-B908-DD0FCC69230D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D988"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
-      <selection activeCell="A989" sqref="A989"/>
+    <sheetView tabSelected="1" topLeftCell="A986" workbookViewId="0">
+      <selection activeCell="A1005" sqref="A1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14205,6 +14205,230 @@
         <v>13</v>
       </c>
     </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>5</v>
+      </c>
+      <c r="B989">
+        <v>4</v>
+      </c>
+      <c r="C989">
+        <v>6</v>
+      </c>
+      <c r="D989">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>4</v>
+      </c>
+      <c r="B990">
+        <v>16</v>
+      </c>
+      <c r="C990">
+        <v>3</v>
+      </c>
+      <c r="D990">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>5</v>
+      </c>
+      <c r="B991">
+        <v>12</v>
+      </c>
+      <c r="C991">
+        <v>6</v>
+      </c>
+      <c r="D991">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>4</v>
+      </c>
+      <c r="B992">
+        <v>6</v>
+      </c>
+      <c r="C992">
+        <v>6</v>
+      </c>
+      <c r="D992">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>4</v>
+      </c>
+      <c r="B993">
+        <v>14</v>
+      </c>
+      <c r="C993">
+        <v>2</v>
+      </c>
+      <c r="D993">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>5</v>
+      </c>
+      <c r="B994">
+        <v>7</v>
+      </c>
+      <c r="C994">
+        <v>7</v>
+      </c>
+      <c r="D994">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>6</v>
+      </c>
+      <c r="B995">
+        <v>14</v>
+      </c>
+      <c r="C995">
+        <v>3</v>
+      </c>
+      <c r="D995">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>3</v>
+      </c>
+      <c r="B996">
+        <v>14</v>
+      </c>
+      <c r="C996">
+        <v>5</v>
+      </c>
+      <c r="D996">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>4</v>
+      </c>
+      <c r="B997">
+        <v>14</v>
+      </c>
+      <c r="C997">
+        <v>5</v>
+      </c>
+      <c r="D997">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>4</v>
+      </c>
+      <c r="B998">
+        <v>16</v>
+      </c>
+      <c r="C998">
+        <v>5</v>
+      </c>
+      <c r="D998">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>4</v>
+      </c>
+      <c r="B999">
+        <v>4</v>
+      </c>
+      <c r="C999">
+        <v>2</v>
+      </c>
+      <c r="D999">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>7</v>
+      </c>
+      <c r="B1000">
+        <v>14</v>
+      </c>
+      <c r="C1000">
+        <v>5</v>
+      </c>
+      <c r="D1000">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>3</v>
+      </c>
+      <c r="B1001">
+        <v>17</v>
+      </c>
+      <c r="C1001">
+        <v>1</v>
+      </c>
+      <c r="D1001">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>3</v>
+      </c>
+      <c r="B1002">
+        <v>3</v>
+      </c>
+      <c r="C1002">
+        <v>2</v>
+      </c>
+      <c r="D1002">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>4</v>
+      </c>
+      <c r="B1003">
+        <v>12</v>
+      </c>
+      <c r="C1003">
+        <v>3</v>
+      </c>
+      <c r="D1003">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>5</v>
+      </c>
+      <c r="B1004">
+        <v>8</v>
+      </c>
+      <c r="C1004">
+        <v>9</v>
+      </c>
+      <c r="D1004">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385064A4-8394-4B66-B908-DD0FCC69230D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC2D28-4C96-45AB-A66A-D147934160FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:D1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A986" workbookViewId="0">
-      <selection activeCell="A1005" sqref="A1005"/>
+    <sheetView tabSelected="1" topLeftCell="A1004" workbookViewId="0">
+      <selection activeCell="G1014" sqref="G1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14429,6 +14429,202 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>3</v>
+      </c>
+      <c r="B1005">
+        <v>6</v>
+      </c>
+      <c r="C1005">
+        <v>5</v>
+      </c>
+      <c r="D1005">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>5</v>
+      </c>
+      <c r="B1006">
+        <v>4</v>
+      </c>
+      <c r="C1006">
+        <v>4</v>
+      </c>
+      <c r="D1006">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>4</v>
+      </c>
+      <c r="B1007">
+        <v>8</v>
+      </c>
+      <c r="C1007">
+        <v>3</v>
+      </c>
+      <c r="D1007">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>2</v>
+      </c>
+      <c r="B1008">
+        <v>16</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+      <c r="D1008">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>4</v>
+      </c>
+      <c r="B1009">
+        <v>7</v>
+      </c>
+      <c r="C1009">
+        <v>5</v>
+      </c>
+      <c r="D1009">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>7</v>
+      </c>
+      <c r="B1010">
+        <v>14</v>
+      </c>
+      <c r="C1010">
+        <v>6</v>
+      </c>
+      <c r="D1010">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>5</v>
+      </c>
+      <c r="B1011">
+        <v>19</v>
+      </c>
+      <c r="C1011">
+        <v>4</v>
+      </c>
+      <c r="D1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>4</v>
+      </c>
+      <c r="B1012">
+        <v>7</v>
+      </c>
+      <c r="C1012">
+        <v>5</v>
+      </c>
+      <c r="D1012">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>2</v>
+      </c>
+      <c r="B1013">
+        <v>6</v>
+      </c>
+      <c r="C1013">
+        <v>3</v>
+      </c>
+      <c r="D1013">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1</v>
+      </c>
+      <c r="B1014">
+        <v>14</v>
+      </c>
+      <c r="C1014">
+        <v>4</v>
+      </c>
+      <c r="D1014">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>7</v>
+      </c>
+      <c r="B1015">
+        <v>5</v>
+      </c>
+      <c r="C1015">
+        <v>5</v>
+      </c>
+      <c r="D1015">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>3</v>
+      </c>
+      <c r="B1016">
+        <v>18</v>
+      </c>
+      <c r="C1016">
+        <v>6</v>
+      </c>
+      <c r="D1016">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>4</v>
+      </c>
+      <c r="B1017">
+        <v>5</v>
+      </c>
+      <c r="C1017">
+        <v>3</v>
+      </c>
+      <c r="D1017">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>6</v>
+      </c>
+      <c r="B1018">
+        <v>4</v>
+      </c>
+      <c r="C1018">
+        <v>4</v>
+      </c>
+      <c r="D1018">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC2D28-4C96-45AB-A66A-D147934160FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D7904-5467-4377-A138-AE1E76390186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1018"/>
+  <dimension ref="A1:D1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1004" workbookViewId="0">
-      <selection activeCell="G1014" sqref="G1014"/>
+    <sheetView tabSelected="1" topLeftCell="A1013" workbookViewId="0">
+      <selection activeCell="A1035" sqref="A1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14625,6 +14625,230 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>5</v>
+      </c>
+      <c r="B1019">
+        <v>13</v>
+      </c>
+      <c r="C1019">
+        <v>6</v>
+      </c>
+      <c r="D1019">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>4</v>
+      </c>
+      <c r="B1020">
+        <v>7</v>
+      </c>
+      <c r="C1020">
+        <v>5</v>
+      </c>
+      <c r="D1020">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>4</v>
+      </c>
+      <c r="B1021">
+        <v>4</v>
+      </c>
+      <c r="C1021">
+        <v>6</v>
+      </c>
+      <c r="D1021">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>4</v>
+      </c>
+      <c r="B1022">
+        <v>12</v>
+      </c>
+      <c r="C1022">
+        <v>3</v>
+      </c>
+      <c r="D1022">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>4</v>
+      </c>
+      <c r="B1023">
+        <v>8</v>
+      </c>
+      <c r="C1023">
+        <v>2</v>
+      </c>
+      <c r="D1023">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>5</v>
+      </c>
+      <c r="B1024">
+        <v>8</v>
+      </c>
+      <c r="C1024">
+        <v>3</v>
+      </c>
+      <c r="D1024">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>3</v>
+      </c>
+      <c r="B1025">
+        <v>13</v>
+      </c>
+      <c r="C1025">
+        <v>2</v>
+      </c>
+      <c r="D1025">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>2</v>
+      </c>
+      <c r="B1026">
+        <v>15</v>
+      </c>
+      <c r="C1026">
+        <v>5</v>
+      </c>
+      <c r="D1026">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>9</v>
+      </c>
+      <c r="B1027">
+        <v>6</v>
+      </c>
+      <c r="C1027">
+        <v>7</v>
+      </c>
+      <c r="D1027">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>3</v>
+      </c>
+      <c r="B1028">
+        <v>15</v>
+      </c>
+      <c r="C1028">
+        <v>5</v>
+      </c>
+      <c r="D1028">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>4</v>
+      </c>
+      <c r="B1029">
+        <v>17</v>
+      </c>
+      <c r="C1029">
+        <v>5</v>
+      </c>
+      <c r="D1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>4</v>
+      </c>
+      <c r="B1030">
+        <v>13</v>
+      </c>
+      <c r="C1030">
+        <v>3</v>
+      </c>
+      <c r="D1030">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>6</v>
+      </c>
+      <c r="B1031">
+        <v>16</v>
+      </c>
+      <c r="C1031">
+        <v>4</v>
+      </c>
+      <c r="D1031">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>5</v>
+      </c>
+      <c r="B1032">
+        <v>6</v>
+      </c>
+      <c r="C1032">
+        <v>7</v>
+      </c>
+      <c r="D1032">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>5</v>
+      </c>
+      <c r="B1033">
+        <v>14</v>
+      </c>
+      <c r="C1033">
+        <v>6</v>
+      </c>
+      <c r="D1033">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>4</v>
+      </c>
+      <c r="B1034">
+        <v>6</v>
+      </c>
+      <c r="C1034">
+        <v>2</v>
+      </c>
+      <c r="D1034">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D7904-5467-4377-A138-AE1E76390186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9ED8BD-19D2-4310-A6BD-5DF0777F3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1034"/>
+  <dimension ref="A1:D1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1013" workbookViewId="0">
-      <selection activeCell="A1035" sqref="A1035"/>
+    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
+      <selection activeCell="A1047" sqref="A1047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14849,6 +14849,174 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>4</v>
+      </c>
+      <c r="B1035">
+        <v>4</v>
+      </c>
+      <c r="C1035">
+        <v>3</v>
+      </c>
+      <c r="D1035">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>6</v>
+      </c>
+      <c r="B1036">
+        <v>8</v>
+      </c>
+      <c r="C1036">
+        <v>7</v>
+      </c>
+      <c r="D1036">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>5</v>
+      </c>
+      <c r="B1037">
+        <v>7</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>3</v>
+      </c>
+      <c r="B1038">
+        <v>5</v>
+      </c>
+      <c r="C1038">
+        <v>4</v>
+      </c>
+      <c r="D1038">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>2</v>
+      </c>
+      <c r="B1039">
+        <v>15</v>
+      </c>
+      <c r="C1039">
+        <v>3</v>
+      </c>
+      <c r="D1039">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>5</v>
+      </c>
+      <c r="B1040">
+        <v>4</v>
+      </c>
+      <c r="C1040">
+        <v>3</v>
+      </c>
+      <c r="D1040">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>5</v>
+      </c>
+      <c r="B1041">
+        <v>8</v>
+      </c>
+      <c r="C1041">
+        <v>1</v>
+      </c>
+      <c r="D1041">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>5</v>
+      </c>
+      <c r="B1042">
+        <v>13</v>
+      </c>
+      <c r="C1042">
+        <v>9</v>
+      </c>
+      <c r="D1042">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>2</v>
+      </c>
+      <c r="B1043">
+        <v>8</v>
+      </c>
+      <c r="C1043">
+        <v>3</v>
+      </c>
+      <c r="D1043">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>3</v>
+      </c>
+      <c r="B1044">
+        <v>12</v>
+      </c>
+      <c r="C1044">
+        <v>4</v>
+      </c>
+      <c r="D1044">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>3</v>
+      </c>
+      <c r="B1045">
+        <v>17</v>
+      </c>
+      <c r="C1045">
+        <v>4</v>
+      </c>
+      <c r="D1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>4</v>
+      </c>
+      <c r="B1046">
+        <v>6</v>
+      </c>
+      <c r="C1046">
+        <v>6</v>
+      </c>
+      <c r="D1046">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9ED8BD-19D2-4310-A6BD-5DF0777F3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DAB961-DBA0-45B4-B9F8-9D2666350830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1046"/>
+  <dimension ref="A1:D1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
-      <selection activeCell="A1047" sqref="A1047"/>
+    <sheetView tabSelected="1" topLeftCell="A1034" workbookViewId="0">
+      <selection activeCell="A1059" sqref="A1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15017,6 +15017,174 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>6</v>
+      </c>
+      <c r="B1047">
+        <v>6</v>
+      </c>
+      <c r="C1047">
+        <v>4</v>
+      </c>
+      <c r="D1047">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>4</v>
+      </c>
+      <c r="B1048">
+        <v>4</v>
+      </c>
+      <c r="C1048">
+        <v>7</v>
+      </c>
+      <c r="D1048">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>7</v>
+      </c>
+      <c r="B1049">
+        <v>5</v>
+      </c>
+      <c r="C1049">
+        <v>5</v>
+      </c>
+      <c r="D1049">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>6</v>
+      </c>
+      <c r="B1050">
+        <v>4</v>
+      </c>
+      <c r="C1050">
+        <v>5</v>
+      </c>
+      <c r="D1050">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>1</v>
+      </c>
+      <c r="B1051">
+        <v>14</v>
+      </c>
+      <c r="C1051">
+        <v>4</v>
+      </c>
+      <c r="D1051">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>4</v>
+      </c>
+      <c r="B1052">
+        <v>7</v>
+      </c>
+      <c r="C1052">
+        <v>2</v>
+      </c>
+      <c r="D1052">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>6</v>
+      </c>
+      <c r="B1053">
+        <v>8</v>
+      </c>
+      <c r="C1053">
+        <v>4</v>
+      </c>
+      <c r="D1053">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>3</v>
+      </c>
+      <c r="B1054">
+        <v>3</v>
+      </c>
+      <c r="C1054">
+        <v>4</v>
+      </c>
+      <c r="D1054">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>3</v>
+      </c>
+      <c r="B1055">
+        <v>13</v>
+      </c>
+      <c r="C1055">
+        <v>5</v>
+      </c>
+      <c r="D1055">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>3</v>
+      </c>
+      <c r="B1056">
+        <v>15</v>
+      </c>
+      <c r="C1056">
+        <v>4</v>
+      </c>
+      <c r="D1056">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>5</v>
+      </c>
+      <c r="B1057">
+        <v>17</v>
+      </c>
+      <c r="C1057">
+        <v>4</v>
+      </c>
+      <c r="D1057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>3</v>
+      </c>
+      <c r="B1058">
+        <v>5</v>
+      </c>
+      <c r="C1058">
+        <v>5</v>
+      </c>
+      <c r="D1058">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DAB961-DBA0-45B4-B9F8-9D2666350830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729E74D-002F-43A3-88D5-C30B96566338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1058"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1034" workbookViewId="0">
-      <selection activeCell="A1059" sqref="A1059"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" workbookViewId="0">
+      <selection activeCell="A1071" sqref="A1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15185,6 +15185,174 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>5</v>
+      </c>
+      <c r="B1059">
+        <v>8</v>
+      </c>
+      <c r="C1059">
+        <v>6</v>
+      </c>
+      <c r="D1059">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>3</v>
+      </c>
+      <c r="B1060">
+        <v>18</v>
+      </c>
+      <c r="C1060">
+        <v>4</v>
+      </c>
+      <c r="D1060">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>5</v>
+      </c>
+      <c r="B1061">
+        <v>13</v>
+      </c>
+      <c r="C1061">
+        <v>6</v>
+      </c>
+      <c r="D1061">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>8</v>
+      </c>
+      <c r="B1062">
+        <v>16</v>
+      </c>
+      <c r="C1062">
+        <v>7</v>
+      </c>
+      <c r="D1062">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>4</v>
+      </c>
+      <c r="B1063">
+        <v>15</v>
+      </c>
+      <c r="C1063">
+        <v>3</v>
+      </c>
+      <c r="D1063">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>4</v>
+      </c>
+      <c r="B1064">
+        <v>7</v>
+      </c>
+      <c r="C1064">
+        <v>3</v>
+      </c>
+      <c r="D1064">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>3</v>
+      </c>
+      <c r="B1065">
+        <v>16</v>
+      </c>
+      <c r="C1065">
+        <v>4</v>
+      </c>
+      <c r="D1065">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>5</v>
+      </c>
+      <c r="B1066">
+        <v>4</v>
+      </c>
+      <c r="C1066">
+        <v>3</v>
+      </c>
+      <c r="D1066">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>5</v>
+      </c>
+      <c r="B1067">
+        <v>4</v>
+      </c>
+      <c r="C1067">
+        <v>9</v>
+      </c>
+      <c r="D1067">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>4</v>
+      </c>
+      <c r="B1068">
+        <v>3</v>
+      </c>
+      <c r="C1068">
+        <v>3</v>
+      </c>
+      <c r="D1068">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>3</v>
+      </c>
+      <c r="B1069">
+        <v>13</v>
+      </c>
+      <c r="C1069">
+        <v>4</v>
+      </c>
+      <c r="D1069">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>4</v>
+      </c>
+      <c r="B1070">
+        <v>18</v>
+      </c>
+      <c r="C1070">
+        <v>3</v>
+      </c>
+      <c r="D1070">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729E74D-002F-43A3-88D5-C30B96566338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6661CFCC-59B4-4E14-B5D0-C7E0E91B8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1070"/>
+  <dimension ref="A1:D1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1055" workbookViewId="0">
-      <selection activeCell="A1071" sqref="A1071"/>
+    <sheetView tabSelected="1" topLeftCell="A1082" workbookViewId="0">
+      <selection activeCell="A1099" sqref="A1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15353,6 +15353,398 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>5</v>
+      </c>
+      <c r="B1071">
+        <v>14</v>
+      </c>
+      <c r="C1071">
+        <v>6</v>
+      </c>
+      <c r="D1071">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>4</v>
+      </c>
+      <c r="B1072">
+        <v>8</v>
+      </c>
+      <c r="C1072">
+        <v>3</v>
+      </c>
+      <c r="D1072">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>4</v>
+      </c>
+      <c r="B1073">
+        <v>13</v>
+      </c>
+      <c r="C1073">
+        <v>5</v>
+      </c>
+      <c r="D1073">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>4</v>
+      </c>
+      <c r="B1074">
+        <v>7</v>
+      </c>
+      <c r="C1074">
+        <v>5</v>
+      </c>
+      <c r="D1074">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>3</v>
+      </c>
+      <c r="B1075">
+        <v>15</v>
+      </c>
+      <c r="C1075">
+        <v>4</v>
+      </c>
+      <c r="D1075">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>4</v>
+      </c>
+      <c r="B1076">
+        <v>5</v>
+      </c>
+      <c r="C1076">
+        <v>2</v>
+      </c>
+      <c r="D1076">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>5</v>
+      </c>
+      <c r="B1077">
+        <v>5</v>
+      </c>
+      <c r="C1077">
+        <v>8</v>
+      </c>
+      <c r="D1077">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>4</v>
+      </c>
+      <c r="B1078">
+        <v>17</v>
+      </c>
+      <c r="C1078">
+        <v>3</v>
+      </c>
+      <c r="D1078">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>4</v>
+      </c>
+      <c r="B1079">
+        <v>15</v>
+      </c>
+      <c r="C1079">
+        <v>5</v>
+      </c>
+      <c r="D1079">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>3</v>
+      </c>
+      <c r="B1080">
+        <v>7</v>
+      </c>
+      <c r="C1080">
+        <v>4</v>
+      </c>
+      <c r="D1080">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>3</v>
+      </c>
+      <c r="B1081">
+        <v>2</v>
+      </c>
+      <c r="C1081">
+        <v>5</v>
+      </c>
+      <c r="D1081">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>9</v>
+      </c>
+      <c r="B1082">
+        <v>17</v>
+      </c>
+      <c r="C1082">
+        <v>7</v>
+      </c>
+      <c r="D1082">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>3</v>
+      </c>
+      <c r="B1083">
+        <v>13</v>
+      </c>
+      <c r="C1083">
+        <v>4</v>
+      </c>
+      <c r="D1083">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>5</v>
+      </c>
+      <c r="B1084">
+        <v>15</v>
+      </c>
+      <c r="C1084">
+        <v>3</v>
+      </c>
+      <c r="D1084">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>6</v>
+      </c>
+      <c r="B1085">
+        <v>7</v>
+      </c>
+      <c r="C1085">
+        <v>5</v>
+      </c>
+      <c r="D1085">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>6</v>
+      </c>
+      <c r="B1086">
+        <v>16</v>
+      </c>
+      <c r="C1086">
+        <v>4</v>
+      </c>
+      <c r="D1086">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>3</v>
+      </c>
+      <c r="B1087">
+        <v>13</v>
+      </c>
+      <c r="C1087">
+        <v>4</v>
+      </c>
+      <c r="D1087">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>3</v>
+      </c>
+      <c r="B1088">
+        <v>12</v>
+      </c>
+      <c r="C1088">
+        <v>4</v>
+      </c>
+      <c r="D1088">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>6</v>
+      </c>
+      <c r="B1089">
+        <v>14</v>
+      </c>
+      <c r="C1089">
+        <v>4</v>
+      </c>
+      <c r="D1089">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>4</v>
+      </c>
+      <c r="B1090">
+        <v>17</v>
+      </c>
+      <c r="C1090">
+        <v>3</v>
+      </c>
+      <c r="D1090">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>2</v>
+      </c>
+      <c r="B1091">
+        <v>3</v>
+      </c>
+      <c r="C1091">
+        <v>4</v>
+      </c>
+      <c r="D1091">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>5</v>
+      </c>
+      <c r="B1092">
+        <v>8</v>
+      </c>
+      <c r="C1092">
+        <v>4</v>
+      </c>
+      <c r="D1092">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>4</v>
+      </c>
+      <c r="B1093">
+        <v>14</v>
+      </c>
+      <c r="C1093">
+        <v>2</v>
+      </c>
+      <c r="D1093">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>5</v>
+      </c>
+      <c r="B1094">
+        <v>15</v>
+      </c>
+      <c r="C1094">
+        <v>3</v>
+      </c>
+      <c r="D1094">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>5</v>
+      </c>
+      <c r="B1095">
+        <v>16</v>
+      </c>
+      <c r="C1095">
+        <v>4</v>
+      </c>
+      <c r="D1095">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>9</v>
+      </c>
+      <c r="B1096">
+        <v>12</v>
+      </c>
+      <c r="C1096">
+        <v>4</v>
+      </c>
+      <c r="D1096">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>3</v>
+      </c>
+      <c r="B1097">
+        <v>14</v>
+      </c>
+      <c r="C1097">
+        <v>6</v>
+      </c>
+      <c r="D1097">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>3</v>
+      </c>
+      <c r="B1098">
+        <v>13</v>
+      </c>
+      <c r="C1098">
+        <v>4</v>
+      </c>
+      <c r="D1098">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6661CFCC-59B4-4E14-B5D0-C7E0E91B8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF254F-076B-4B7B-AC6C-A4A218D83E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1098"/>
+  <dimension ref="A1:D1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1082" workbookViewId="0">
-      <selection activeCell="A1099" sqref="A1099"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
+      <selection activeCell="E1109" sqref="E1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15745,6 +15745,160 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>9</v>
+      </c>
+      <c r="B1099">
+        <v>5</v>
+      </c>
+      <c r="C1099">
+        <v>6</v>
+      </c>
+      <c r="D1099">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>3</v>
+      </c>
+      <c r="B1100">
+        <v>7</v>
+      </c>
+      <c r="C1100">
+        <v>2</v>
+      </c>
+      <c r="D1100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>4</v>
+      </c>
+      <c r="B1101">
+        <v>5</v>
+      </c>
+      <c r="C1101">
+        <v>5</v>
+      </c>
+      <c r="D1101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>4</v>
+      </c>
+      <c r="B1102">
+        <v>6</v>
+      </c>
+      <c r="C1102">
+        <v>3</v>
+      </c>
+      <c r="D1102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>3</v>
+      </c>
+      <c r="B1103">
+        <v>12</v>
+      </c>
+      <c r="C1103">
+        <v>4</v>
+      </c>
+      <c r="D1103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>5</v>
+      </c>
+      <c r="B1104">
+        <v>3</v>
+      </c>
+      <c r="C1104">
+        <v>8</v>
+      </c>
+      <c r="D1104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>4</v>
+      </c>
+      <c r="B1105">
+        <v>8</v>
+      </c>
+      <c r="C1105">
+        <v>5</v>
+      </c>
+      <c r="D1105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>4</v>
+      </c>
+      <c r="B1106">
+        <v>14</v>
+      </c>
+      <c r="C1106">
+        <v>5</v>
+      </c>
+      <c r="D1106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>6</v>
+      </c>
+      <c r="B1107">
+        <v>15</v>
+      </c>
+      <c r="C1107">
+        <v>7</v>
+      </c>
+      <c r="D1107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>5</v>
+      </c>
+      <c r="B1108">
+        <v>17</v>
+      </c>
+      <c r="C1108">
+        <v>6</v>
+      </c>
+      <c r="D1108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>3</v>
+      </c>
+      <c r="B1109">
+        <v>8</v>
+      </c>
+      <c r="C1109">
+        <v>2</v>
+      </c>
+      <c r="D1109">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF254F-076B-4B7B-AC6C-A4A218D83E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E5741-BBA2-4D45-BD7F-89151AF71D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1109"/>
+  <dimension ref="A1:D1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
-      <selection activeCell="E1109" sqref="E1109"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
+      <selection activeCell="A1123" sqref="A1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15899,6 +15899,188 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>5</v>
+      </c>
+      <c r="B1110">
+        <v>8</v>
+      </c>
+      <c r="C1110">
+        <v>4</v>
+      </c>
+      <c r="D1110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>3</v>
+      </c>
+      <c r="B1111">
+        <v>7</v>
+      </c>
+      <c r="C1111">
+        <v>4</v>
+      </c>
+      <c r="D1111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>3</v>
+      </c>
+      <c r="B1112">
+        <v>5</v>
+      </c>
+      <c r="C1112">
+        <v>5</v>
+      </c>
+      <c r="D1112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>5</v>
+      </c>
+      <c r="B1113">
+        <v>7</v>
+      </c>
+      <c r="C1113">
+        <v>6</v>
+      </c>
+      <c r="D1113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>5</v>
+      </c>
+      <c r="B1114">
+        <v>4</v>
+      </c>
+      <c r="C1114">
+        <v>6</v>
+      </c>
+      <c r="D1114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>3</v>
+      </c>
+      <c r="B1115">
+        <v>7</v>
+      </c>
+      <c r="C1115">
+        <v>4</v>
+      </c>
+      <c r="D1115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>5</v>
+      </c>
+      <c r="B1116">
+        <v>7</v>
+      </c>
+      <c r="C1116">
+        <v>3</v>
+      </c>
+      <c r="D1116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>5</v>
+      </c>
+      <c r="B1117">
+        <v>5</v>
+      </c>
+      <c r="C1117">
+        <v>4</v>
+      </c>
+      <c r="D1117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>5</v>
+      </c>
+      <c r="B1118">
+        <v>12</v>
+      </c>
+      <c r="C1118">
+        <v>6</v>
+      </c>
+      <c r="D1118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>6</v>
+      </c>
+      <c r="B1119">
+        <v>6</v>
+      </c>
+      <c r="C1119">
+        <v>2</v>
+      </c>
+      <c r="D1119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>2</v>
+      </c>
+      <c r="B1120">
+        <v>7</v>
+      </c>
+      <c r="C1120">
+        <v>3</v>
+      </c>
+      <c r="D1120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>7</v>
+      </c>
+      <c r="B1121">
+        <v>5</v>
+      </c>
+      <c r="C1121">
+        <v>4</v>
+      </c>
+      <c r="D1121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>4</v>
+      </c>
+      <c r="B1122">
+        <v>14</v>
+      </c>
+      <c r="C1122">
+        <v>3</v>
+      </c>
+      <c r="D1122">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E5741-BBA2-4D45-BD7F-89151AF71D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03728BFD-A9A9-4958-8593-7A7ACF1917A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1122"/>
+  <dimension ref="A1:D1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
-      <selection activeCell="A1123" sqref="A1123"/>
+    <sheetView tabSelected="1" topLeftCell="A1121" workbookViewId="0">
+      <selection activeCell="A1143" sqref="A1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16081,6 +16081,286 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>7</v>
+      </c>
+      <c r="B1123">
+        <v>12</v>
+      </c>
+      <c r="C1123">
+        <v>6</v>
+      </c>
+      <c r="D1123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>2</v>
+      </c>
+      <c r="B1124">
+        <v>7</v>
+      </c>
+      <c r="C1124">
+        <v>4</v>
+      </c>
+      <c r="D1124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>6</v>
+      </c>
+      <c r="B1125">
+        <v>12</v>
+      </c>
+      <c r="C1125">
+        <v>5</v>
+      </c>
+      <c r="D1125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>2</v>
+      </c>
+      <c r="B1126">
+        <v>6</v>
+      </c>
+      <c r="C1126">
+        <v>3</v>
+      </c>
+      <c r="D1126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>4</v>
+      </c>
+      <c r="B1127">
+        <v>14</v>
+      </c>
+      <c r="C1127">
+        <v>5</v>
+      </c>
+      <c r="D1127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>3</v>
+      </c>
+      <c r="B1128">
+        <v>5</v>
+      </c>
+      <c r="C1128">
+        <v>4</v>
+      </c>
+      <c r="D1128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>6</v>
+      </c>
+      <c r="B1129">
+        <v>8</v>
+      </c>
+      <c r="C1129">
+        <v>4</v>
+      </c>
+      <c r="D1129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>5</v>
+      </c>
+      <c r="B1130">
+        <v>8</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+      <c r="D1130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>3</v>
+      </c>
+      <c r="B1131">
+        <v>19</v>
+      </c>
+      <c r="C1131">
+        <v>4</v>
+      </c>
+      <c r="D1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>6</v>
+      </c>
+      <c r="B1132">
+        <v>8</v>
+      </c>
+      <c r="C1132">
+        <v>5</v>
+      </c>
+      <c r="D1132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>3</v>
+      </c>
+      <c r="B1133">
+        <v>13</v>
+      </c>
+      <c r="C1133">
+        <v>2</v>
+      </c>
+      <c r="D1133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>2</v>
+      </c>
+      <c r="B1134">
+        <v>4</v>
+      </c>
+      <c r="C1134">
+        <v>3</v>
+      </c>
+      <c r="D1134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>4</v>
+      </c>
+      <c r="B1135">
+        <v>12</v>
+      </c>
+      <c r="C1135">
+        <v>5</v>
+      </c>
+      <c r="D1135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>9</v>
+      </c>
+      <c r="B1136">
+        <v>15</v>
+      </c>
+      <c r="C1136">
+        <v>4</v>
+      </c>
+      <c r="D1136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>3</v>
+      </c>
+      <c r="B1137">
+        <v>13</v>
+      </c>
+      <c r="C1137">
+        <v>5</v>
+      </c>
+      <c r="D1137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>5</v>
+      </c>
+      <c r="B1138">
+        <v>13</v>
+      </c>
+      <c r="C1138">
+        <v>4</v>
+      </c>
+      <c r="D1138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>4</v>
+      </c>
+      <c r="B1139">
+        <v>5</v>
+      </c>
+      <c r="C1139">
+        <v>3</v>
+      </c>
+      <c r="D1139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>6</v>
+      </c>
+      <c r="B1140">
+        <v>5</v>
+      </c>
+      <c r="C1140">
+        <v>7</v>
+      </c>
+      <c r="D1140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>4</v>
+      </c>
+      <c r="B1141">
+        <v>4</v>
+      </c>
+      <c r="C1141">
+        <v>3</v>
+      </c>
+      <c r="D1141">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>5</v>
+      </c>
+      <c r="B1142">
+        <v>6</v>
+      </c>
+      <c r="C1142">
+        <v>3</v>
+      </c>
+      <c r="D1142">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03728BFD-A9A9-4958-8593-7A7ACF1917A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA623715-5672-43AC-A5E7-3084F045EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1142"/>
+  <dimension ref="A1:D1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1121" workbookViewId="0">
-      <selection activeCell="A1143" sqref="A1143"/>
+    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
+      <selection activeCell="A1166" sqref="A1166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16361,6 +16361,328 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>6</v>
+      </c>
+      <c r="B1143">
+        <v>18</v>
+      </c>
+      <c r="C1143">
+        <v>5</v>
+      </c>
+      <c r="D1143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>4</v>
+      </c>
+      <c r="B1144">
+        <v>7</v>
+      </c>
+      <c r="C1144">
+        <v>3</v>
+      </c>
+      <c r="D1144">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>4</v>
+      </c>
+      <c r="B1145">
+        <v>8</v>
+      </c>
+      <c r="C1145">
+        <v>3</v>
+      </c>
+      <c r="D1145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>2</v>
+      </c>
+      <c r="B1146">
+        <v>13</v>
+      </c>
+      <c r="C1146">
+        <v>3</v>
+      </c>
+      <c r="D1146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>5</v>
+      </c>
+      <c r="B1147">
+        <v>4</v>
+      </c>
+      <c r="C1147">
+        <v>4</v>
+      </c>
+      <c r="D1147">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>4</v>
+      </c>
+      <c r="B1148">
+        <v>7</v>
+      </c>
+      <c r="C1148">
+        <v>2</v>
+      </c>
+      <c r="D1148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>4</v>
+      </c>
+      <c r="B1149">
+        <v>4</v>
+      </c>
+      <c r="C1149">
+        <v>5</v>
+      </c>
+      <c r="D1149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>4</v>
+      </c>
+      <c r="B1150">
+        <v>13</v>
+      </c>
+      <c r="C1150">
+        <v>6</v>
+      </c>
+      <c r="D1150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>3</v>
+      </c>
+      <c r="B1151">
+        <v>5</v>
+      </c>
+      <c r="C1151">
+        <v>2</v>
+      </c>
+      <c r="D1151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>5</v>
+      </c>
+      <c r="B1152">
+        <v>4</v>
+      </c>
+      <c r="C1152">
+        <v>3</v>
+      </c>
+      <c r="D1152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>2</v>
+      </c>
+      <c r="B1153">
+        <v>14</v>
+      </c>
+      <c r="C1153">
+        <v>3</v>
+      </c>
+      <c r="D1153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>4</v>
+      </c>
+      <c r="B1154">
+        <v>5</v>
+      </c>
+      <c r="C1154">
+        <v>2</v>
+      </c>
+      <c r="D1154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>5</v>
+      </c>
+      <c r="B1155">
+        <v>13</v>
+      </c>
+      <c r="C1155">
+        <v>4</v>
+      </c>
+      <c r="D1155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>5</v>
+      </c>
+      <c r="B1156">
+        <v>7</v>
+      </c>
+      <c r="C1156">
+        <v>9</v>
+      </c>
+      <c r="D1156">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>5</v>
+      </c>
+      <c r="B1157">
+        <v>2</v>
+      </c>
+      <c r="C1157">
+        <v>4</v>
+      </c>
+      <c r="D1157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>4</v>
+      </c>
+      <c r="B1158">
+        <v>5</v>
+      </c>
+      <c r="C1158">
+        <v>3</v>
+      </c>
+      <c r="D1158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>3</v>
+      </c>
+      <c r="B1159">
+        <v>16</v>
+      </c>
+      <c r="C1159">
+        <v>4</v>
+      </c>
+      <c r="D1159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>7</v>
+      </c>
+      <c r="B1160">
+        <v>5</v>
+      </c>
+      <c r="C1160">
+        <v>4</v>
+      </c>
+      <c r="D1160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>5</v>
+      </c>
+      <c r="B1161">
+        <v>12</v>
+      </c>
+      <c r="C1161">
+        <v>7</v>
+      </c>
+      <c r="D1161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>3</v>
+      </c>
+      <c r="B1162">
+        <v>15</v>
+      </c>
+      <c r="C1162">
+        <v>2</v>
+      </c>
+      <c r="D1162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>2</v>
+      </c>
+      <c r="B1163">
+        <v>15</v>
+      </c>
+      <c r="C1163">
+        <v>6</v>
+      </c>
+      <c r="D1163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>5</v>
+      </c>
+      <c r="B1164">
+        <v>20</v>
+      </c>
+      <c r="C1164">
+        <v>2</v>
+      </c>
+      <c r="D1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>3</v>
+      </c>
+      <c r="B1165">
+        <v>14</v>
+      </c>
+      <c r="C1165">
+        <v>4</v>
+      </c>
+      <c r="D1165">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA623715-5672-43AC-A5E7-3084F045EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5E4DD-4FF0-49B4-A514-25DAFF125B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1165"/>
+  <dimension ref="A1:D1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
-      <selection activeCell="A1166" sqref="A1166"/>
+    <sheetView tabSelected="1" topLeftCell="A1169" workbookViewId="0">
+      <selection activeCell="A1184" sqref="A1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16683,6 +16683,258 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>3</v>
+      </c>
+      <c r="B1166">
+        <v>16</v>
+      </c>
+      <c r="C1166">
+        <v>4</v>
+      </c>
+      <c r="D1166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>2</v>
+      </c>
+      <c r="B1167">
+        <v>18</v>
+      </c>
+      <c r="C1167">
+        <v>3</v>
+      </c>
+      <c r="D1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>3</v>
+      </c>
+      <c r="B1168">
+        <v>4</v>
+      </c>
+      <c r="C1168">
+        <v>6</v>
+      </c>
+      <c r="D1168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>3</v>
+      </c>
+      <c r="B1169">
+        <v>8</v>
+      </c>
+      <c r="C1169">
+        <v>4</v>
+      </c>
+      <c r="D1169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>5</v>
+      </c>
+      <c r="B1170">
+        <v>14</v>
+      </c>
+      <c r="C1170">
+        <v>6</v>
+      </c>
+      <c r="D1170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>1</v>
+      </c>
+      <c r="B1171">
+        <v>6</v>
+      </c>
+      <c r="C1171">
+        <v>4</v>
+      </c>
+      <c r="D1171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>3</v>
+      </c>
+      <c r="B1172">
+        <v>16</v>
+      </c>
+      <c r="C1172">
+        <v>4</v>
+      </c>
+      <c r="D1172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>9</v>
+      </c>
+      <c r="B1173">
+        <v>15</v>
+      </c>
+      <c r="C1173">
+        <v>5</v>
+      </c>
+      <c r="D1173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>2</v>
+      </c>
+      <c r="B1174">
+        <v>17</v>
+      </c>
+      <c r="C1174">
+        <v>4</v>
+      </c>
+      <c r="D1174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>4</v>
+      </c>
+      <c r="B1175">
+        <v>18</v>
+      </c>
+      <c r="C1175">
+        <v>2</v>
+      </c>
+      <c r="D1175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>6</v>
+      </c>
+      <c r="B1176">
+        <v>3</v>
+      </c>
+      <c r="C1176">
+        <v>8</v>
+      </c>
+      <c r="D1176">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>4</v>
+      </c>
+      <c r="B1177">
+        <v>3</v>
+      </c>
+      <c r="C1177">
+        <v>5</v>
+      </c>
+      <c r="D1177">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>2</v>
+      </c>
+      <c r="B1178">
+        <v>5</v>
+      </c>
+      <c r="C1178">
+        <v>3</v>
+      </c>
+      <c r="D1178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>5</v>
+      </c>
+      <c r="B1179">
+        <v>1</v>
+      </c>
+      <c r="C1179">
+        <v>7</v>
+      </c>
+      <c r="D1179">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>4</v>
+      </c>
+      <c r="B1180">
+        <v>5</v>
+      </c>
+      <c r="C1180">
+        <v>5</v>
+      </c>
+      <c r="D1180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>3</v>
+      </c>
+      <c r="B1181">
+        <v>3</v>
+      </c>
+      <c r="C1181">
+        <v>4</v>
+      </c>
+      <c r="D1181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>4</v>
+      </c>
+      <c r="B1182">
+        <v>2</v>
+      </c>
+      <c r="C1182">
+        <v>3</v>
+      </c>
+      <c r="D1182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>4</v>
+      </c>
+      <c r="B1183">
+        <v>3</v>
+      </c>
+      <c r="C1183">
+        <v>3</v>
+      </c>
+      <c r="D1183">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5E4DD-4FF0-49B4-A514-25DAFF125B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A05E3-F5E1-42EC-8886-AE424BF85FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1183"/>
+  <dimension ref="A1:D1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1169" workbookViewId="0">
-      <selection activeCell="A1184" sqref="A1184"/>
+    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
+      <selection activeCell="M1192" sqref="M1192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16935,6 +16935,202 @@
         <v>17</v>
       </c>
     </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>5</v>
+      </c>
+      <c r="B1184">
+        <v>2</v>
+      </c>
+      <c r="C1184">
+        <v>1</v>
+      </c>
+      <c r="D1184">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>6</v>
+      </c>
+      <c r="B1185">
+        <v>8</v>
+      </c>
+      <c r="C1185">
+        <v>1</v>
+      </c>
+      <c r="D1185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>5</v>
+      </c>
+      <c r="B1186">
+        <v>4</v>
+      </c>
+      <c r="C1186">
+        <v>3</v>
+      </c>
+      <c r="D1186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>2</v>
+      </c>
+      <c r="B1187">
+        <v>8</v>
+      </c>
+      <c r="C1187">
+        <v>3</v>
+      </c>
+      <c r="D1187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>4</v>
+      </c>
+      <c r="B1188">
+        <v>12</v>
+      </c>
+      <c r="C1188">
+        <v>6</v>
+      </c>
+      <c r="D1188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>5</v>
+      </c>
+      <c r="B1189">
+        <v>16</v>
+      </c>
+      <c r="C1189">
+        <v>7</v>
+      </c>
+      <c r="D1189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>5</v>
+      </c>
+      <c r="B1190">
+        <v>8</v>
+      </c>
+      <c r="C1190">
+        <v>4</v>
+      </c>
+      <c r="D1190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>3</v>
+      </c>
+      <c r="B1191">
+        <v>6</v>
+      </c>
+      <c r="C1191">
+        <v>4</v>
+      </c>
+      <c r="D1191">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>4</v>
+      </c>
+      <c r="B1192">
+        <v>12</v>
+      </c>
+      <c r="C1192">
+        <v>3</v>
+      </c>
+      <c r="D1192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>6</v>
+      </c>
+      <c r="B1193">
+        <v>12</v>
+      </c>
+      <c r="C1193">
+        <v>6</v>
+      </c>
+      <c r="D1193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>2</v>
+      </c>
+      <c r="B1194">
+        <v>14</v>
+      </c>
+      <c r="C1194">
+        <v>3</v>
+      </c>
+      <c r="D1194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>7</v>
+      </c>
+      <c r="B1195">
+        <v>15</v>
+      </c>
+      <c r="C1195">
+        <v>6</v>
+      </c>
+      <c r="D1195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>3</v>
+      </c>
+      <c r="B1196">
+        <v>8</v>
+      </c>
+      <c r="C1196">
+        <v>4</v>
+      </c>
+      <c r="D1196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>8</v>
+      </c>
+      <c r="B1197">
+        <v>18</v>
+      </c>
+      <c r="C1197">
+        <v>5</v>
+      </c>
+      <c r="D1197">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A05E3-F5E1-42EC-8886-AE424BF85FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CE9C9-0CA9-4C09-BA2B-3CC74C2B362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1197"/>
+  <dimension ref="A1:D1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
-      <selection activeCell="M1192" sqref="M1192"/>
+    <sheetView tabSelected="1" topLeftCell="A1193" workbookViewId="0">
+      <selection activeCell="A1210" sqref="A1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17131,6 +17131,174 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>4</v>
+      </c>
+      <c r="B1198">
+        <v>13</v>
+      </c>
+      <c r="C1198">
+        <v>3</v>
+      </c>
+      <c r="D1198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>3</v>
+      </c>
+      <c r="B1199">
+        <v>4</v>
+      </c>
+      <c r="C1199">
+        <v>4</v>
+      </c>
+      <c r="D1199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>6</v>
+      </c>
+      <c r="B1200">
+        <v>4</v>
+      </c>
+      <c r="C1200">
+        <v>4</v>
+      </c>
+      <c r="D1200">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>4</v>
+      </c>
+      <c r="B1201">
+        <v>13</v>
+      </c>
+      <c r="C1201">
+        <v>5</v>
+      </c>
+      <c r="D1201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>6</v>
+      </c>
+      <c r="B1202">
+        <v>15</v>
+      </c>
+      <c r="C1202">
+        <v>5</v>
+      </c>
+      <c r="D1202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>4</v>
+      </c>
+      <c r="B1203">
+        <v>3</v>
+      </c>
+      <c r="C1203">
+        <v>5</v>
+      </c>
+      <c r="D1203">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>5</v>
+      </c>
+      <c r="B1204">
+        <v>15</v>
+      </c>
+      <c r="C1204">
+        <v>6</v>
+      </c>
+      <c r="D1204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>6</v>
+      </c>
+      <c r="B1205">
+        <v>4</v>
+      </c>
+      <c r="C1205">
+        <v>4</v>
+      </c>
+      <c r="D1205">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>4</v>
+      </c>
+      <c r="B1206">
+        <v>7</v>
+      </c>
+      <c r="C1206">
+        <v>5</v>
+      </c>
+      <c r="D1206">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>5</v>
+      </c>
+      <c r="B1207">
+        <v>15</v>
+      </c>
+      <c r="C1207">
+        <v>8</v>
+      </c>
+      <c r="D1207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>9</v>
+      </c>
+      <c r="B1208">
+        <v>3</v>
+      </c>
+      <c r="C1208">
+        <v>8</v>
+      </c>
+      <c r="D1208">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>1</v>
+      </c>
+      <c r="B1209">
+        <v>12</v>
+      </c>
+      <c r="C1209">
+        <v>2</v>
+      </c>
+      <c r="D1209">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CE9C9-0CA9-4C09-BA2B-3CC74C2B362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A1960-FF16-4C6C-A5C7-96085C723B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1209"/>
+  <dimension ref="A1:D1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1193" workbookViewId="0">
-      <selection activeCell="A1210" sqref="A1210"/>
+    <sheetView tabSelected="1" topLeftCell="A1217" workbookViewId="0">
+      <selection activeCell="A1224" sqref="A1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17299,6 +17299,202 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>6</v>
+      </c>
+      <c r="B1210">
+        <v>20</v>
+      </c>
+      <c r="C1210">
+        <v>4</v>
+      </c>
+      <c r="D1210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>4</v>
+      </c>
+      <c r="B1211">
+        <v>15</v>
+      </c>
+      <c r="C1211">
+        <v>5</v>
+      </c>
+      <c r="D1211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>2</v>
+      </c>
+      <c r="B1212">
+        <v>8</v>
+      </c>
+      <c r="C1212">
+        <v>7</v>
+      </c>
+      <c r="D1212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>4</v>
+      </c>
+      <c r="B1213">
+        <v>5</v>
+      </c>
+      <c r="C1213">
+        <v>3</v>
+      </c>
+      <c r="D1213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>4</v>
+      </c>
+      <c r="B1214">
+        <v>5</v>
+      </c>
+      <c r="C1214">
+        <v>3</v>
+      </c>
+      <c r="D1214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>3</v>
+      </c>
+      <c r="B1215">
+        <v>16</v>
+      </c>
+      <c r="C1215">
+        <v>5</v>
+      </c>
+      <c r="D1215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>6</v>
+      </c>
+      <c r="B1216">
+        <v>2</v>
+      </c>
+      <c r="C1216">
+        <v>3</v>
+      </c>
+      <c r="D1216">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>6</v>
+      </c>
+      <c r="B1217">
+        <v>13</v>
+      </c>
+      <c r="C1217">
+        <v>4</v>
+      </c>
+      <c r="D1217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>2</v>
+      </c>
+      <c r="B1218">
+        <v>5</v>
+      </c>
+      <c r="C1218">
+        <v>5</v>
+      </c>
+      <c r="D1218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>3</v>
+      </c>
+      <c r="B1219">
+        <v>15</v>
+      </c>
+      <c r="C1219">
+        <v>4</v>
+      </c>
+      <c r="D1219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>2</v>
+      </c>
+      <c r="B1220">
+        <v>2</v>
+      </c>
+      <c r="C1220">
+        <v>3</v>
+      </c>
+      <c r="D1220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>5</v>
+      </c>
+      <c r="B1221">
+        <v>17</v>
+      </c>
+      <c r="C1221">
+        <v>4</v>
+      </c>
+      <c r="D1221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>4</v>
+      </c>
+      <c r="B1222">
+        <v>8</v>
+      </c>
+      <c r="C1222">
+        <v>5</v>
+      </c>
+      <c r="D1222">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>3</v>
+      </c>
+      <c r="B1223">
+        <v>12</v>
+      </c>
+      <c r="C1223">
+        <v>4</v>
+      </c>
+      <c r="D1223">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A1960-FF16-4C6C-A5C7-96085C723B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143432DF-6A1E-434D-90CD-81719AE642F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1223"/>
+  <dimension ref="A1:D1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1217" workbookViewId="0">
-      <selection activeCell="A1224" sqref="A1224"/>
+    <sheetView tabSelected="1" topLeftCell="A1265" workbookViewId="0">
+      <selection activeCell="E1273" sqref="E1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17495,6 +17495,706 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>6</v>
+      </c>
+      <c r="B1224">
+        <v>14</v>
+      </c>
+      <c r="C1224">
+        <v>5</v>
+      </c>
+      <c r="D1224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>5</v>
+      </c>
+      <c r="B1225">
+        <v>5</v>
+      </c>
+      <c r="C1225">
+        <v>4</v>
+      </c>
+      <c r="D1225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>4</v>
+      </c>
+      <c r="B1226">
+        <v>6</v>
+      </c>
+      <c r="C1226">
+        <v>3</v>
+      </c>
+      <c r="D1226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>3</v>
+      </c>
+      <c r="B1227">
+        <v>6</v>
+      </c>
+      <c r="C1227">
+        <v>4</v>
+      </c>
+      <c r="D1227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>3</v>
+      </c>
+      <c r="B1228">
+        <v>20</v>
+      </c>
+      <c r="C1228">
+        <v>4</v>
+      </c>
+      <c r="D1228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>4</v>
+      </c>
+      <c r="B1229">
+        <v>8</v>
+      </c>
+      <c r="C1229">
+        <v>5</v>
+      </c>
+      <c r="D1229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>4</v>
+      </c>
+      <c r="B1230">
+        <v>8</v>
+      </c>
+      <c r="C1230">
+        <v>3</v>
+      </c>
+      <c r="D1230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>2</v>
+      </c>
+      <c r="B1231">
+        <v>19</v>
+      </c>
+      <c r="C1231">
+        <v>4</v>
+      </c>
+      <c r="D1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>8</v>
+      </c>
+      <c r="B1232">
+        <v>6</v>
+      </c>
+      <c r="C1232">
+        <v>2</v>
+      </c>
+      <c r="D1232">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>3</v>
+      </c>
+      <c r="B1233">
+        <v>17</v>
+      </c>
+      <c r="C1233">
+        <v>4</v>
+      </c>
+      <c r="D1233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>3</v>
+      </c>
+      <c r="B1234">
+        <v>13</v>
+      </c>
+      <c r="C1234">
+        <v>4</v>
+      </c>
+      <c r="D1234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>2</v>
+      </c>
+      <c r="B1235">
+        <v>2</v>
+      </c>
+      <c r="C1235">
+        <v>3</v>
+      </c>
+      <c r="D1235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>3</v>
+      </c>
+      <c r="B1236">
+        <v>15</v>
+      </c>
+      <c r="C1236">
+        <v>4</v>
+      </c>
+      <c r="D1236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>5</v>
+      </c>
+      <c r="B1237">
+        <v>6</v>
+      </c>
+      <c r="C1237">
+        <v>4</v>
+      </c>
+      <c r="D1237">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>4</v>
+      </c>
+      <c r="B1238">
+        <v>3</v>
+      </c>
+      <c r="C1238">
+        <v>3</v>
+      </c>
+      <c r="D1238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>6</v>
+      </c>
+      <c r="B1239">
+        <v>8</v>
+      </c>
+      <c r="C1239">
+        <v>5</v>
+      </c>
+      <c r="D1239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>5</v>
+      </c>
+      <c r="B1240">
+        <v>6</v>
+      </c>
+      <c r="C1240">
+        <v>4</v>
+      </c>
+      <c r="D1240">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>3</v>
+      </c>
+      <c r="B1241">
+        <v>15</v>
+      </c>
+      <c r="C1241">
+        <v>4</v>
+      </c>
+      <c r="D1241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>5</v>
+      </c>
+      <c r="B1242">
+        <v>7</v>
+      </c>
+      <c r="C1242">
+        <v>6</v>
+      </c>
+      <c r="D1242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>4</v>
+      </c>
+      <c r="B1243">
+        <v>15</v>
+      </c>
+      <c r="C1243">
+        <v>5</v>
+      </c>
+      <c r="D1243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>2</v>
+      </c>
+      <c r="B1244">
+        <v>6</v>
+      </c>
+      <c r="C1244">
+        <v>3</v>
+      </c>
+      <c r="D1244">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>5</v>
+      </c>
+      <c r="B1245">
+        <v>7</v>
+      </c>
+      <c r="C1245">
+        <v>4</v>
+      </c>
+      <c r="D1245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>3</v>
+      </c>
+      <c r="B1246">
+        <v>15</v>
+      </c>
+      <c r="C1246">
+        <v>2</v>
+      </c>
+      <c r="D1246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>4</v>
+      </c>
+      <c r="B1247">
+        <v>6</v>
+      </c>
+      <c r="C1247">
+        <v>3</v>
+      </c>
+      <c r="D1247">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>6</v>
+      </c>
+      <c r="B1248">
+        <v>8</v>
+      </c>
+      <c r="C1248">
+        <v>7</v>
+      </c>
+      <c r="D1248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>5</v>
+      </c>
+      <c r="B1249">
+        <v>13</v>
+      </c>
+      <c r="C1249">
+        <v>4</v>
+      </c>
+      <c r="D1249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>4</v>
+      </c>
+      <c r="B1250">
+        <v>5</v>
+      </c>
+      <c r="C1250">
+        <v>3</v>
+      </c>
+      <c r="D1250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>2</v>
+      </c>
+      <c r="B1251">
+        <v>13</v>
+      </c>
+      <c r="C1251">
+        <v>3</v>
+      </c>
+      <c r="D1251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>3</v>
+      </c>
+      <c r="B1252">
+        <v>12</v>
+      </c>
+      <c r="C1252">
+        <v>1</v>
+      </c>
+      <c r="D1252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>4</v>
+      </c>
+      <c r="B1253">
+        <v>12</v>
+      </c>
+      <c r="C1253">
+        <v>6</v>
+      </c>
+      <c r="D1253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>4</v>
+      </c>
+      <c r="B1254">
+        <v>14</v>
+      </c>
+      <c r="C1254">
+        <v>3</v>
+      </c>
+      <c r="D1254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>4</v>
+      </c>
+      <c r="B1255">
+        <v>14</v>
+      </c>
+      <c r="C1255">
+        <v>5</v>
+      </c>
+      <c r="D1255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>3</v>
+      </c>
+      <c r="B1256">
+        <v>4</v>
+      </c>
+      <c r="C1256">
+        <v>5</v>
+      </c>
+      <c r="D1256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>9</v>
+      </c>
+      <c r="B1257">
+        <v>8</v>
+      </c>
+      <c r="C1257">
+        <v>4</v>
+      </c>
+      <c r="D1257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>2</v>
+      </c>
+      <c r="B1258">
+        <v>13</v>
+      </c>
+      <c r="C1258">
+        <v>4</v>
+      </c>
+      <c r="D1258">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>5</v>
+      </c>
+      <c r="B1259">
+        <v>14</v>
+      </c>
+      <c r="C1259">
+        <v>6</v>
+      </c>
+      <c r="D1259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>2</v>
+      </c>
+      <c r="B1260">
+        <v>4</v>
+      </c>
+      <c r="C1260">
+        <v>4</v>
+      </c>
+      <c r="D1260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>4</v>
+      </c>
+      <c r="B1261">
+        <v>8</v>
+      </c>
+      <c r="C1261">
+        <v>5</v>
+      </c>
+      <c r="D1261">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>2</v>
+      </c>
+      <c r="B1262">
+        <v>13</v>
+      </c>
+      <c r="C1262">
+        <v>3</v>
+      </c>
+      <c r="D1262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>8</v>
+      </c>
+      <c r="B1263">
+        <v>6</v>
+      </c>
+      <c r="C1263">
+        <v>6</v>
+      </c>
+      <c r="D1263">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>5</v>
+      </c>
+      <c r="B1264">
+        <v>17</v>
+      </c>
+      <c r="C1264">
+        <v>6</v>
+      </c>
+      <c r="D1264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>4</v>
+      </c>
+      <c r="B1265">
+        <v>16</v>
+      </c>
+      <c r="C1265">
+        <v>3</v>
+      </c>
+      <c r="D1265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>6</v>
+      </c>
+      <c r="B1266">
+        <v>13</v>
+      </c>
+      <c r="C1266">
+        <v>4</v>
+      </c>
+      <c r="D1266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>3</v>
+      </c>
+      <c r="B1267">
+        <v>18</v>
+      </c>
+      <c r="C1267">
+        <v>4</v>
+      </c>
+      <c r="D1267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>4</v>
+      </c>
+      <c r="B1268">
+        <v>4</v>
+      </c>
+      <c r="C1268">
+        <v>2</v>
+      </c>
+      <c r="D1268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>7</v>
+      </c>
+      <c r="B1269">
+        <v>8</v>
+      </c>
+      <c r="C1269">
+        <v>2</v>
+      </c>
+      <c r="D1269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>4</v>
+      </c>
+      <c r="B1270">
+        <v>5</v>
+      </c>
+      <c r="C1270">
+        <v>3</v>
+      </c>
+      <c r="D1270">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>4</v>
+      </c>
+      <c r="B1271">
+        <v>1</v>
+      </c>
+      <c r="C1271">
+        <v>3</v>
+      </c>
+      <c r="D1271">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>4</v>
+      </c>
+      <c r="B1272">
+        <v>6</v>
+      </c>
+      <c r="C1272">
+        <v>2</v>
+      </c>
+      <c r="D1272">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>4</v>
+      </c>
+      <c r="B1273">
+        <v>7</v>
+      </c>
+      <c r="C1273">
+        <v>5</v>
+      </c>
+      <c r="D1273">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143432DF-6A1E-434D-90CD-81719AE642F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A280BC9A-8AE5-4CBE-A0C2-A78690ECE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1273"/>
+  <dimension ref="A1:D1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1265" workbookViewId="0">
-      <selection activeCell="E1273" sqref="E1273"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="A1305" sqref="A1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18195,6 +18195,440 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>3</v>
+      </c>
+      <c r="B1274">
+        <v>12</v>
+      </c>
+      <c r="C1274">
+        <v>4</v>
+      </c>
+      <c r="D1274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>6</v>
+      </c>
+      <c r="B1275">
+        <v>8</v>
+      </c>
+      <c r="C1275">
+        <v>4</v>
+      </c>
+      <c r="D1275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>3</v>
+      </c>
+      <c r="B1276">
+        <v>8</v>
+      </c>
+      <c r="C1276">
+        <v>5</v>
+      </c>
+      <c r="D1276">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>4</v>
+      </c>
+      <c r="B1277">
+        <v>13</v>
+      </c>
+      <c r="C1277">
+        <v>5</v>
+      </c>
+      <c r="D1277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>4</v>
+      </c>
+      <c r="B1278">
+        <v>12</v>
+      </c>
+      <c r="C1278">
+        <v>5</v>
+      </c>
+      <c r="D1278">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>3</v>
+      </c>
+      <c r="B1279">
+        <v>12</v>
+      </c>
+      <c r="C1279">
+        <v>4</v>
+      </c>
+      <c r="D1279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>3</v>
+      </c>
+      <c r="B1280">
+        <v>4</v>
+      </c>
+      <c r="C1280">
+        <v>4</v>
+      </c>
+      <c r="D1280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>5</v>
+      </c>
+      <c r="B1281">
+        <v>8</v>
+      </c>
+      <c r="C1281">
+        <v>4</v>
+      </c>
+      <c r="D1281">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>5</v>
+      </c>
+      <c r="B1282">
+        <v>13</v>
+      </c>
+      <c r="C1282">
+        <v>6</v>
+      </c>
+      <c r="D1282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>4</v>
+      </c>
+      <c r="B1283">
+        <v>5</v>
+      </c>
+      <c r="C1283">
+        <v>7</v>
+      </c>
+      <c r="D1283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>5</v>
+      </c>
+      <c r="B1284">
+        <v>2</v>
+      </c>
+      <c r="C1284">
+        <v>7</v>
+      </c>
+      <c r="D1284">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>4</v>
+      </c>
+      <c r="B1285">
+        <v>6</v>
+      </c>
+      <c r="C1285">
+        <v>5</v>
+      </c>
+      <c r="D1285">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>3</v>
+      </c>
+      <c r="B1286">
+        <v>15</v>
+      </c>
+      <c r="C1286">
+        <v>4</v>
+      </c>
+      <c r="D1286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>1</v>
+      </c>
+      <c r="B1287">
+        <v>4</v>
+      </c>
+      <c r="C1287">
+        <v>2</v>
+      </c>
+      <c r="D1287">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>6</v>
+      </c>
+      <c r="B1288">
+        <v>6</v>
+      </c>
+      <c r="C1288">
+        <v>4</v>
+      </c>
+      <c r="D1288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>4</v>
+      </c>
+      <c r="B1289">
+        <v>12</v>
+      </c>
+      <c r="C1289">
+        <v>3</v>
+      </c>
+      <c r="D1289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>2</v>
+      </c>
+      <c r="B1290">
+        <v>12</v>
+      </c>
+      <c r="C1290">
+        <v>3</v>
+      </c>
+      <c r="D1290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>3</v>
+      </c>
+      <c r="B1291">
+        <v>5</v>
+      </c>
+      <c r="C1291">
+        <v>4</v>
+      </c>
+      <c r="D1291">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>4</v>
+      </c>
+      <c r="B1292">
+        <v>18</v>
+      </c>
+      <c r="C1292">
+        <v>5</v>
+      </c>
+      <c r="D1292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>5</v>
+      </c>
+      <c r="B1293">
+        <v>17</v>
+      </c>
+      <c r="C1293">
+        <v>2</v>
+      </c>
+      <c r="D1293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>6</v>
+      </c>
+      <c r="B1294">
+        <v>12</v>
+      </c>
+      <c r="C1294">
+        <v>4</v>
+      </c>
+      <c r="D1294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>7</v>
+      </c>
+      <c r="B1295">
+        <v>14</v>
+      </c>
+      <c r="C1295">
+        <v>5</v>
+      </c>
+      <c r="D1295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>2</v>
+      </c>
+      <c r="B1296">
+        <v>15</v>
+      </c>
+      <c r="C1296">
+        <v>3</v>
+      </c>
+      <c r="D1296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>4</v>
+      </c>
+      <c r="B1297">
+        <v>8</v>
+      </c>
+      <c r="C1297">
+        <v>5</v>
+      </c>
+      <c r="D1297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>1</v>
+      </c>
+      <c r="B1298">
+        <v>16</v>
+      </c>
+      <c r="C1298">
+        <v>4</v>
+      </c>
+      <c r="D1298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>1</v>
+      </c>
+      <c r="B1299">
+        <v>16</v>
+      </c>
+      <c r="C1299">
+        <v>2</v>
+      </c>
+      <c r="D1299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>3</v>
+      </c>
+      <c r="B1300">
+        <v>14</v>
+      </c>
+      <c r="C1300">
+        <v>4</v>
+      </c>
+      <c r="D1300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>2</v>
+      </c>
+      <c r="B1301">
+        <v>8</v>
+      </c>
+      <c r="C1301">
+        <v>3</v>
+      </c>
+      <c r="D1301">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>5</v>
+      </c>
+      <c r="B1302">
+        <v>12</v>
+      </c>
+      <c r="C1302">
+        <v>7</v>
+      </c>
+      <c r="D1302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>3</v>
+      </c>
+      <c r="B1303">
+        <v>12</v>
+      </c>
+      <c r="C1303">
+        <v>2</v>
+      </c>
+      <c r="D1303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>2</v>
+      </c>
+      <c r="B1304">
+        <v>14</v>
+      </c>
+      <c r="C1304">
+        <v>4</v>
+      </c>
+      <c r="D1304">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A280BC9A-8AE5-4CBE-A0C2-A78690ECE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925772A-B93E-477A-907D-88AB125C6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1304"/>
+  <dimension ref="A1:D1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="A1305" sqref="A1305"/>
+    <sheetView tabSelected="1" topLeftCell="A1319" workbookViewId="0">
+      <selection activeCell="A1338" sqref="A1338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18629,6 +18629,468 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>6</v>
+      </c>
+      <c r="B1305">
+        <v>16</v>
+      </c>
+      <c r="C1305">
+        <v>7</v>
+      </c>
+      <c r="D1305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>3</v>
+      </c>
+      <c r="B1306">
+        <v>12</v>
+      </c>
+      <c r="C1306">
+        <v>4</v>
+      </c>
+      <c r="D1306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>6</v>
+      </c>
+      <c r="B1307">
+        <v>13</v>
+      </c>
+      <c r="C1307">
+        <v>5</v>
+      </c>
+      <c r="D1307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>5</v>
+      </c>
+      <c r="B1308">
+        <v>7</v>
+      </c>
+      <c r="C1308">
+        <v>4</v>
+      </c>
+      <c r="D1308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>4</v>
+      </c>
+      <c r="B1309">
+        <v>12</v>
+      </c>
+      <c r="C1309">
+        <v>1</v>
+      </c>
+      <c r="D1309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>4</v>
+      </c>
+      <c r="B1310">
+        <v>6</v>
+      </c>
+      <c r="C1310">
+        <v>3</v>
+      </c>
+      <c r="D1310">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>4</v>
+      </c>
+      <c r="B1311">
+        <v>3</v>
+      </c>
+      <c r="C1311">
+        <v>3</v>
+      </c>
+      <c r="D1311">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>5</v>
+      </c>
+      <c r="B1312">
+        <v>7</v>
+      </c>
+      <c r="C1312">
+        <v>2</v>
+      </c>
+      <c r="D1312">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>5</v>
+      </c>
+      <c r="B1313">
+        <v>12</v>
+      </c>
+      <c r="C1313">
+        <v>3</v>
+      </c>
+      <c r="D1313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>5</v>
+      </c>
+      <c r="B1314">
+        <v>2</v>
+      </c>
+      <c r="C1314">
+        <v>3</v>
+      </c>
+      <c r="D1314">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>4</v>
+      </c>
+      <c r="B1315">
+        <v>17</v>
+      </c>
+      <c r="C1315">
+        <v>2</v>
+      </c>
+      <c r="D1315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>6</v>
+      </c>
+      <c r="B1316">
+        <v>13</v>
+      </c>
+      <c r="C1316">
+        <v>9</v>
+      </c>
+      <c r="D1316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>3</v>
+      </c>
+      <c r="B1317">
+        <v>14</v>
+      </c>
+      <c r="C1317">
+        <v>2</v>
+      </c>
+      <c r="D1317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>5</v>
+      </c>
+      <c r="B1318">
+        <v>3</v>
+      </c>
+      <c r="C1318">
+        <v>4</v>
+      </c>
+      <c r="D1318">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>4</v>
+      </c>
+      <c r="B1319">
+        <v>4</v>
+      </c>
+      <c r="C1319">
+        <v>3</v>
+      </c>
+      <c r="D1319">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>5</v>
+      </c>
+      <c r="B1320">
+        <v>8</v>
+      </c>
+      <c r="C1320">
+        <v>4</v>
+      </c>
+      <c r="D1320">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>4</v>
+      </c>
+      <c r="B1321">
+        <v>14</v>
+      </c>
+      <c r="C1321">
+        <v>5</v>
+      </c>
+      <c r="D1321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>4</v>
+      </c>
+      <c r="B1322">
+        <v>13</v>
+      </c>
+      <c r="C1322">
+        <v>5</v>
+      </c>
+      <c r="D1322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>5</v>
+      </c>
+      <c r="B1323">
+        <v>2</v>
+      </c>
+      <c r="C1323">
+        <v>7</v>
+      </c>
+      <c r="D1323">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>4</v>
+      </c>
+      <c r="B1324">
+        <v>8</v>
+      </c>
+      <c r="C1324">
+        <v>3</v>
+      </c>
+      <c r="D1324">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>5</v>
+      </c>
+      <c r="B1325">
+        <v>7</v>
+      </c>
+      <c r="C1325">
+        <v>3</v>
+      </c>
+      <c r="D1325">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>2</v>
+      </c>
+      <c r="B1326">
+        <v>7</v>
+      </c>
+      <c r="C1326">
+        <v>4</v>
+      </c>
+      <c r="D1326">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>3</v>
+      </c>
+      <c r="B1327">
+        <v>16</v>
+      </c>
+      <c r="C1327">
+        <v>4</v>
+      </c>
+      <c r="D1327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>3</v>
+      </c>
+      <c r="B1328">
+        <v>8</v>
+      </c>
+      <c r="C1328">
+        <v>5</v>
+      </c>
+      <c r="D1328">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>4</v>
+      </c>
+      <c r="B1329">
+        <v>4</v>
+      </c>
+      <c r="C1329">
+        <v>2</v>
+      </c>
+      <c r="D1329">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>4</v>
+      </c>
+      <c r="B1330">
+        <v>12</v>
+      </c>
+      <c r="C1330">
+        <v>5</v>
+      </c>
+      <c r="D1330">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>2</v>
+      </c>
+      <c r="B1331">
+        <v>13</v>
+      </c>
+      <c r="C1331">
+        <v>5</v>
+      </c>
+      <c r="D1331">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>3</v>
+      </c>
+      <c r="B1332">
+        <v>13</v>
+      </c>
+      <c r="C1332">
+        <v>2</v>
+      </c>
+      <c r="D1332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>3</v>
+      </c>
+      <c r="B1333">
+        <v>13</v>
+      </c>
+      <c r="C1333">
+        <v>4</v>
+      </c>
+      <c r="D1333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>4</v>
+      </c>
+      <c r="B1334">
+        <v>15</v>
+      </c>
+      <c r="C1334">
+        <v>8</v>
+      </c>
+      <c r="D1334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>4</v>
+      </c>
+      <c r="B1335">
+        <v>14</v>
+      </c>
+      <c r="C1335">
+        <v>7</v>
+      </c>
+      <c r="D1335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>6</v>
+      </c>
+      <c r="B1336">
+        <v>7</v>
+      </c>
+      <c r="C1336">
+        <v>5</v>
+      </c>
+      <c r="D1336">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>5</v>
+      </c>
+      <c r="B1337">
+        <v>8</v>
+      </c>
+      <c r="C1337">
+        <v>4</v>
+      </c>
+      <c r="D1337">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925772A-B93E-477A-907D-88AB125C6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6D5E2-351E-48A1-AE8B-D8592E3E941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1337"/>
+  <dimension ref="A1:D1354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1319" workbookViewId="0">
-      <selection activeCell="A1338" sqref="A1338"/>
+    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
+      <selection activeCell="A1355" sqref="A1355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19091,6 +19091,244 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>3</v>
+      </c>
+      <c r="B1338">
+        <v>13</v>
+      </c>
+      <c r="C1338">
+        <v>2</v>
+      </c>
+      <c r="D1338">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>3</v>
+      </c>
+      <c r="B1339">
+        <v>8</v>
+      </c>
+      <c r="C1339">
+        <v>4</v>
+      </c>
+      <c r="D1339">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>7</v>
+      </c>
+      <c r="B1340">
+        <v>13</v>
+      </c>
+      <c r="C1340">
+        <v>6</v>
+      </c>
+      <c r="D1340">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>5</v>
+      </c>
+      <c r="B1341">
+        <v>2</v>
+      </c>
+      <c r="C1341">
+        <v>4</v>
+      </c>
+      <c r="D1341">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>4</v>
+      </c>
+      <c r="B1342">
+        <v>7</v>
+      </c>
+      <c r="C1342">
+        <v>3</v>
+      </c>
+      <c r="D1342">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>6</v>
+      </c>
+      <c r="B1343">
+        <v>8</v>
+      </c>
+      <c r="C1343">
+        <v>4</v>
+      </c>
+      <c r="D1343">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>5</v>
+      </c>
+      <c r="B1344">
+        <v>16</v>
+      </c>
+      <c r="C1344">
+        <v>3</v>
+      </c>
+      <c r="D1344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>4</v>
+      </c>
+      <c r="B1345">
+        <v>13</v>
+      </c>
+      <c r="C1345">
+        <v>7</v>
+      </c>
+      <c r="D1345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>2</v>
+      </c>
+      <c r="B1346">
+        <v>13</v>
+      </c>
+      <c r="C1346">
+        <v>4</v>
+      </c>
+      <c r="D1346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>6</v>
+      </c>
+      <c r="B1347">
+        <v>5</v>
+      </c>
+      <c r="C1347">
+        <v>4</v>
+      </c>
+      <c r="D1347">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>4</v>
+      </c>
+      <c r="B1348">
+        <v>13</v>
+      </c>
+      <c r="C1348">
+        <v>5</v>
+      </c>
+      <c r="D1348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>7</v>
+      </c>
+      <c r="B1349">
+        <v>16</v>
+      </c>
+      <c r="C1349">
+        <v>2</v>
+      </c>
+      <c r="D1349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>4</v>
+      </c>
+      <c r="B1350">
+        <v>4</v>
+      </c>
+      <c r="C1350">
+        <v>5</v>
+      </c>
+      <c r="D1350">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>3</v>
+      </c>
+      <c r="B1351">
+        <v>7</v>
+      </c>
+      <c r="C1351">
+        <v>4</v>
+      </c>
+      <c r="D1351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>7</v>
+      </c>
+      <c r="B1352">
+        <v>12</v>
+      </c>
+      <c r="C1352">
+        <v>6</v>
+      </c>
+      <c r="D1352">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>4</v>
+      </c>
+      <c r="B1353">
+        <v>6</v>
+      </c>
+      <c r="C1353">
+        <v>3</v>
+      </c>
+      <c r="D1353">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>5</v>
+      </c>
+      <c r="B1354">
+        <v>19</v>
+      </c>
+      <c r="C1354">
+        <v>3</v>
+      </c>
+      <c r="D1354">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6D5E2-351E-48A1-AE8B-D8592E3E941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492064CE-4B40-4BA1-8228-EBB56636880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1354"/>
+  <dimension ref="A1:D1369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
-      <selection activeCell="A1355" sqref="A1355"/>
+    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
+      <selection activeCell="A1370" sqref="A1370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19329,6 +19329,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>5</v>
+      </c>
+      <c r="B1355">
+        <v>17</v>
+      </c>
+      <c r="C1355">
+        <v>7</v>
+      </c>
+      <c r="D1355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>2</v>
+      </c>
+      <c r="B1356">
+        <v>13</v>
+      </c>
+      <c r="C1356">
+        <v>6</v>
+      </c>
+      <c r="D1356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>4</v>
+      </c>
+      <c r="B1357">
+        <v>14</v>
+      </c>
+      <c r="C1357">
+        <v>6</v>
+      </c>
+      <c r="D1357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>3</v>
+      </c>
+      <c r="B1358">
+        <v>5</v>
+      </c>
+      <c r="C1358">
+        <v>5</v>
+      </c>
+      <c r="D1358">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>4</v>
+      </c>
+      <c r="B1359">
+        <v>12</v>
+      </c>
+      <c r="C1359">
+        <v>2</v>
+      </c>
+      <c r="D1359">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>4</v>
+      </c>
+      <c r="B1360">
+        <v>8</v>
+      </c>
+      <c r="C1360">
+        <v>5</v>
+      </c>
+      <c r="D1360">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>6</v>
+      </c>
+      <c r="B1361">
+        <v>13</v>
+      </c>
+      <c r="C1361">
+        <v>5</v>
+      </c>
+      <c r="D1361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>2</v>
+      </c>
+      <c r="B1362">
+        <v>2</v>
+      </c>
+      <c r="C1362">
+        <v>3</v>
+      </c>
+      <c r="D1362">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>5</v>
+      </c>
+      <c r="B1363">
+        <v>12</v>
+      </c>
+      <c r="C1363">
+        <v>4</v>
+      </c>
+      <c r="D1363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>6</v>
+      </c>
+      <c r="B1364">
+        <v>17</v>
+      </c>
+      <c r="C1364">
+        <v>2</v>
+      </c>
+      <c r="D1364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>4</v>
+      </c>
+      <c r="B1365">
+        <v>14</v>
+      </c>
+      <c r="C1365">
+        <v>3</v>
+      </c>
+      <c r="D1365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>1</v>
+      </c>
+      <c r="B1366">
+        <v>8</v>
+      </c>
+      <c r="C1366">
+        <v>7</v>
+      </c>
+      <c r="D1366">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>5</v>
+      </c>
+      <c r="B1367">
+        <v>14</v>
+      </c>
+      <c r="C1367">
+        <v>4</v>
+      </c>
+      <c r="D1367">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>4</v>
+      </c>
+      <c r="B1368">
+        <v>12</v>
+      </c>
+      <c r="C1368">
+        <v>3</v>
+      </c>
+      <c r="D1368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>6</v>
+      </c>
+      <c r="B1369">
+        <v>12</v>
+      </c>
+      <c r="C1369">
+        <v>7</v>
+      </c>
+      <c r="D1369">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492064CE-4B40-4BA1-8228-EBB56636880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F311006-6BDA-4096-AA86-B3DA805F197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1369"/>
+  <dimension ref="A1:D1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
-      <selection activeCell="A1370" sqref="A1370"/>
+    <sheetView tabSelected="1" topLeftCell="A1370" workbookViewId="0">
+      <selection activeCell="A1403" sqref="A1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19539,6 +19539,468 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>8</v>
+      </c>
+      <c r="B1370">
+        <v>13</v>
+      </c>
+      <c r="C1370">
+        <v>5</v>
+      </c>
+      <c r="D1370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>3</v>
+      </c>
+      <c r="B1371">
+        <v>13</v>
+      </c>
+      <c r="C1371">
+        <v>5</v>
+      </c>
+      <c r="D1371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>3</v>
+      </c>
+      <c r="B1372">
+        <v>16</v>
+      </c>
+      <c r="C1372">
+        <v>5</v>
+      </c>
+      <c r="D1372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>5</v>
+      </c>
+      <c r="B1373">
+        <v>12</v>
+      </c>
+      <c r="C1373">
+        <v>4</v>
+      </c>
+      <c r="D1373">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>4</v>
+      </c>
+      <c r="B1374">
+        <v>12</v>
+      </c>
+      <c r="C1374">
+        <v>5</v>
+      </c>
+      <c r="D1374">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>8</v>
+      </c>
+      <c r="B1375">
+        <v>16</v>
+      </c>
+      <c r="C1375">
+        <v>5</v>
+      </c>
+      <c r="D1375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>2</v>
+      </c>
+      <c r="B1376">
+        <v>14</v>
+      </c>
+      <c r="C1376">
+        <v>4</v>
+      </c>
+      <c r="D1376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>3</v>
+      </c>
+      <c r="B1377">
+        <v>12</v>
+      </c>
+      <c r="C1377">
+        <v>2</v>
+      </c>
+      <c r="D1377">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>7</v>
+      </c>
+      <c r="B1378">
+        <v>17</v>
+      </c>
+      <c r="C1378">
+        <v>6</v>
+      </c>
+      <c r="D1378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>3</v>
+      </c>
+      <c r="B1379">
+        <v>5</v>
+      </c>
+      <c r="C1379">
+        <v>7</v>
+      </c>
+      <c r="D1379">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>5</v>
+      </c>
+      <c r="B1380">
+        <v>5</v>
+      </c>
+      <c r="C1380">
+        <v>6</v>
+      </c>
+      <c r="D1380">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>5</v>
+      </c>
+      <c r="B1381">
+        <v>8</v>
+      </c>
+      <c r="C1381">
+        <v>6</v>
+      </c>
+      <c r="D1381">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>6</v>
+      </c>
+      <c r="B1382">
+        <v>5</v>
+      </c>
+      <c r="C1382">
+        <v>4</v>
+      </c>
+      <c r="D1382">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>5</v>
+      </c>
+      <c r="B1383">
+        <v>2</v>
+      </c>
+      <c r="C1383">
+        <v>2</v>
+      </c>
+      <c r="D1383">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>6</v>
+      </c>
+      <c r="B1384">
+        <v>17</v>
+      </c>
+      <c r="C1384">
+        <v>7</v>
+      </c>
+      <c r="D1384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>3</v>
+      </c>
+      <c r="B1385">
+        <v>18</v>
+      </c>
+      <c r="C1385">
+        <v>2</v>
+      </c>
+      <c r="D1385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>4</v>
+      </c>
+      <c r="B1386">
+        <v>2</v>
+      </c>
+      <c r="C1386">
+        <v>2</v>
+      </c>
+      <c r="D1386">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>7</v>
+      </c>
+      <c r="B1387">
+        <v>16</v>
+      </c>
+      <c r="C1387">
+        <v>6</v>
+      </c>
+      <c r="D1387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>4</v>
+      </c>
+      <c r="B1388">
+        <v>5</v>
+      </c>
+      <c r="C1388">
+        <v>3</v>
+      </c>
+      <c r="D1388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>2</v>
+      </c>
+      <c r="B1389">
+        <v>16</v>
+      </c>
+      <c r="C1389">
+        <v>5</v>
+      </c>
+      <c r="D1389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>4</v>
+      </c>
+      <c r="B1390">
+        <v>7</v>
+      </c>
+      <c r="C1390">
+        <v>5</v>
+      </c>
+      <c r="D1390">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>5</v>
+      </c>
+      <c r="B1391">
+        <v>12</v>
+      </c>
+      <c r="C1391">
+        <v>4</v>
+      </c>
+      <c r="D1391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>4</v>
+      </c>
+      <c r="B1392">
+        <v>18</v>
+      </c>
+      <c r="C1392">
+        <v>6</v>
+      </c>
+      <c r="D1392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>4</v>
+      </c>
+      <c r="B1393">
+        <v>6</v>
+      </c>
+      <c r="C1393">
+        <v>3</v>
+      </c>
+      <c r="D1393">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>6</v>
+      </c>
+      <c r="B1394">
+        <v>6</v>
+      </c>
+      <c r="C1394">
+        <v>5</v>
+      </c>
+      <c r="D1394">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>2</v>
+      </c>
+      <c r="B1395">
+        <v>16</v>
+      </c>
+      <c r="C1395">
+        <v>3</v>
+      </c>
+      <c r="D1395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>6</v>
+      </c>
+      <c r="B1396">
+        <v>6</v>
+      </c>
+      <c r="C1396">
+        <v>8</v>
+      </c>
+      <c r="D1396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>4</v>
+      </c>
+      <c r="B1397">
+        <v>1</v>
+      </c>
+      <c r="C1397">
+        <v>5</v>
+      </c>
+      <c r="D1397">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>2</v>
+      </c>
+      <c r="B1398">
+        <v>14</v>
+      </c>
+      <c r="C1398">
+        <v>3</v>
+      </c>
+      <c r="D1398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>4</v>
+      </c>
+      <c r="B1399">
+        <v>7</v>
+      </c>
+      <c r="C1399">
+        <v>3</v>
+      </c>
+      <c r="D1399">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>4</v>
+      </c>
+      <c r="B1400">
+        <v>6</v>
+      </c>
+      <c r="C1400">
+        <v>2</v>
+      </c>
+      <c r="D1400">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>5</v>
+      </c>
+      <c r="B1401">
+        <v>6</v>
+      </c>
+      <c r="C1401">
+        <v>9</v>
+      </c>
+      <c r="D1401">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>3</v>
+      </c>
+      <c r="B1402">
+        <v>7</v>
+      </c>
+      <c r="C1402">
+        <v>1</v>
+      </c>
+      <c r="D1402">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F311006-6BDA-4096-AA86-B3DA805F197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF104819-4B87-49B1-B7CC-0F66F4D60106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1402"/>
+  <dimension ref="A1:D1415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1370" workbookViewId="0">
-      <selection activeCell="A1403" sqref="A1403"/>
+    <sheetView tabSelected="1" topLeftCell="A1400" workbookViewId="0">
+      <selection activeCell="A1416" sqref="A1416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20001,6 +20001,188 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>3</v>
+      </c>
+      <c r="B1403">
+        <v>0</v>
+      </c>
+      <c r="C1403">
+        <v>2</v>
+      </c>
+      <c r="D1403">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>5</v>
+      </c>
+      <c r="B1404">
+        <v>4</v>
+      </c>
+      <c r="C1404">
+        <v>6</v>
+      </c>
+      <c r="D1404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>5</v>
+      </c>
+      <c r="B1405">
+        <v>4</v>
+      </c>
+      <c r="C1405">
+        <v>4</v>
+      </c>
+      <c r="D1405">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>4</v>
+      </c>
+      <c r="B1406">
+        <v>4</v>
+      </c>
+      <c r="C1406">
+        <v>5</v>
+      </c>
+      <c r="D1406">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>4</v>
+      </c>
+      <c r="B1407">
+        <v>7</v>
+      </c>
+      <c r="C1407">
+        <v>3</v>
+      </c>
+      <c r="D1407">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1</v>
+      </c>
+      <c r="B1408">
+        <v>15</v>
+      </c>
+      <c r="C1408">
+        <v>6</v>
+      </c>
+      <c r="D1408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>6</v>
+      </c>
+      <c r="B1409">
+        <v>8</v>
+      </c>
+      <c r="C1409">
+        <v>5</v>
+      </c>
+      <c r="D1409">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>5</v>
+      </c>
+      <c r="B1410">
+        <v>8</v>
+      </c>
+      <c r="C1410">
+        <v>4</v>
+      </c>
+      <c r="D1410">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>2</v>
+      </c>
+      <c r="B1411">
+        <v>16</v>
+      </c>
+      <c r="C1411">
+        <v>5</v>
+      </c>
+      <c r="D1411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>3</v>
+      </c>
+      <c r="B1412">
+        <v>13</v>
+      </c>
+      <c r="C1412">
+        <v>5</v>
+      </c>
+      <c r="D1412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>7</v>
+      </c>
+      <c r="B1413">
+        <v>8</v>
+      </c>
+      <c r="C1413">
+        <v>8</v>
+      </c>
+      <c r="D1413">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>4</v>
+      </c>
+      <c r="B1414">
+        <v>13</v>
+      </c>
+      <c r="C1414">
+        <v>3</v>
+      </c>
+      <c r="D1414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>6</v>
+      </c>
+      <c r="B1415">
+        <v>5</v>
+      </c>
+      <c r="C1415">
+        <v>2</v>
+      </c>
+      <c r="D1415">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF104819-4B87-49B1-B7CC-0F66F4D60106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70261BF-C793-4BEA-B0F4-9E60097BB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1415"/>
+  <dimension ref="A1:D1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1400" workbookViewId="0">
-      <selection activeCell="A1416" sqref="A1416"/>
+    <sheetView tabSelected="1" topLeftCell="A1418" workbookViewId="0">
+      <selection activeCell="A1433" sqref="A1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20183,6 +20183,244 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>6</v>
+      </c>
+      <c r="B1416">
+        <v>8</v>
+      </c>
+      <c r="C1416">
+        <v>7</v>
+      </c>
+      <c r="D1416">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>7</v>
+      </c>
+      <c r="B1417">
+        <v>7</v>
+      </c>
+      <c r="C1417">
+        <v>5</v>
+      </c>
+      <c r="D1417">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>2</v>
+      </c>
+      <c r="B1418">
+        <v>17</v>
+      </c>
+      <c r="C1418">
+        <v>4</v>
+      </c>
+      <c r="D1418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>5</v>
+      </c>
+      <c r="B1419">
+        <v>8</v>
+      </c>
+      <c r="C1419">
+        <v>4</v>
+      </c>
+      <c r="D1419">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1</v>
+      </c>
+      <c r="B1420">
+        <v>14</v>
+      </c>
+      <c r="C1420">
+        <v>3</v>
+      </c>
+      <c r="D1420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>6</v>
+      </c>
+      <c r="B1421">
+        <v>5</v>
+      </c>
+      <c r="C1421">
+        <v>5</v>
+      </c>
+      <c r="D1421">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>3</v>
+      </c>
+      <c r="B1422">
+        <v>5</v>
+      </c>
+      <c r="C1422">
+        <v>5</v>
+      </c>
+      <c r="D1422">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>8</v>
+      </c>
+      <c r="B1423">
+        <v>14</v>
+      </c>
+      <c r="C1423">
+        <v>5</v>
+      </c>
+      <c r="D1423">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>3</v>
+      </c>
+      <c r="B1424">
+        <v>16</v>
+      </c>
+      <c r="C1424">
+        <v>4</v>
+      </c>
+      <c r="D1424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>2</v>
+      </c>
+      <c r="B1425">
+        <v>14</v>
+      </c>
+      <c r="C1425">
+        <v>4</v>
+      </c>
+      <c r="D1425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>3</v>
+      </c>
+      <c r="B1426">
+        <v>4</v>
+      </c>
+      <c r="C1426">
+        <v>2</v>
+      </c>
+      <c r="D1426">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>6</v>
+      </c>
+      <c r="B1427">
+        <v>12</v>
+      </c>
+      <c r="C1427">
+        <v>9</v>
+      </c>
+      <c r="D1427">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>2</v>
+      </c>
+      <c r="B1428">
+        <v>16</v>
+      </c>
+      <c r="C1428">
+        <v>4</v>
+      </c>
+      <c r="D1428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>2</v>
+      </c>
+      <c r="B1429">
+        <v>7</v>
+      </c>
+      <c r="C1429">
+        <v>1</v>
+      </c>
+      <c r="D1429">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>3</v>
+      </c>
+      <c r="B1430">
+        <v>12</v>
+      </c>
+      <c r="C1430">
+        <v>4</v>
+      </c>
+      <c r="D1430">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>5</v>
+      </c>
+      <c r="B1431">
+        <v>16</v>
+      </c>
+      <c r="C1431">
+        <v>6</v>
+      </c>
+      <c r="D1431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>4</v>
+      </c>
+      <c r="B1432">
+        <v>4</v>
+      </c>
+      <c r="C1432">
+        <v>2</v>
+      </c>
+      <c r="D1432">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70261BF-C793-4BEA-B0F4-9E60097BB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6B880-E68D-48AC-BBFA-D03D860E842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1432"/>
+  <dimension ref="A1:D1453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1418" workbookViewId="0">
-      <selection activeCell="A1433" sqref="A1433"/>
+    <sheetView tabSelected="1" topLeftCell="A1439" workbookViewId="0">
+      <selection activeCell="H1444" sqref="H1444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20421,6 +20421,300 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>3</v>
+      </c>
+      <c r="B1433">
+        <v>12</v>
+      </c>
+      <c r="C1433">
+        <v>2</v>
+      </c>
+      <c r="D1433">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>5</v>
+      </c>
+      <c r="B1434">
+        <v>6</v>
+      </c>
+      <c r="C1434">
+        <v>6</v>
+      </c>
+      <c r="D1434">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>2</v>
+      </c>
+      <c r="B1435">
+        <v>13</v>
+      </c>
+      <c r="C1435">
+        <v>4</v>
+      </c>
+      <c r="D1435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>5</v>
+      </c>
+      <c r="B1436">
+        <v>6</v>
+      </c>
+      <c r="C1436">
+        <v>2</v>
+      </c>
+      <c r="D1436">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>2</v>
+      </c>
+      <c r="B1437">
+        <v>16</v>
+      </c>
+      <c r="C1437">
+        <v>4</v>
+      </c>
+      <c r="D1437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>2</v>
+      </c>
+      <c r="B1438">
+        <v>14</v>
+      </c>
+      <c r="C1438">
+        <v>4</v>
+      </c>
+      <c r="D1438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>4</v>
+      </c>
+      <c r="B1439">
+        <v>14</v>
+      </c>
+      <c r="C1439">
+        <v>5</v>
+      </c>
+      <c r="D1439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>5</v>
+      </c>
+      <c r="B1440">
+        <v>14</v>
+      </c>
+      <c r="C1440">
+        <v>4</v>
+      </c>
+      <c r="D1440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>9</v>
+      </c>
+      <c r="B1441">
+        <v>17</v>
+      </c>
+      <c r="C1441">
+        <v>2</v>
+      </c>
+      <c r="D1441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>2</v>
+      </c>
+      <c r="B1442">
+        <v>18</v>
+      </c>
+      <c r="C1442">
+        <v>3</v>
+      </c>
+      <c r="D1442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>4</v>
+      </c>
+      <c r="B1443">
+        <v>6</v>
+      </c>
+      <c r="C1443">
+        <v>5</v>
+      </c>
+      <c r="D1443">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>4</v>
+      </c>
+      <c r="B1444">
+        <v>19</v>
+      </c>
+      <c r="C1444">
+        <v>3</v>
+      </c>
+      <c r="D1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>7</v>
+      </c>
+      <c r="B1445">
+        <v>5</v>
+      </c>
+      <c r="C1445">
+        <v>8</v>
+      </c>
+      <c r="D1445">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>2</v>
+      </c>
+      <c r="B1446">
+        <v>13</v>
+      </c>
+      <c r="C1446">
+        <v>3</v>
+      </c>
+      <c r="D1446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>5</v>
+      </c>
+      <c r="B1447">
+        <v>15</v>
+      </c>
+      <c r="C1447">
+        <v>3</v>
+      </c>
+      <c r="D1447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>3</v>
+      </c>
+      <c r="B1448">
+        <v>16</v>
+      </c>
+      <c r="C1448">
+        <v>4</v>
+      </c>
+      <c r="D1448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>6</v>
+      </c>
+      <c r="B1449">
+        <v>17</v>
+      </c>
+      <c r="C1449">
+        <v>7</v>
+      </c>
+      <c r="D1449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>4</v>
+      </c>
+      <c r="B1450">
+        <v>13</v>
+      </c>
+      <c r="C1450">
+        <v>2</v>
+      </c>
+      <c r="D1450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>5</v>
+      </c>
+      <c r="B1451">
+        <v>19</v>
+      </c>
+      <c r="C1451">
+        <v>6</v>
+      </c>
+      <c r="D1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>4</v>
+      </c>
+      <c r="B1452">
+        <v>13</v>
+      </c>
+      <c r="C1452">
+        <v>7</v>
+      </c>
+      <c r="D1452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>5</v>
+      </c>
+      <c r="B1453">
+        <v>6</v>
+      </c>
+      <c r="C1453">
+        <v>3</v>
+      </c>
+      <c r="D1453">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6B880-E68D-48AC-BBFA-D03D860E842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC62CF7-8C5A-452C-948A-DCD4D0C03484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1453"/>
+  <dimension ref="A1:D1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1439" workbookViewId="0">
-      <selection activeCell="H1444" sqref="H1444"/>
+    <sheetView tabSelected="1" topLeftCell="A1463" workbookViewId="0">
+      <selection activeCell="A1472" sqref="A1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20715,6 +20715,258 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>7</v>
+      </c>
+      <c r="B1454">
+        <v>15</v>
+      </c>
+      <c r="C1454">
+        <v>6</v>
+      </c>
+      <c r="D1454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>3</v>
+      </c>
+      <c r="B1455">
+        <v>8</v>
+      </c>
+      <c r="C1455">
+        <v>2</v>
+      </c>
+      <c r="D1455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>5</v>
+      </c>
+      <c r="B1456">
+        <v>13</v>
+      </c>
+      <c r="C1456">
+        <v>3</v>
+      </c>
+      <c r="D1456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>4</v>
+      </c>
+      <c r="B1457">
+        <v>8</v>
+      </c>
+      <c r="C1457">
+        <v>7</v>
+      </c>
+      <c r="D1457">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>4</v>
+      </c>
+      <c r="B1458">
+        <v>12</v>
+      </c>
+      <c r="C1458">
+        <v>5</v>
+      </c>
+      <c r="D1458">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>9</v>
+      </c>
+      <c r="B1459">
+        <v>14</v>
+      </c>
+      <c r="C1459">
+        <v>7</v>
+      </c>
+      <c r="D1459">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>4</v>
+      </c>
+      <c r="B1460">
+        <v>16</v>
+      </c>
+      <c r="C1460">
+        <v>5</v>
+      </c>
+      <c r="D1460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>4</v>
+      </c>
+      <c r="B1461">
+        <v>13</v>
+      </c>
+      <c r="C1461">
+        <v>3</v>
+      </c>
+      <c r="D1461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>5</v>
+      </c>
+      <c r="B1462">
+        <v>12</v>
+      </c>
+      <c r="C1462">
+        <v>6</v>
+      </c>
+      <c r="D1462">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>4</v>
+      </c>
+      <c r="B1463">
+        <v>5</v>
+      </c>
+      <c r="C1463">
+        <v>2</v>
+      </c>
+      <c r="D1463">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>4</v>
+      </c>
+      <c r="B1464">
+        <v>12</v>
+      </c>
+      <c r="C1464">
+        <v>3</v>
+      </c>
+      <c r="D1464">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>2</v>
+      </c>
+      <c r="B1465">
+        <v>12</v>
+      </c>
+      <c r="C1465">
+        <v>1</v>
+      </c>
+      <c r="D1465">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>3</v>
+      </c>
+      <c r="B1466">
+        <v>14</v>
+      </c>
+      <c r="C1466">
+        <v>5</v>
+      </c>
+      <c r="D1466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>9</v>
+      </c>
+      <c r="B1467">
+        <v>3</v>
+      </c>
+      <c r="C1467">
+        <v>8</v>
+      </c>
+      <c r="D1467">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>5</v>
+      </c>
+      <c r="B1468">
+        <v>14</v>
+      </c>
+      <c r="C1468">
+        <v>6</v>
+      </c>
+      <c r="D1468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>6</v>
+      </c>
+      <c r="B1469">
+        <v>19</v>
+      </c>
+      <c r="C1469">
+        <v>5</v>
+      </c>
+      <c r="D1469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>7</v>
+      </c>
+      <c r="B1470">
+        <v>8</v>
+      </c>
+      <c r="C1470">
+        <v>6</v>
+      </c>
+      <c r="D1470">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>2</v>
+      </c>
+      <c r="B1471">
+        <v>14</v>
+      </c>
+      <c r="C1471">
+        <v>3</v>
+      </c>
+      <c r="D1471">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC62CF7-8C5A-452C-948A-DCD4D0C03484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861ADA0D-7C8D-4405-90AE-63EF72F7310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1471"/>
+  <dimension ref="A1:D1507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1463" workbookViewId="0">
-      <selection activeCell="A1472" sqref="A1472"/>
+    <sheetView tabSelected="1" topLeftCell="A1484" workbookViewId="0">
+      <selection activeCell="A1508" sqref="A1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20967,6 +20967,510 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>3</v>
+      </c>
+      <c r="B1472">
+        <v>5</v>
+      </c>
+      <c r="C1472">
+        <v>2</v>
+      </c>
+      <c r="D1472">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>8</v>
+      </c>
+      <c r="B1473">
+        <v>14</v>
+      </c>
+      <c r="C1473">
+        <v>5</v>
+      </c>
+      <c r="D1473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>4</v>
+      </c>
+      <c r="B1474">
+        <v>8</v>
+      </c>
+      <c r="C1474">
+        <v>3</v>
+      </c>
+      <c r="D1474">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1</v>
+      </c>
+      <c r="B1475">
+        <v>7</v>
+      </c>
+      <c r="C1475">
+        <v>2</v>
+      </c>
+      <c r="D1475">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>6</v>
+      </c>
+      <c r="B1476">
+        <v>4</v>
+      </c>
+      <c r="C1476">
+        <v>8</v>
+      </c>
+      <c r="D1476">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>5</v>
+      </c>
+      <c r="B1477">
+        <v>8</v>
+      </c>
+      <c r="C1477">
+        <v>6</v>
+      </c>
+      <c r="D1477">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>5</v>
+      </c>
+      <c r="B1478">
+        <v>7</v>
+      </c>
+      <c r="C1478">
+        <v>2</v>
+      </c>
+      <c r="D1478">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>3</v>
+      </c>
+      <c r="B1479">
+        <v>19</v>
+      </c>
+      <c r="C1479">
+        <v>4</v>
+      </c>
+      <c r="D1479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>5</v>
+      </c>
+      <c r="B1480">
+        <v>7</v>
+      </c>
+      <c r="C1480">
+        <v>7</v>
+      </c>
+      <c r="D1480">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1</v>
+      </c>
+      <c r="B1481">
+        <v>14</v>
+      </c>
+      <c r="C1481">
+        <v>2</v>
+      </c>
+      <c r="D1481">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>6</v>
+      </c>
+      <c r="B1482">
+        <v>6</v>
+      </c>
+      <c r="C1482">
+        <v>4</v>
+      </c>
+      <c r="D1482">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>2</v>
+      </c>
+      <c r="B1483">
+        <v>16</v>
+      </c>
+      <c r="C1483">
+        <v>3</v>
+      </c>
+      <c r="D1483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>6</v>
+      </c>
+      <c r="B1484">
+        <v>8</v>
+      </c>
+      <c r="C1484">
+        <v>5</v>
+      </c>
+      <c r="D1484">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>4</v>
+      </c>
+      <c r="B1485">
+        <v>15</v>
+      </c>
+      <c r="C1485">
+        <v>5</v>
+      </c>
+      <c r="D1485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>4</v>
+      </c>
+      <c r="B1486">
+        <v>8</v>
+      </c>
+      <c r="C1486">
+        <v>3</v>
+      </c>
+      <c r="D1486">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>5</v>
+      </c>
+      <c r="B1487">
+        <v>4</v>
+      </c>
+      <c r="C1487">
+        <v>6</v>
+      </c>
+      <c r="D1487">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>5</v>
+      </c>
+      <c r="B1488">
+        <v>3</v>
+      </c>
+      <c r="C1488">
+        <v>6</v>
+      </c>
+      <c r="D1488">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>6</v>
+      </c>
+      <c r="B1489">
+        <v>5</v>
+      </c>
+      <c r="C1489">
+        <v>8</v>
+      </c>
+      <c r="D1489">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>4</v>
+      </c>
+      <c r="B1490">
+        <v>15</v>
+      </c>
+      <c r="C1490">
+        <v>5</v>
+      </c>
+      <c r="D1490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>2</v>
+      </c>
+      <c r="B1491">
+        <v>16</v>
+      </c>
+      <c r="C1491">
+        <v>1</v>
+      </c>
+      <c r="D1491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>3</v>
+      </c>
+      <c r="B1492">
+        <v>6</v>
+      </c>
+      <c r="C1492">
+        <v>2</v>
+      </c>
+      <c r="D1492">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>4</v>
+      </c>
+      <c r="B1493">
+        <v>6</v>
+      </c>
+      <c r="C1493">
+        <v>7</v>
+      </c>
+      <c r="D1493">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>4</v>
+      </c>
+      <c r="B1494">
+        <v>5</v>
+      </c>
+      <c r="C1494">
+        <v>5</v>
+      </c>
+      <c r="D1494">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>3</v>
+      </c>
+      <c r="B1495">
+        <v>2</v>
+      </c>
+      <c r="C1495">
+        <v>4</v>
+      </c>
+      <c r="D1495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>3</v>
+      </c>
+      <c r="B1496">
+        <v>14</v>
+      </c>
+      <c r="C1496">
+        <v>5</v>
+      </c>
+      <c r="D1496">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>6</v>
+      </c>
+      <c r="B1497">
+        <v>12</v>
+      </c>
+      <c r="C1497">
+        <v>5</v>
+      </c>
+      <c r="D1497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>4</v>
+      </c>
+      <c r="B1498">
+        <v>8</v>
+      </c>
+      <c r="C1498">
+        <v>2</v>
+      </c>
+      <c r="D1498">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>6</v>
+      </c>
+      <c r="B1499">
+        <v>6</v>
+      </c>
+      <c r="C1499">
+        <v>5</v>
+      </c>
+      <c r="D1499">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>4</v>
+      </c>
+      <c r="B1500">
+        <v>5</v>
+      </c>
+      <c r="C1500">
+        <v>3</v>
+      </c>
+      <c r="D1500">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>2</v>
+      </c>
+      <c r="B1501">
+        <v>8</v>
+      </c>
+      <c r="C1501">
+        <v>3</v>
+      </c>
+      <c r="D1501">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>6</v>
+      </c>
+      <c r="B1502">
+        <v>3</v>
+      </c>
+      <c r="C1502">
+        <v>5</v>
+      </c>
+      <c r="D1502">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>4</v>
+      </c>
+      <c r="B1503">
+        <v>14</v>
+      </c>
+      <c r="C1503">
+        <v>7</v>
+      </c>
+      <c r="D1503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>6</v>
+      </c>
+      <c r="B1504">
+        <v>6</v>
+      </c>
+      <c r="C1504">
+        <v>4</v>
+      </c>
+      <c r="D1504">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>6</v>
+      </c>
+      <c r="B1505">
+        <v>8</v>
+      </c>
+      <c r="C1505">
+        <v>4</v>
+      </c>
+      <c r="D1505">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>4</v>
+      </c>
+      <c r="B1506">
+        <v>16</v>
+      </c>
+      <c r="C1506">
+        <v>5</v>
+      </c>
+      <c r="D1506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>2</v>
+      </c>
+      <c r="B1507">
+        <v>19</v>
+      </c>
+      <c r="C1507">
+        <v>4</v>
+      </c>
+      <c r="D1507">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861ADA0D-7C8D-4405-90AE-63EF72F7310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1507"/>
+  <dimension ref="A1:D1523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1484" workbookViewId="0">
-      <selection activeCell="A1508" sqref="A1508"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
+      <selection activeCell="A1524" sqref="A1524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21471,6 +21471,230 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>1</v>
+      </c>
+      <c r="B1508">
+        <v>6</v>
+      </c>
+      <c r="C1508">
+        <v>3</v>
+      </c>
+      <c r="D1508">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>3</v>
+      </c>
+      <c r="B1509">
+        <v>13</v>
+      </c>
+      <c r="C1509">
+        <v>4</v>
+      </c>
+      <c r="D1509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>8</v>
+      </c>
+      <c r="B1510">
+        <v>14</v>
+      </c>
+      <c r="C1510">
+        <v>6</v>
+      </c>
+      <c r="D1510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>3</v>
+      </c>
+      <c r="B1511">
+        <v>15</v>
+      </c>
+      <c r="C1511">
+        <v>2</v>
+      </c>
+      <c r="D1511">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>4</v>
+      </c>
+      <c r="B1512">
+        <v>17</v>
+      </c>
+      <c r="C1512">
+        <v>2</v>
+      </c>
+      <c r="D1512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>2</v>
+      </c>
+      <c r="B1513">
+        <v>1</v>
+      </c>
+      <c r="C1513">
+        <v>4</v>
+      </c>
+      <c r="D1513">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>4</v>
+      </c>
+      <c r="B1514">
+        <v>5</v>
+      </c>
+      <c r="C1514">
+        <v>3</v>
+      </c>
+      <c r="D1514">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>7</v>
+      </c>
+      <c r="B1515">
+        <v>15</v>
+      </c>
+      <c r="C1515">
+        <v>6</v>
+      </c>
+      <c r="D1515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>3</v>
+      </c>
+      <c r="B1516">
+        <v>6</v>
+      </c>
+      <c r="C1516">
+        <v>2</v>
+      </c>
+      <c r="D1516">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>2</v>
+      </c>
+      <c r="B1517">
+        <v>12</v>
+      </c>
+      <c r="C1517">
+        <v>4</v>
+      </c>
+      <c r="D1517">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>4</v>
+      </c>
+      <c r="B1518">
+        <v>8</v>
+      </c>
+      <c r="C1518">
+        <v>3</v>
+      </c>
+      <c r="D1518">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>5</v>
+      </c>
+      <c r="B1519">
+        <v>8</v>
+      </c>
+      <c r="C1519">
+        <v>4</v>
+      </c>
+      <c r="D1519">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>5</v>
+      </c>
+      <c r="B1520">
+        <v>13</v>
+      </c>
+      <c r="C1520">
+        <v>6</v>
+      </c>
+      <c r="D1520">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>2</v>
+      </c>
+      <c r="B1521">
+        <v>7</v>
+      </c>
+      <c r="C1521">
+        <v>5</v>
+      </c>
+      <c r="D1521">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>4</v>
+      </c>
+      <c r="B1522">
+        <v>12</v>
+      </c>
+      <c r="C1522">
+        <v>3</v>
+      </c>
+      <c r="D1522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>4</v>
+      </c>
+      <c r="B1523">
+        <v>12</v>
+      </c>
+      <c r="C1523">
+        <v>5</v>
+      </c>
+      <c r="D1523">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC84B02A-9837-47A5-AA8D-CC50747F1FDB}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1523"/>
+  <dimension ref="A1:D1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
-      <selection activeCell="A1524" sqref="A1524"/>
+    <sheetView tabSelected="1" topLeftCell="A1520" workbookViewId="0">
+      <selection activeCell="A1540" sqref="A1540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21695,6 +21695,230 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>5</v>
+      </c>
+      <c r="B1524">
+        <v>2</v>
+      </c>
+      <c r="C1524">
+        <v>6</v>
+      </c>
+      <c r="D1524">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>4</v>
+      </c>
+      <c r="B1525">
+        <v>7</v>
+      </c>
+      <c r="C1525">
+        <v>3</v>
+      </c>
+      <c r="D1525">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>4</v>
+      </c>
+      <c r="B1526">
+        <v>18</v>
+      </c>
+      <c r="C1526">
+        <v>1</v>
+      </c>
+      <c r="D1526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>4</v>
+      </c>
+      <c r="B1527">
+        <v>3</v>
+      </c>
+      <c r="C1527">
+        <v>3</v>
+      </c>
+      <c r="D1527">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>9</v>
+      </c>
+      <c r="B1528">
+        <v>13</v>
+      </c>
+      <c r="C1528">
+        <v>6</v>
+      </c>
+      <c r="D1528">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>6</v>
+      </c>
+      <c r="B1529">
+        <v>6</v>
+      </c>
+      <c r="C1529">
+        <v>5</v>
+      </c>
+      <c r="D1529">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>7</v>
+      </c>
+      <c r="B1530">
+        <v>14</v>
+      </c>
+      <c r="C1530">
+        <v>9</v>
+      </c>
+      <c r="D1530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>6</v>
+      </c>
+      <c r="B1531">
+        <v>19</v>
+      </c>
+      <c r="C1531">
+        <v>5</v>
+      </c>
+      <c r="D1531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>7</v>
+      </c>
+      <c r="B1532">
+        <v>12</v>
+      </c>
+      <c r="C1532">
+        <v>5</v>
+      </c>
+      <c r="D1532">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>3</v>
+      </c>
+      <c r="B1533">
+        <v>18</v>
+      </c>
+      <c r="C1533">
+        <v>4</v>
+      </c>
+      <c r="D1533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>3</v>
+      </c>
+      <c r="B1534">
+        <v>7</v>
+      </c>
+      <c r="C1534">
+        <v>5</v>
+      </c>
+      <c r="D1534">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>1</v>
+      </c>
+      <c r="B1535">
+        <v>8</v>
+      </c>
+      <c r="C1535">
+        <v>3</v>
+      </c>
+      <c r="D1535">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>2</v>
+      </c>
+      <c r="B1536">
+        <v>5</v>
+      </c>
+      <c r="C1536">
+        <v>3</v>
+      </c>
+      <c r="D1536">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>4</v>
+      </c>
+      <c r="B1537">
+        <v>6</v>
+      </c>
+      <c r="C1537">
+        <v>5</v>
+      </c>
+      <c r="D1537">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>5</v>
+      </c>
+      <c r="B1538">
+        <v>7</v>
+      </c>
+      <c r="C1538">
+        <v>6</v>
+      </c>
+      <c r="D1538">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>7</v>
+      </c>
+      <c r="B1539">
+        <v>14</v>
+      </c>
+      <c r="C1539">
+        <v>4</v>
+      </c>
+      <c r="D1539">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC84B02A-9837-47A5-AA8D-CC50747F1FDB}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B7929F-6615-47EA-94E3-1A3A0CA8001B}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1539"/>
+  <dimension ref="A1:D1553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1520" workbookViewId="0">
-      <selection activeCell="A1540" sqref="A1540"/>
+    <sheetView tabSelected="1" topLeftCell="A1538" workbookViewId="0">
+      <selection activeCell="C1554" sqref="C1554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21919,6 +21923,202 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540">
+        <v>3</v>
+      </c>
+      <c r="B1540">
+        <v>15</v>
+      </c>
+      <c r="C1540">
+        <v>4</v>
+      </c>
+      <c r="D1540">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541">
+        <v>3</v>
+      </c>
+      <c r="B1541">
+        <v>14</v>
+      </c>
+      <c r="C1541">
+        <v>4</v>
+      </c>
+      <c r="D1541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542">
+        <v>7</v>
+      </c>
+      <c r="B1542">
+        <v>5</v>
+      </c>
+      <c r="C1542">
+        <v>9</v>
+      </c>
+      <c r="D1542">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543">
+        <v>4</v>
+      </c>
+      <c r="B1543">
+        <v>8</v>
+      </c>
+      <c r="C1543">
+        <v>2</v>
+      </c>
+      <c r="D1543">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544">
+        <v>2</v>
+      </c>
+      <c r="B1544">
+        <v>5</v>
+      </c>
+      <c r="C1544">
+        <v>3</v>
+      </c>
+      <c r="D1544">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545">
+        <v>5</v>
+      </c>
+      <c r="B1545">
+        <v>14</v>
+      </c>
+      <c r="C1545">
+        <v>6</v>
+      </c>
+      <c r="D1545">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546">
+        <v>5</v>
+      </c>
+      <c r="B1546">
+        <v>3</v>
+      </c>
+      <c r="C1546">
+        <v>4</v>
+      </c>
+      <c r="D1546">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547">
+        <v>6</v>
+      </c>
+      <c r="B1547">
+        <v>14</v>
+      </c>
+      <c r="C1547">
+        <v>7</v>
+      </c>
+      <c r="D1547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548">
+        <v>8</v>
+      </c>
+      <c r="B1548">
+        <v>4</v>
+      </c>
+      <c r="C1548">
+        <v>7</v>
+      </c>
+      <c r="D1548">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549">
+        <v>1</v>
+      </c>
+      <c r="B1549">
+        <v>8</v>
+      </c>
+      <c r="C1549">
+        <v>2</v>
+      </c>
+      <c r="D1549">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550">
+        <v>3</v>
+      </c>
+      <c r="B1550">
+        <v>6</v>
+      </c>
+      <c r="C1550">
+        <v>4</v>
+      </c>
+      <c r="D1550">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551">
+        <v>4</v>
+      </c>
+      <c r="B1551">
+        <v>7</v>
+      </c>
+      <c r="C1551">
+        <v>5</v>
+      </c>
+      <c r="D1551">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552">
+        <v>2</v>
+      </c>
+      <c r="B1552">
+        <v>16</v>
+      </c>
+      <c r="C1552">
+        <v>3</v>
+      </c>
+      <c r="D1552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553">
+        <v>9</v>
+      </c>
+      <c r="B1553">
+        <v>8</v>
+      </c>
+      <c r="C1553">
+        <v>4</v>
+      </c>
+      <c r="D1553">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B7929F-6615-47EA-94E3-1A3A0CA8001B}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32842D6E-4F2F-4F7F-BAF1-04302EAB4C99}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1553"/>
+  <dimension ref="A1:D1574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1538" workbookViewId="0">
-      <selection activeCell="C1554" sqref="C1554"/>
+    <sheetView tabSelected="1" topLeftCell="A1559" workbookViewId="0">
+      <selection activeCell="A1575" sqref="A1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22119,6 +22119,300 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554">
+        <v>6</v>
+      </c>
+      <c r="B1554">
+        <v>15</v>
+      </c>
+      <c r="C1554">
+        <v>5</v>
+      </c>
+      <c r="D1554">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>2</v>
+      </c>
+      <c r="B1555">
+        <v>16</v>
+      </c>
+      <c r="C1555">
+        <v>1</v>
+      </c>
+      <c r="D1555">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556">
+        <v>4</v>
+      </c>
+      <c r="B1556">
+        <v>2</v>
+      </c>
+      <c r="C1556">
+        <v>8</v>
+      </c>
+      <c r="D1556">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557">
+        <v>7</v>
+      </c>
+      <c r="B1557">
+        <v>15</v>
+      </c>
+      <c r="C1557">
+        <v>6</v>
+      </c>
+      <c r="D1557">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558">
+        <v>4</v>
+      </c>
+      <c r="B1558">
+        <v>4</v>
+      </c>
+      <c r="C1558">
+        <v>5</v>
+      </c>
+      <c r="D1558">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559">
+        <v>3</v>
+      </c>
+      <c r="B1559">
+        <v>6</v>
+      </c>
+      <c r="C1559">
+        <v>4</v>
+      </c>
+      <c r="D1559">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560">
+        <v>5</v>
+      </c>
+      <c r="B1560">
+        <v>15</v>
+      </c>
+      <c r="C1560">
+        <v>4</v>
+      </c>
+      <c r="D1560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561">
+        <v>5</v>
+      </c>
+      <c r="B1561">
+        <v>13</v>
+      </c>
+      <c r="C1561">
+        <v>4</v>
+      </c>
+      <c r="D1561">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562">
+        <v>2</v>
+      </c>
+      <c r="B1562">
+        <v>7</v>
+      </c>
+      <c r="C1562">
+        <v>5</v>
+      </c>
+      <c r="D1562">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563">
+        <v>5</v>
+      </c>
+      <c r="B1563">
+        <v>15</v>
+      </c>
+      <c r="C1563">
+        <v>7</v>
+      </c>
+      <c r="D1563">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564">
+        <v>4</v>
+      </c>
+      <c r="B1564">
+        <v>12</v>
+      </c>
+      <c r="C1564">
+        <v>3</v>
+      </c>
+      <c r="D1564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>5</v>
+      </c>
+      <c r="B1565">
+        <v>7</v>
+      </c>
+      <c r="C1565">
+        <v>3</v>
+      </c>
+      <c r="D1565">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>4</v>
+      </c>
+      <c r="B1566">
+        <v>3</v>
+      </c>
+      <c r="C1566">
+        <v>6</v>
+      </c>
+      <c r="D1566">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>3</v>
+      </c>
+      <c r="B1567">
+        <v>12</v>
+      </c>
+      <c r="C1567">
+        <v>2</v>
+      </c>
+      <c r="D1567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>5</v>
+      </c>
+      <c r="B1568">
+        <v>13</v>
+      </c>
+      <c r="C1568">
+        <v>6</v>
+      </c>
+      <c r="D1568">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>8</v>
+      </c>
+      <c r="B1569">
+        <v>5</v>
+      </c>
+      <c r="C1569">
+        <v>7</v>
+      </c>
+      <c r="D1569">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>4</v>
+      </c>
+      <c r="B1570">
+        <v>12</v>
+      </c>
+      <c r="C1570">
+        <v>5</v>
+      </c>
+      <c r="D1570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>2</v>
+      </c>
+      <c r="B1571">
+        <v>6</v>
+      </c>
+      <c r="C1571">
+        <v>3</v>
+      </c>
+      <c r="D1571">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>2</v>
+      </c>
+      <c r="B1572">
+        <v>4</v>
+      </c>
+      <c r="C1572">
+        <v>3</v>
+      </c>
+      <c r="D1572">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>7</v>
+      </c>
+      <c r="B1573">
+        <v>5</v>
+      </c>
+      <c r="C1573">
+        <v>6</v>
+      </c>
+      <c r="D1573">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>5</v>
+      </c>
+      <c r="B1574">
+        <v>4</v>
+      </c>
+      <c r="C1574">
+        <v>7</v>
+      </c>
+      <c r="D1574">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32842D6E-4F2F-4F7F-BAF1-04302EAB4C99}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27CA4347-E196-45C2-8199-89BE9BEBDA92}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1574"/>
+  <dimension ref="A1:D1597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1559" workbookViewId="0">
-      <selection activeCell="A1575" sqref="A1575"/>
+    <sheetView tabSelected="1" topLeftCell="A1580" workbookViewId="0">
+      <selection activeCell="A1598" sqref="A1598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22413,6 +22413,328 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>1</v>
+      </c>
+      <c r="B1575">
+        <v>18</v>
+      </c>
+      <c r="C1575">
+        <v>3</v>
+      </c>
+      <c r="D1575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>5</v>
+      </c>
+      <c r="B1576">
+        <v>20</v>
+      </c>
+      <c r="C1576">
+        <v>6</v>
+      </c>
+      <c r="D1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>5</v>
+      </c>
+      <c r="B1577">
+        <v>13</v>
+      </c>
+      <c r="C1577">
+        <v>4</v>
+      </c>
+      <c r="D1577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>4</v>
+      </c>
+      <c r="B1578">
+        <v>6</v>
+      </c>
+      <c r="C1578">
+        <v>3</v>
+      </c>
+      <c r="D1578">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>5</v>
+      </c>
+      <c r="B1579">
+        <v>12</v>
+      </c>
+      <c r="C1579">
+        <v>6</v>
+      </c>
+      <c r="D1579">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>4</v>
+      </c>
+      <c r="B1580">
+        <v>6</v>
+      </c>
+      <c r="C1580">
+        <v>3</v>
+      </c>
+      <c r="D1580">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>4</v>
+      </c>
+      <c r="B1581">
+        <v>4</v>
+      </c>
+      <c r="C1581">
+        <v>5</v>
+      </c>
+      <c r="D1581">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>5</v>
+      </c>
+      <c r="B1582">
+        <v>7</v>
+      </c>
+      <c r="C1582">
+        <v>8</v>
+      </c>
+      <c r="D1582">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>2</v>
+      </c>
+      <c r="B1583">
+        <v>12</v>
+      </c>
+      <c r="C1583">
+        <v>1</v>
+      </c>
+      <c r="D1583">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>5</v>
+      </c>
+      <c r="B1584">
+        <v>8</v>
+      </c>
+      <c r="C1584">
+        <v>4</v>
+      </c>
+      <c r="D1584">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>4</v>
+      </c>
+      <c r="B1585">
+        <v>6</v>
+      </c>
+      <c r="C1585">
+        <v>3</v>
+      </c>
+      <c r="D1585">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>5</v>
+      </c>
+      <c r="B1586">
+        <v>3</v>
+      </c>
+      <c r="C1586">
+        <v>7</v>
+      </c>
+      <c r="D1586">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>3</v>
+      </c>
+      <c r="B1587">
+        <v>0</v>
+      </c>
+      <c r="C1587">
+        <v>1</v>
+      </c>
+      <c r="D1587">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>4</v>
+      </c>
+      <c r="B1588">
+        <v>5</v>
+      </c>
+      <c r="C1588">
+        <v>8</v>
+      </c>
+      <c r="D1588">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>5</v>
+      </c>
+      <c r="B1589">
+        <v>12</v>
+      </c>
+      <c r="C1589">
+        <v>4</v>
+      </c>
+      <c r="D1589">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>7</v>
+      </c>
+      <c r="B1590">
+        <v>8</v>
+      </c>
+      <c r="C1590">
+        <v>5</v>
+      </c>
+      <c r="D1590">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>5</v>
+      </c>
+      <c r="B1591">
+        <v>15</v>
+      </c>
+      <c r="C1591">
+        <v>3</v>
+      </c>
+      <c r="D1591">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>2</v>
+      </c>
+      <c r="B1592">
+        <v>12</v>
+      </c>
+      <c r="C1592">
+        <v>5</v>
+      </c>
+      <c r="D1592">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>4</v>
+      </c>
+      <c r="B1593">
+        <v>6</v>
+      </c>
+      <c r="C1593">
+        <v>5</v>
+      </c>
+      <c r="D1593">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>4</v>
+      </c>
+      <c r="B1594">
+        <v>3</v>
+      </c>
+      <c r="C1594">
+        <v>3</v>
+      </c>
+      <c r="D1594">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>6</v>
+      </c>
+      <c r="B1595">
+        <v>12</v>
+      </c>
+      <c r="C1595">
+        <v>7</v>
+      </c>
+      <c r="D1595">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>7</v>
+      </c>
+      <c r="B1596">
+        <v>6</v>
+      </c>
+      <c r="C1596">
+        <v>6</v>
+      </c>
+      <c r="D1596">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>2</v>
+      </c>
+      <c r="B1597">
+        <v>7</v>
+      </c>
+      <c r="C1597">
+        <v>4</v>
+      </c>
+      <c r="D1597">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27CA4347-E196-45C2-8199-89BE9BEBDA92}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19C5179-2096-4E2E-A182-D5F73E3511F3}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1597"/>
+  <dimension ref="A1:D1618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1580" workbookViewId="0">
-      <selection activeCell="A1598" sqref="A1598"/>
+    <sheetView tabSelected="1" topLeftCell="A1595" workbookViewId="0">
+      <selection activeCell="A1619" sqref="A1619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22735,6 +22735,300 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>6</v>
+      </c>
+      <c r="B1598">
+        <v>4</v>
+      </c>
+      <c r="C1598">
+        <v>4</v>
+      </c>
+      <c r="D1598">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>6</v>
+      </c>
+      <c r="B1599">
+        <v>12</v>
+      </c>
+      <c r="C1599">
+        <v>5</v>
+      </c>
+      <c r="D1599">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>3</v>
+      </c>
+      <c r="B1600">
+        <v>13</v>
+      </c>
+      <c r="C1600">
+        <v>5</v>
+      </c>
+      <c r="D1600">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>3</v>
+      </c>
+      <c r="B1601">
+        <v>14</v>
+      </c>
+      <c r="C1601">
+        <v>5</v>
+      </c>
+      <c r="D1601">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>4</v>
+      </c>
+      <c r="B1602">
+        <v>8</v>
+      </c>
+      <c r="C1602">
+        <v>5</v>
+      </c>
+      <c r="D1602">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>4</v>
+      </c>
+      <c r="B1603">
+        <v>16</v>
+      </c>
+      <c r="C1603">
+        <v>2</v>
+      </c>
+      <c r="D1603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>2</v>
+      </c>
+      <c r="B1604">
+        <v>8</v>
+      </c>
+      <c r="C1604">
+        <v>3</v>
+      </c>
+      <c r="D1604">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>4</v>
+      </c>
+      <c r="B1605">
+        <v>6</v>
+      </c>
+      <c r="C1605">
+        <v>2</v>
+      </c>
+      <c r="D1605">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>8</v>
+      </c>
+      <c r="B1606">
+        <v>13</v>
+      </c>
+      <c r="C1606">
+        <v>7</v>
+      </c>
+      <c r="D1606">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>5</v>
+      </c>
+      <c r="B1607">
+        <v>7</v>
+      </c>
+      <c r="C1607">
+        <v>4</v>
+      </c>
+      <c r="D1607">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>6</v>
+      </c>
+      <c r="B1608">
+        <v>7</v>
+      </c>
+      <c r="C1608">
+        <v>4</v>
+      </c>
+      <c r="D1608">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>1</v>
+      </c>
+      <c r="B1609">
+        <v>5</v>
+      </c>
+      <c r="C1609">
+        <v>2</v>
+      </c>
+      <c r="D1609">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>3</v>
+      </c>
+      <c r="B1610">
+        <v>13</v>
+      </c>
+      <c r="C1610">
+        <v>5</v>
+      </c>
+      <c r="D1610">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>3</v>
+      </c>
+      <c r="B1611">
+        <v>0</v>
+      </c>
+      <c r="C1611">
+        <v>4</v>
+      </c>
+      <c r="D1611">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>7</v>
+      </c>
+      <c r="B1612">
+        <v>8</v>
+      </c>
+      <c r="C1612">
+        <v>6</v>
+      </c>
+      <c r="D1612">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>6</v>
+      </c>
+      <c r="B1613">
+        <v>5</v>
+      </c>
+      <c r="C1613">
+        <v>8</v>
+      </c>
+      <c r="D1613">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>4</v>
+      </c>
+      <c r="B1614">
+        <v>17</v>
+      </c>
+      <c r="C1614">
+        <v>2</v>
+      </c>
+      <c r="D1614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>3</v>
+      </c>
+      <c r="B1615">
+        <v>8</v>
+      </c>
+      <c r="C1615">
+        <v>2</v>
+      </c>
+      <c r="D1615">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>7</v>
+      </c>
+      <c r="B1616">
+        <v>14</v>
+      </c>
+      <c r="C1616">
+        <v>5</v>
+      </c>
+      <c r="D1616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>6</v>
+      </c>
+      <c r="B1617">
+        <v>12</v>
+      </c>
+      <c r="C1617">
+        <v>5</v>
+      </c>
+      <c r="D1617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>2</v>
+      </c>
+      <c r="B1618">
+        <v>16</v>
+      </c>
+      <c r="C1618">
+        <v>3</v>
+      </c>
+      <c r="D1618">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19C5179-2096-4E2E-A182-D5F73E3511F3}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F7E0A5-E88E-4537-8EE4-468CA27B2B14}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="465" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1618"/>
+  <dimension ref="A1:D1635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1595" workbookViewId="0">
-      <selection activeCell="A1619" sqref="A1619"/>
+    <sheetView tabSelected="1" topLeftCell="A1616" workbookViewId="0">
+      <selection activeCell="C1619" sqref="C1619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23029,6 +23029,244 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>6</v>
+      </c>
+      <c r="B1619">
+        <v>13</v>
+      </c>
+      <c r="C1619">
+        <v>7</v>
+      </c>
+      <c r="D1619">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>4</v>
+      </c>
+      <c r="B1620">
+        <v>13</v>
+      </c>
+      <c r="C1620">
+        <v>2</v>
+      </c>
+      <c r="D1620">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>7</v>
+      </c>
+      <c r="B1621">
+        <v>15</v>
+      </c>
+      <c r="C1621">
+        <v>4</v>
+      </c>
+      <c r="D1621">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>5</v>
+      </c>
+      <c r="B1622">
+        <v>6</v>
+      </c>
+      <c r="C1622">
+        <v>9</v>
+      </c>
+      <c r="D1622">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>5</v>
+      </c>
+      <c r="B1623">
+        <v>13</v>
+      </c>
+      <c r="C1623">
+        <v>4</v>
+      </c>
+      <c r="D1623">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>4</v>
+      </c>
+      <c r="B1624">
+        <v>6</v>
+      </c>
+      <c r="C1624">
+        <v>5</v>
+      </c>
+      <c r="D1624">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>5</v>
+      </c>
+      <c r="B1625">
+        <v>15</v>
+      </c>
+      <c r="C1625">
+        <v>4</v>
+      </c>
+      <c r="D1625">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>5</v>
+      </c>
+      <c r="B1626">
+        <v>12</v>
+      </c>
+      <c r="C1626">
+        <v>4</v>
+      </c>
+      <c r="D1626">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>2</v>
+      </c>
+      <c r="B1627">
+        <v>16</v>
+      </c>
+      <c r="C1627">
+        <v>4</v>
+      </c>
+      <c r="D1627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>6</v>
+      </c>
+      <c r="B1628">
+        <v>13</v>
+      </c>
+      <c r="C1628">
+        <v>5</v>
+      </c>
+      <c r="D1628">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>3</v>
+      </c>
+      <c r="B1629">
+        <v>4</v>
+      </c>
+      <c r="C1629">
+        <v>5</v>
+      </c>
+      <c r="D1629">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>3</v>
+      </c>
+      <c r="B1630">
+        <v>15</v>
+      </c>
+      <c r="C1630">
+        <v>2</v>
+      </c>
+      <c r="D1630">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>3</v>
+      </c>
+      <c r="B1631">
+        <v>15</v>
+      </c>
+      <c r="C1631">
+        <v>4</v>
+      </c>
+      <c r="D1631">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>8</v>
+      </c>
+      <c r="B1632">
+        <v>6</v>
+      </c>
+      <c r="C1632">
+        <v>7</v>
+      </c>
+      <c r="D1632">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>2</v>
+      </c>
+      <c r="B1633">
+        <v>3</v>
+      </c>
+      <c r="C1633">
+        <v>3</v>
+      </c>
+      <c r="D1633">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>5</v>
+      </c>
+      <c r="B1634">
+        <v>16</v>
+      </c>
+      <c r="C1634">
+        <v>4</v>
+      </c>
+      <c r="D1634">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>8</v>
+      </c>
+      <c r="B1635">
+        <v>18</v>
+      </c>
+      <c r="C1635">
+        <v>6</v>
+      </c>
+      <c r="D1635">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F7E0A5-E88E-4537-8EE4-468CA27B2B14}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E29390-53A7-4B34-8151-53EF5CF1E081}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1635"/>
+  <dimension ref="A1:D1652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1616" workbookViewId="0">
-      <selection activeCell="C1619" sqref="C1619"/>
+    <sheetView tabSelected="1" topLeftCell="A1634" workbookViewId="0">
+      <selection activeCell="F1644" sqref="F1644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23267,6 +23267,244 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>4</v>
+      </c>
+      <c r="B1636">
+        <v>6</v>
+      </c>
+      <c r="C1636">
+        <v>5</v>
+      </c>
+      <c r="D1636">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>6</v>
+      </c>
+      <c r="B1637">
+        <v>14</v>
+      </c>
+      <c r="C1637">
+        <v>8</v>
+      </c>
+      <c r="D1637">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>2</v>
+      </c>
+      <c r="B1638">
+        <v>7</v>
+      </c>
+      <c r="C1638">
+        <v>3</v>
+      </c>
+      <c r="D1638">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>4</v>
+      </c>
+      <c r="B1639">
+        <v>14</v>
+      </c>
+      <c r="C1639">
+        <v>5</v>
+      </c>
+      <c r="D1639">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>3</v>
+      </c>
+      <c r="B1640">
+        <v>12</v>
+      </c>
+      <c r="C1640">
+        <v>2</v>
+      </c>
+      <c r="D1640">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>6</v>
+      </c>
+      <c r="B1641">
+        <v>4</v>
+      </c>
+      <c r="C1641">
+        <v>5</v>
+      </c>
+      <c r="D1641">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>9</v>
+      </c>
+      <c r="B1642">
+        <v>6</v>
+      </c>
+      <c r="C1642">
+        <v>7</v>
+      </c>
+      <c r="D1642">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>3</v>
+      </c>
+      <c r="B1643">
+        <v>5</v>
+      </c>
+      <c r="C1643">
+        <v>4</v>
+      </c>
+      <c r="D1643">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>5</v>
+      </c>
+      <c r="B1644">
+        <v>6</v>
+      </c>
+      <c r="C1644">
+        <v>6</v>
+      </c>
+      <c r="D1644">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>3</v>
+      </c>
+      <c r="B1645">
+        <v>6</v>
+      </c>
+      <c r="C1645">
+        <v>6</v>
+      </c>
+      <c r="D1645">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>5</v>
+      </c>
+      <c r="B1646">
+        <v>5</v>
+      </c>
+      <c r="C1646">
+        <v>4</v>
+      </c>
+      <c r="D1646">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>4</v>
+      </c>
+      <c r="B1647">
+        <v>12</v>
+      </c>
+      <c r="C1647">
+        <v>3</v>
+      </c>
+      <c r="D1647">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>4</v>
+      </c>
+      <c r="B1648">
+        <v>14</v>
+      </c>
+      <c r="C1648">
+        <v>5</v>
+      </c>
+      <c r="D1648">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>3</v>
+      </c>
+      <c r="B1649">
+        <v>6</v>
+      </c>
+      <c r="C1649">
+        <v>4</v>
+      </c>
+      <c r="D1649">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>2</v>
+      </c>
+      <c r="B1650">
+        <v>12</v>
+      </c>
+      <c r="C1650">
+        <v>4</v>
+      </c>
+      <c r="D1650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>7</v>
+      </c>
+      <c r="B1651">
+        <v>13</v>
+      </c>
+      <c r="C1651">
+        <v>5</v>
+      </c>
+      <c r="D1651">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>6</v>
+      </c>
+      <c r="B1652">
+        <v>17</v>
+      </c>
+      <c r="C1652">
+        <v>4</v>
+      </c>
+      <c r="D1652">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E29390-53A7-4B34-8151-53EF5CF1E081}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA53169-2997-45FE-88B2-352682215106}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1652"/>
+  <dimension ref="A1:D1665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1634" workbookViewId="0">
-      <selection activeCell="F1644" sqref="F1644"/>
+    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
+      <selection activeCell="F1670" sqref="F1670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23505,6 +23505,188 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>8</v>
+      </c>
+      <c r="B1653">
+        <v>14</v>
+      </c>
+      <c r="C1653">
+        <v>7</v>
+      </c>
+      <c r="D1653">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>4</v>
+      </c>
+      <c r="B1654">
+        <v>7</v>
+      </c>
+      <c r="C1654">
+        <v>3</v>
+      </c>
+      <c r="D1654">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>3</v>
+      </c>
+      <c r="B1655">
+        <v>16</v>
+      </c>
+      <c r="C1655">
+        <v>4</v>
+      </c>
+      <c r="D1655">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>2</v>
+      </c>
+      <c r="B1656">
+        <v>6</v>
+      </c>
+      <c r="C1656">
+        <v>4</v>
+      </c>
+      <c r="D1656">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>5</v>
+      </c>
+      <c r="B1657">
+        <v>4</v>
+      </c>
+      <c r="C1657">
+        <v>3</v>
+      </c>
+      <c r="D1657">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>8</v>
+      </c>
+      <c r="B1658">
+        <v>7</v>
+      </c>
+      <c r="C1658">
+        <v>6</v>
+      </c>
+      <c r="D1658">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>3</v>
+      </c>
+      <c r="B1659">
+        <v>5</v>
+      </c>
+      <c r="C1659">
+        <v>7</v>
+      </c>
+      <c r="D1659">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>5</v>
+      </c>
+      <c r="B1660">
+        <v>15</v>
+      </c>
+      <c r="C1660">
+        <v>3</v>
+      </c>
+      <c r="D1660">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>5</v>
+      </c>
+      <c r="B1661">
+        <v>8</v>
+      </c>
+      <c r="C1661">
+        <v>6</v>
+      </c>
+      <c r="D1661">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>4</v>
+      </c>
+      <c r="B1662">
+        <v>7</v>
+      </c>
+      <c r="C1662">
+        <v>3</v>
+      </c>
+      <c r="D1662">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>6</v>
+      </c>
+      <c r="B1663">
+        <v>8</v>
+      </c>
+      <c r="C1663">
+        <v>5</v>
+      </c>
+      <c r="D1663">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>3</v>
+      </c>
+      <c r="B1664">
+        <v>6</v>
+      </c>
+      <c r="C1664">
+        <v>2</v>
+      </c>
+      <c r="D1664">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>4</v>
+      </c>
+      <c r="B1665">
+        <v>5</v>
+      </c>
+      <c r="C1665">
+        <v>5</v>
+      </c>
+      <c r="D1665">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA53169-2997-45FE-88B2-352682215106}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF614605-EACB-402D-A658-CB646BC45940}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1665"/>
+  <dimension ref="A1:D1677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
-      <selection activeCell="F1670" sqref="F1670"/>
+    <sheetView tabSelected="1" topLeftCell="A1664" workbookViewId="0">
+      <selection activeCell="A1678" sqref="A1678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23687,6 +23687,174 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>3</v>
+      </c>
+      <c r="B1666">
+        <v>12</v>
+      </c>
+      <c r="C1666">
+        <v>7</v>
+      </c>
+      <c r="D1666">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>5</v>
+      </c>
+      <c r="B1667">
+        <v>18</v>
+      </c>
+      <c r="C1667">
+        <v>4</v>
+      </c>
+      <c r="D1667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>4</v>
+      </c>
+      <c r="B1668">
+        <v>6</v>
+      </c>
+      <c r="C1668">
+        <v>1</v>
+      </c>
+      <c r="D1668">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>4</v>
+      </c>
+      <c r="B1669">
+        <v>4</v>
+      </c>
+      <c r="C1669">
+        <v>5</v>
+      </c>
+      <c r="D1669">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>4</v>
+      </c>
+      <c r="B1670">
+        <v>4</v>
+      </c>
+      <c r="C1670">
+        <v>5</v>
+      </c>
+      <c r="D1670">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>6</v>
+      </c>
+      <c r="B1671">
+        <v>17</v>
+      </c>
+      <c r="C1671">
+        <v>1</v>
+      </c>
+      <c r="D1671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>5</v>
+      </c>
+      <c r="B1672">
+        <v>13</v>
+      </c>
+      <c r="C1672">
+        <v>6</v>
+      </c>
+      <c r="D1672">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>5</v>
+      </c>
+      <c r="B1673">
+        <v>15</v>
+      </c>
+      <c r="C1673">
+        <v>7</v>
+      </c>
+      <c r="D1673">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>5</v>
+      </c>
+      <c r="B1674">
+        <v>6</v>
+      </c>
+      <c r="C1674">
+        <v>7</v>
+      </c>
+      <c r="D1674">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>7</v>
+      </c>
+      <c r="B1675">
+        <v>13</v>
+      </c>
+      <c r="C1675">
+        <v>5</v>
+      </c>
+      <c r="D1675">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>5</v>
+      </c>
+      <c r="B1676">
+        <v>7</v>
+      </c>
+      <c r="C1676">
+        <v>6</v>
+      </c>
+      <c r="D1676">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>4</v>
+      </c>
+      <c r="B1677">
+        <v>15</v>
+      </c>
+      <c r="C1677">
+        <v>3</v>
+      </c>
+      <c r="D1677">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="617" documentId="13_ncr:1_{32F303B5-087B-4820-9AA6-FA54F14DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF614605-EACB-402D-A658-CB646BC45940}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1677"/>
+  <dimension ref="A1:D1692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1664" workbookViewId="0">
-      <selection activeCell="A1678" sqref="A1678"/>
+    <sheetView tabSelected="1" topLeftCell="A1685" workbookViewId="0">
+      <selection activeCell="A1693" sqref="A1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23855,6 +23851,216 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>4</v>
+      </c>
+      <c r="B1678">
+        <v>2</v>
+      </c>
+      <c r="C1678">
+        <v>3</v>
+      </c>
+      <c r="D1678">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>4</v>
+      </c>
+      <c r="B1679">
+        <v>3</v>
+      </c>
+      <c r="C1679">
+        <v>3</v>
+      </c>
+      <c r="D1679">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>5</v>
+      </c>
+      <c r="B1680">
+        <v>12</v>
+      </c>
+      <c r="C1680">
+        <v>7</v>
+      </c>
+      <c r="D1680">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>5</v>
+      </c>
+      <c r="B1681">
+        <v>4</v>
+      </c>
+      <c r="C1681">
+        <v>4</v>
+      </c>
+      <c r="D1681">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>5</v>
+      </c>
+      <c r="B1682">
+        <v>13</v>
+      </c>
+      <c r="C1682">
+        <v>6</v>
+      </c>
+      <c r="D1682">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>3</v>
+      </c>
+      <c r="B1683">
+        <v>7</v>
+      </c>
+      <c r="C1683">
+        <v>4</v>
+      </c>
+      <c r="D1683">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>2</v>
+      </c>
+      <c r="B1684">
+        <v>7</v>
+      </c>
+      <c r="C1684">
+        <v>3</v>
+      </c>
+      <c r="D1684">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>8</v>
+      </c>
+      <c r="B1685">
+        <v>6</v>
+      </c>
+      <c r="C1685">
+        <v>4</v>
+      </c>
+      <c r="D1685">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>3</v>
+      </c>
+      <c r="B1686">
+        <v>12</v>
+      </c>
+      <c r="C1686">
+        <v>4</v>
+      </c>
+      <c r="D1686">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>5</v>
+      </c>
+      <c r="B1687">
+        <v>8</v>
+      </c>
+      <c r="C1687">
+        <v>2</v>
+      </c>
+      <c r="D1687">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>1</v>
+      </c>
+      <c r="B1688">
+        <v>4</v>
+      </c>
+      <c r="C1688">
+        <v>7</v>
+      </c>
+      <c r="D1688">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>4</v>
+      </c>
+      <c r="B1689">
+        <v>13</v>
+      </c>
+      <c r="C1689">
+        <v>5</v>
+      </c>
+      <c r="D1689">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>5</v>
+      </c>
+      <c r="B1690">
+        <v>5</v>
+      </c>
+      <c r="C1690">
+        <v>3</v>
+      </c>
+      <c r="D1690">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>4</v>
+      </c>
+      <c r="B1691">
+        <v>16</v>
+      </c>
+      <c r="C1691">
+        <v>5</v>
+      </c>
+      <c r="D1691">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>4</v>
+      </c>
+      <c r="B1692">
+        <v>8</v>
+      </c>
+      <c r="C1692">
+        <v>3</v>
+      </c>
+      <c r="D1692">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716B6259-E551-4A1C-8882-B08967F3A372}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1692"/>
+  <dimension ref="A1:D1707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1685" workbookViewId="0">
-      <selection activeCell="A1693" sqref="A1693"/>
+    <sheetView tabSelected="1" topLeftCell="A1703" workbookViewId="0">
+      <selection activeCell="D1714" sqref="D1714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24061,6 +24061,216 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>5</v>
+      </c>
+      <c r="B1693">
+        <v>8</v>
+      </c>
+      <c r="C1693">
+        <v>6</v>
+      </c>
+      <c r="D1693">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>1</v>
+      </c>
+      <c r="B1694">
+        <v>8</v>
+      </c>
+      <c r="C1694">
+        <v>2</v>
+      </c>
+      <c r="D1694">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>8</v>
+      </c>
+      <c r="B1695">
+        <v>7</v>
+      </c>
+      <c r="C1695">
+        <v>6</v>
+      </c>
+      <c r="D1695">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>5</v>
+      </c>
+      <c r="B1696">
+        <v>3</v>
+      </c>
+      <c r="C1696">
+        <v>3</v>
+      </c>
+      <c r="D1696">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>7</v>
+      </c>
+      <c r="B1697">
+        <v>7</v>
+      </c>
+      <c r="C1697">
+        <v>6</v>
+      </c>
+      <c r="D1697">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>3</v>
+      </c>
+      <c r="B1698">
+        <v>8</v>
+      </c>
+      <c r="C1698">
+        <v>4</v>
+      </c>
+      <c r="D1698">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>4</v>
+      </c>
+      <c r="B1699">
+        <v>7</v>
+      </c>
+      <c r="C1699">
+        <v>3</v>
+      </c>
+      <c r="D1699">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>4</v>
+      </c>
+      <c r="B1700">
+        <v>7</v>
+      </c>
+      <c r="C1700">
+        <v>7</v>
+      </c>
+      <c r="D1700">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>2</v>
+      </c>
+      <c r="B1701">
+        <v>2</v>
+      </c>
+      <c r="C1701">
+        <v>4</v>
+      </c>
+      <c r="D1701">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>6</v>
+      </c>
+      <c r="B1702">
+        <v>5</v>
+      </c>
+      <c r="C1702">
+        <v>5</v>
+      </c>
+      <c r="D1702">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>8</v>
+      </c>
+      <c r="B1703">
+        <v>4</v>
+      </c>
+      <c r="C1703">
+        <v>5</v>
+      </c>
+      <c r="D1703">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>3</v>
+      </c>
+      <c r="B1704">
+        <v>8</v>
+      </c>
+      <c r="C1704">
+        <v>5</v>
+      </c>
+      <c r="D1704">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>4</v>
+      </c>
+      <c r="B1705">
+        <v>8</v>
+      </c>
+      <c r="C1705">
+        <v>5</v>
+      </c>
+      <c r="D1705">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>4</v>
+      </c>
+      <c r="B1706">
+        <v>16</v>
+      </c>
+      <c r="C1706">
+        <v>5</v>
+      </c>
+      <c r="D1706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>7</v>
+      </c>
+      <c r="B1707">
+        <v>5</v>
+      </c>
+      <c r="C1707">
+        <v>5</v>
+      </c>
+      <c r="D1707">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716B6259-E551-4A1C-8882-B08967F3A372}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B0CC54-1A02-42D6-AA96-D81FE9C1F142}"/>
   <bookViews>
     <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1707"/>
+  <dimension ref="A1:D1718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1703" workbookViewId="0">
-      <selection activeCell="D1714" sqref="D1714"/>
+    <sheetView tabSelected="1" topLeftCell="A1706" workbookViewId="0">
+      <selection activeCell="A1719" sqref="A1719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24271,6 +24275,160 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>4</v>
+      </c>
+      <c r="B1708">
+        <v>18</v>
+      </c>
+      <c r="C1708">
+        <v>3</v>
+      </c>
+      <c r="D1708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>3</v>
+      </c>
+      <c r="B1709">
+        <v>3</v>
+      </c>
+      <c r="C1709">
+        <v>5</v>
+      </c>
+      <c r="D1709">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>8</v>
+      </c>
+      <c r="B1710">
+        <v>12</v>
+      </c>
+      <c r="C1710">
+        <v>7</v>
+      </c>
+      <c r="D1710">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>5</v>
+      </c>
+      <c r="B1711">
+        <v>13</v>
+      </c>
+      <c r="C1711">
+        <v>6</v>
+      </c>
+      <c r="D1711">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>6</v>
+      </c>
+      <c r="B1712">
+        <v>6</v>
+      </c>
+      <c r="C1712">
+        <v>4</v>
+      </c>
+      <c r="D1712">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>6</v>
+      </c>
+      <c r="B1713">
+        <v>13</v>
+      </c>
+      <c r="C1713">
+        <v>7</v>
+      </c>
+      <c r="D1713">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>3</v>
+      </c>
+      <c r="B1714">
+        <v>14</v>
+      </c>
+      <c r="C1714">
+        <v>4</v>
+      </c>
+      <c r="D1714">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>7</v>
+      </c>
+      <c r="B1715">
+        <v>8</v>
+      </c>
+      <c r="C1715">
+        <v>5</v>
+      </c>
+      <c r="D1715">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>4</v>
+      </c>
+      <c r="B1716">
+        <v>4</v>
+      </c>
+      <c r="C1716">
+        <v>3</v>
+      </c>
+      <c r="D1716">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>4</v>
+      </c>
+      <c r="B1717">
+        <v>5</v>
+      </c>
+      <c r="C1717">
+        <v>5</v>
+      </c>
+      <c r="D1717">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>5</v>
+      </c>
+      <c r="B1718">
+        <v>6</v>
+      </c>
+      <c r="C1718">
+        <v>5</v>
+      </c>
+      <c r="D1718">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B0CC54-1A02-42D6-AA96-D81FE9C1F142}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A1DF7E-6C54-4002-8E54-75759709396E}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="300" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1718"/>
+  <dimension ref="A1:D1730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1706" workbookViewId="0">
-      <selection activeCell="A1719" sqref="A1719"/>
+    <sheetView tabSelected="1" topLeftCell="A1715" workbookViewId="0">
+      <selection activeCell="A1731" sqref="A1731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24429,6 +24429,174 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>6</v>
+      </c>
+      <c r="B1719">
+        <v>12</v>
+      </c>
+      <c r="C1719">
+        <v>5</v>
+      </c>
+      <c r="D1719">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>8</v>
+      </c>
+      <c r="B1720">
+        <v>5</v>
+      </c>
+      <c r="C1720">
+        <v>6</v>
+      </c>
+      <c r="D1720">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>2</v>
+      </c>
+      <c r="B1721">
+        <v>8</v>
+      </c>
+      <c r="C1721">
+        <v>3</v>
+      </c>
+      <c r="D1721">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>4</v>
+      </c>
+      <c r="B1722">
+        <v>7</v>
+      </c>
+      <c r="C1722">
+        <v>5</v>
+      </c>
+      <c r="D1722">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>6</v>
+      </c>
+      <c r="B1723">
+        <v>8</v>
+      </c>
+      <c r="C1723">
+        <v>8</v>
+      </c>
+      <c r="D1723">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>3</v>
+      </c>
+      <c r="B1724">
+        <v>13</v>
+      </c>
+      <c r="C1724">
+        <v>1</v>
+      </c>
+      <c r="D1724">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>5</v>
+      </c>
+      <c r="B1725">
+        <v>3</v>
+      </c>
+      <c r="C1725">
+        <v>4</v>
+      </c>
+      <c r="D1725">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>5</v>
+      </c>
+      <c r="B1726">
+        <v>7</v>
+      </c>
+      <c r="C1726">
+        <v>4</v>
+      </c>
+      <c r="D1726">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>6</v>
+      </c>
+      <c r="B1727">
+        <v>15</v>
+      </c>
+      <c r="C1727">
+        <v>7</v>
+      </c>
+      <c r="D1727">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>3</v>
+      </c>
+      <c r="B1728">
+        <v>18</v>
+      </c>
+      <c r="C1728">
+        <v>2</v>
+      </c>
+      <c r="D1728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>4</v>
+      </c>
+      <c r="B1729">
+        <v>8</v>
+      </c>
+      <c r="C1729">
+        <v>3</v>
+      </c>
+      <c r="D1729">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>4</v>
+      </c>
+      <c r="B1730">
+        <v>4</v>
+      </c>
+      <c r="C1730">
+        <v>7</v>
+      </c>
+      <c r="D1730">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A1DF7E-6C54-4002-8E54-75759709396E}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A5F9A4-64E9-416A-AAFC-E158B242C99B}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1730"/>
+  <dimension ref="A1:D1737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1715" workbookViewId="0">
-      <selection activeCell="A1731" sqref="A1731"/>
+      <selection activeCell="A1738" sqref="A1738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24597,6 +24597,104 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>6</v>
+      </c>
+      <c r="B1731">
+        <v>3</v>
+      </c>
+      <c r="C1731">
+        <v>8</v>
+      </c>
+      <c r="D1731">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>5</v>
+      </c>
+      <c r="B1732">
+        <v>15</v>
+      </c>
+      <c r="C1732">
+        <v>3</v>
+      </c>
+      <c r="D1732">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>5</v>
+      </c>
+      <c r="B1733">
+        <v>12</v>
+      </c>
+      <c r="C1733">
+        <v>7</v>
+      </c>
+      <c r="D1733">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>5</v>
+      </c>
+      <c r="B1734">
+        <v>8</v>
+      </c>
+      <c r="C1734">
+        <v>4</v>
+      </c>
+      <c r="D1734">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>5</v>
+      </c>
+      <c r="B1735">
+        <v>12</v>
+      </c>
+      <c r="C1735">
+        <v>3</v>
+      </c>
+      <c r="D1735">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>4</v>
+      </c>
+      <c r="B1736">
+        <v>6</v>
+      </c>
+      <c r="C1736">
+        <v>5</v>
+      </c>
+      <c r="D1736">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>4</v>
+      </c>
+      <c r="B1737">
+        <v>4</v>
+      </c>
+      <c r="C1737">
+        <v>3</v>
+      </c>
+      <c r="D1737">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A5F9A4-64E9-416A-AAFC-E158B242C99B}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6FDA6A-38DC-4432-922D-F0EA9485E2A9}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1737"/>
+  <dimension ref="A1:D1751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1715" workbookViewId="0">
-      <selection activeCell="A1738" sqref="A1738"/>
+    <sheetView tabSelected="1" topLeftCell="A1736" workbookViewId="0">
+      <selection activeCell="A1752" sqref="A1752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24695,6 +24695,202 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>6</v>
+      </c>
+      <c r="B1738">
+        <v>15</v>
+      </c>
+      <c r="C1738">
+        <v>9</v>
+      </c>
+      <c r="D1738">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>2</v>
+      </c>
+      <c r="B1739">
+        <v>16</v>
+      </c>
+      <c r="C1739">
+        <v>3</v>
+      </c>
+      <c r="D1739">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>4</v>
+      </c>
+      <c r="B1740">
+        <v>13</v>
+      </c>
+      <c r="C1740">
+        <v>3</v>
+      </c>
+      <c r="D1740">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>3</v>
+      </c>
+      <c r="B1741">
+        <v>6</v>
+      </c>
+      <c r="C1741">
+        <v>5</v>
+      </c>
+      <c r="D1741">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>2</v>
+      </c>
+      <c r="B1742">
+        <v>6</v>
+      </c>
+      <c r="C1742">
+        <v>3</v>
+      </c>
+      <c r="D1742">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>7</v>
+      </c>
+      <c r="B1743">
+        <v>12</v>
+      </c>
+      <c r="C1743">
+        <v>6</v>
+      </c>
+      <c r="D1743">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>4</v>
+      </c>
+      <c r="B1744">
+        <v>12</v>
+      </c>
+      <c r="C1744">
+        <v>7</v>
+      </c>
+      <c r="D1744">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>4</v>
+      </c>
+      <c r="B1745">
+        <v>12</v>
+      </c>
+      <c r="C1745">
+        <v>3</v>
+      </c>
+      <c r="D1745">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>3</v>
+      </c>
+      <c r="B1746">
+        <v>3</v>
+      </c>
+      <c r="C1746">
+        <v>4</v>
+      </c>
+      <c r="D1746">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>6</v>
+      </c>
+      <c r="B1747">
+        <v>14</v>
+      </c>
+      <c r="C1747">
+        <v>7</v>
+      </c>
+      <c r="D1747">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>4</v>
+      </c>
+      <c r="B1748">
+        <v>4</v>
+      </c>
+      <c r="C1748">
+        <v>2</v>
+      </c>
+      <c r="D1748">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>5</v>
+      </c>
+      <c r="B1749">
+        <v>5</v>
+      </c>
+      <c r="C1749">
+        <v>8</v>
+      </c>
+      <c r="D1749">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>5</v>
+      </c>
+      <c r="B1750">
+        <v>13</v>
+      </c>
+      <c r="C1750">
+        <v>3</v>
+      </c>
+      <c r="D1750">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>5</v>
+      </c>
+      <c r="B1751">
+        <v>13</v>
+      </c>
+      <c r="C1751">
+        <v>3</v>
+      </c>
+      <c r="D1751">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6FDA6A-38DC-4432-922D-F0EA9485E2A9}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E511D811-FCB7-4B9B-A0C7-E29A86B199D8}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1751"/>
+  <dimension ref="A1:D1764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1736" workbookViewId="0">
-      <selection activeCell="A1752" sqref="A1752"/>
+    <sheetView tabSelected="1" topLeftCell="A1751" workbookViewId="0">
+      <selection activeCell="A1765" sqref="A1765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24891,6 +24891,188 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>6</v>
+      </c>
+      <c r="B1752">
+        <v>13</v>
+      </c>
+      <c r="C1752">
+        <v>7</v>
+      </c>
+      <c r="D1752">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>4</v>
+      </c>
+      <c r="B1753">
+        <v>8</v>
+      </c>
+      <c r="C1753">
+        <v>2</v>
+      </c>
+      <c r="D1753">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>3</v>
+      </c>
+      <c r="B1754">
+        <v>7</v>
+      </c>
+      <c r="C1754">
+        <v>7</v>
+      </c>
+      <c r="D1754">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>5</v>
+      </c>
+      <c r="B1755">
+        <v>12</v>
+      </c>
+      <c r="C1755">
+        <v>4</v>
+      </c>
+      <c r="D1755">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>3</v>
+      </c>
+      <c r="B1756">
+        <v>7</v>
+      </c>
+      <c r="C1756">
+        <v>4</v>
+      </c>
+      <c r="D1756">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>5</v>
+      </c>
+      <c r="B1757">
+        <v>6</v>
+      </c>
+      <c r="C1757">
+        <v>6</v>
+      </c>
+      <c r="D1757">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>8</v>
+      </c>
+      <c r="B1758">
+        <v>8</v>
+      </c>
+      <c r="C1758">
+        <v>6</v>
+      </c>
+      <c r="D1758">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>6</v>
+      </c>
+      <c r="B1759">
+        <v>7</v>
+      </c>
+      <c r="C1759">
+        <v>5</v>
+      </c>
+      <c r="D1759">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>3</v>
+      </c>
+      <c r="B1760">
+        <v>4</v>
+      </c>
+      <c r="C1760">
+        <v>5</v>
+      </c>
+      <c r="D1760">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>5</v>
+      </c>
+      <c r="B1761">
+        <v>2</v>
+      </c>
+      <c r="C1761">
+        <v>4</v>
+      </c>
+      <c r="D1761">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>2</v>
+      </c>
+      <c r="B1762">
+        <v>19</v>
+      </c>
+      <c r="C1762">
+        <v>5</v>
+      </c>
+      <c r="D1762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>4</v>
+      </c>
+      <c r="B1763">
+        <v>2</v>
+      </c>
+      <c r="C1763">
+        <v>2</v>
+      </c>
+      <c r="D1763">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>5</v>
+      </c>
+      <c r="B1764">
+        <v>12</v>
+      </c>
+      <c r="C1764">
+        <v>3</v>
+      </c>
+      <c r="D1764">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E511D811-FCB7-4B9B-A0C7-E29A86B199D8}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A8C6D2-637F-49D6-AC28-0E478C1C625D}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1764"/>
+  <dimension ref="A1:D1776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1751" workbookViewId="0">
-      <selection activeCell="A1765" sqref="A1765"/>
+    <sheetView tabSelected="1" topLeftCell="A1763" workbookViewId="0">
+      <selection activeCell="C1779" sqref="C1779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25073,6 +25073,174 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>7</v>
+      </c>
+      <c r="B1765">
+        <v>13</v>
+      </c>
+      <c r="C1765">
+        <v>9</v>
+      </c>
+      <c r="D1765">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>1</v>
+      </c>
+      <c r="B1766">
+        <v>14</v>
+      </c>
+      <c r="C1766">
+        <v>3</v>
+      </c>
+      <c r="D1766">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>4</v>
+      </c>
+      <c r="B1767">
+        <v>4</v>
+      </c>
+      <c r="C1767">
+        <v>3</v>
+      </c>
+      <c r="D1767">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>1</v>
+      </c>
+      <c r="B1768">
+        <v>3</v>
+      </c>
+      <c r="C1768">
+        <v>3</v>
+      </c>
+      <c r="D1768">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>8</v>
+      </c>
+      <c r="B1769">
+        <v>14</v>
+      </c>
+      <c r="C1769">
+        <v>7</v>
+      </c>
+      <c r="D1769">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>3</v>
+      </c>
+      <c r="B1770">
+        <v>13</v>
+      </c>
+      <c r="C1770">
+        <v>2</v>
+      </c>
+      <c r="D1770">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>5</v>
+      </c>
+      <c r="B1771">
+        <v>12</v>
+      </c>
+      <c r="C1771">
+        <v>7</v>
+      </c>
+      <c r="D1771">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>5</v>
+      </c>
+      <c r="B1772">
+        <v>12</v>
+      </c>
+      <c r="C1772">
+        <v>4</v>
+      </c>
+      <c r="D1772">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>4</v>
+      </c>
+      <c r="B1773">
+        <v>17</v>
+      </c>
+      <c r="C1773">
+        <v>3</v>
+      </c>
+      <c r="D1773">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>3</v>
+      </c>
+      <c r="B1774">
+        <v>12</v>
+      </c>
+      <c r="C1774">
+        <v>4</v>
+      </c>
+      <c r="D1774">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>8</v>
+      </c>
+      <c r="B1775">
+        <v>7</v>
+      </c>
+      <c r="C1775">
+        <v>7</v>
+      </c>
+      <c r="D1775">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>6</v>
+      </c>
+      <c r="B1776">
+        <v>4</v>
+      </c>
+      <c r="C1776">
+        <v>5</v>
+      </c>
+      <c r="D1776">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A8C6D2-637F-49D6-AC28-0E478C1C625D}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902B3DB8-5399-4E2C-B2BD-9C5D56ED3F55}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1776"/>
+  <dimension ref="A1:D1788"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1763" workbookViewId="0">
-      <selection activeCell="C1779" sqref="C1779"/>
+      <selection activeCell="A1789" sqref="A1789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25241,6 +25241,174 @@
         <v>16</v>
       </c>
     </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>7</v>
+      </c>
+      <c r="B1777">
+        <v>13</v>
+      </c>
+      <c r="C1777">
+        <v>9</v>
+      </c>
+      <c r="D1777">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>4</v>
+      </c>
+      <c r="B1778">
+        <v>19</v>
+      </c>
+      <c r="C1778">
+        <v>3</v>
+      </c>
+      <c r="D1778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>4</v>
+      </c>
+      <c r="B1779">
+        <v>14</v>
+      </c>
+      <c r="C1779">
+        <v>3</v>
+      </c>
+      <c r="D1779">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>6</v>
+      </c>
+      <c r="B1780">
+        <v>8</v>
+      </c>
+      <c r="C1780">
+        <v>7</v>
+      </c>
+      <c r="D1780">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>4</v>
+      </c>
+      <c r="B1781">
+        <v>13</v>
+      </c>
+      <c r="C1781">
+        <v>3</v>
+      </c>
+      <c r="D1781">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>5</v>
+      </c>
+      <c r="B1782">
+        <v>15</v>
+      </c>
+      <c r="C1782">
+        <v>6</v>
+      </c>
+      <c r="D1782">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>4</v>
+      </c>
+      <c r="B1783">
+        <v>12</v>
+      </c>
+      <c r="C1783">
+        <v>3</v>
+      </c>
+      <c r="D1783">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>4</v>
+      </c>
+      <c r="B1784">
+        <v>7</v>
+      </c>
+      <c r="C1784">
+        <v>5</v>
+      </c>
+      <c r="D1784">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>3</v>
+      </c>
+      <c r="B1785">
+        <v>12</v>
+      </c>
+      <c r="C1785">
+        <v>5</v>
+      </c>
+      <c r="D1785">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>3</v>
+      </c>
+      <c r="B1786">
+        <v>14</v>
+      </c>
+      <c r="C1786">
+        <v>4</v>
+      </c>
+      <c r="D1786">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>5</v>
+      </c>
+      <c r="B1787">
+        <v>13</v>
+      </c>
+      <c r="C1787">
+        <v>4</v>
+      </c>
+      <c r="D1787">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>5</v>
+      </c>
+      <c r="B1788">
+        <v>12</v>
+      </c>
+      <c r="C1788">
+        <v>6</v>
+      </c>
+      <c r="D1788">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902B3DB8-5399-4E2C-B2BD-9C5D56ED3F55}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE18C76C-E542-4CF1-9779-F3E85DFC95E0}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1788"/>
+  <dimension ref="A1:D1800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1763" workbookViewId="0">
-      <selection activeCell="A1789" sqref="A1789"/>
+    <sheetView tabSelected="1" topLeftCell="A1787" workbookViewId="0">
+      <selection activeCell="A1801" sqref="A1801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25409,6 +25409,174 @@
         <v>8</v>
       </c>
     </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>2</v>
+      </c>
+      <c r="B1789">
+        <v>7</v>
+      </c>
+      <c r="C1789">
+        <v>1</v>
+      </c>
+      <c r="D1789">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>4</v>
+      </c>
+      <c r="B1790">
+        <v>15</v>
+      </c>
+      <c r="C1790">
+        <v>3</v>
+      </c>
+      <c r="D1790">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>6</v>
+      </c>
+      <c r="B1791">
+        <v>4</v>
+      </c>
+      <c r="C1791">
+        <v>8</v>
+      </c>
+      <c r="D1791">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>7</v>
+      </c>
+      <c r="B1792">
+        <v>14</v>
+      </c>
+      <c r="C1792">
+        <v>5</v>
+      </c>
+      <c r="D1792">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>4</v>
+      </c>
+      <c r="B1793">
+        <v>13</v>
+      </c>
+      <c r="C1793">
+        <v>5</v>
+      </c>
+      <c r="D1793">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>4</v>
+      </c>
+      <c r="B1794">
+        <v>8</v>
+      </c>
+      <c r="C1794">
+        <v>5</v>
+      </c>
+      <c r="D1794">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>3</v>
+      </c>
+      <c r="B1795">
+        <v>15</v>
+      </c>
+      <c r="C1795">
+        <v>2</v>
+      </c>
+      <c r="D1795">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>4</v>
+      </c>
+      <c r="B1796">
+        <v>16</v>
+      </c>
+      <c r="C1796">
+        <v>6</v>
+      </c>
+      <c r="D1796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>5</v>
+      </c>
+      <c r="B1797">
+        <v>13</v>
+      </c>
+      <c r="C1797">
+        <v>7</v>
+      </c>
+      <c r="D1797">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>4</v>
+      </c>
+      <c r="B1798">
+        <v>7</v>
+      </c>
+      <c r="C1798">
+        <v>3</v>
+      </c>
+      <c r="D1798">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>3</v>
+      </c>
+      <c r="B1799">
+        <v>15</v>
+      </c>
+      <c r="C1799">
+        <v>4</v>
+      </c>
+      <c r="D1799">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>5</v>
+      </c>
+      <c r="B1800">
+        <v>5</v>
+      </c>
+      <c r="C1800">
+        <v>6</v>
+      </c>
+      <c r="D1800">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE18C76C-E542-4CF1-9779-F3E85DFC95E0}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63A6D48-1056-44F7-99F1-06E41DAA074F}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="330" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1800"/>
+  <dimension ref="A1:D1813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1787" workbookViewId="0">
-      <selection activeCell="A1801" sqref="A1801"/>
+    <sheetView tabSelected="1" topLeftCell="A1799" workbookViewId="0">
+      <selection activeCell="D1815" sqref="D1815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25577,6 +25577,188 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>6</v>
+      </c>
+      <c r="B1801">
+        <v>13</v>
+      </c>
+      <c r="C1801">
+        <v>3</v>
+      </c>
+      <c r="D1801">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>6</v>
+      </c>
+      <c r="B1802">
+        <v>6</v>
+      </c>
+      <c r="C1802">
+        <v>5</v>
+      </c>
+      <c r="D1802">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>3</v>
+      </c>
+      <c r="B1803">
+        <v>3</v>
+      </c>
+      <c r="C1803">
+        <v>5</v>
+      </c>
+      <c r="D1803">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>1</v>
+      </c>
+      <c r="B1804">
+        <v>2</v>
+      </c>
+      <c r="C1804">
+        <v>2</v>
+      </c>
+      <c r="D1804">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>8</v>
+      </c>
+      <c r="B1805">
+        <v>15</v>
+      </c>
+      <c r="C1805">
+        <v>6</v>
+      </c>
+      <c r="D1805">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>3</v>
+      </c>
+      <c r="B1806">
+        <v>18</v>
+      </c>
+      <c r="C1806">
+        <v>4</v>
+      </c>
+      <c r="D1806">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>3</v>
+      </c>
+      <c r="B1807">
+        <v>13</v>
+      </c>
+      <c r="C1807">
+        <v>4</v>
+      </c>
+      <c r="D1807">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>9</v>
+      </c>
+      <c r="B1808">
+        <v>14</v>
+      </c>
+      <c r="C1808">
+        <v>7</v>
+      </c>
+      <c r="D1808">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>3</v>
+      </c>
+      <c r="B1809">
+        <v>5</v>
+      </c>
+      <c r="C1809">
+        <v>5</v>
+      </c>
+      <c r="D1809">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>3</v>
+      </c>
+      <c r="B1810">
+        <v>16</v>
+      </c>
+      <c r="C1810">
+        <v>2</v>
+      </c>
+      <c r="D1810">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>4</v>
+      </c>
+      <c r="B1811">
+        <v>4</v>
+      </c>
+      <c r="C1811">
+        <v>5</v>
+      </c>
+      <c r="D1811">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>6</v>
+      </c>
+      <c r="B1812">
+        <v>8</v>
+      </c>
+      <c r="C1812">
+        <v>5</v>
+      </c>
+      <c r="D1812">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>2</v>
+      </c>
+      <c r="B1813">
+        <v>7</v>
+      </c>
+      <c r="C1813">
+        <v>4</v>
+      </c>
+      <c r="D1813">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63A6D48-1056-44F7-99F1-06E41DAA074F}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4115FF55-9EC4-4219-BD35-B64FD5146C4D}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1813"/>
+  <dimension ref="A1:D1825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1799" workbookViewId="0">
-      <selection activeCell="D1815" sqref="D1815"/>
+    <sheetView tabSelected="1" topLeftCell="A1808" workbookViewId="0">
+      <selection activeCell="A1826" sqref="A1826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25759,6 +25759,174 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>5</v>
+      </c>
+      <c r="B1814">
+        <v>7</v>
+      </c>
+      <c r="C1814">
+        <v>3</v>
+      </c>
+      <c r="D1814">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>3</v>
+      </c>
+      <c r="B1815">
+        <v>7</v>
+      </c>
+      <c r="C1815">
+        <v>5</v>
+      </c>
+      <c r="D1815">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>5</v>
+      </c>
+      <c r="B1816">
+        <v>18</v>
+      </c>
+      <c r="C1816">
+        <v>3</v>
+      </c>
+      <c r="D1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>6</v>
+      </c>
+      <c r="B1817">
+        <v>4</v>
+      </c>
+      <c r="C1817">
+        <v>5</v>
+      </c>
+      <c r="D1817">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>2</v>
+      </c>
+      <c r="B1818">
+        <v>8</v>
+      </c>
+      <c r="C1818">
+        <v>4</v>
+      </c>
+      <c r="D1818">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>4</v>
+      </c>
+      <c r="B1819">
+        <v>8</v>
+      </c>
+      <c r="C1819">
+        <v>5</v>
+      </c>
+      <c r="D1819">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>4</v>
+      </c>
+      <c r="B1820">
+        <v>12</v>
+      </c>
+      <c r="C1820">
+        <v>3</v>
+      </c>
+      <c r="D1820">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>5</v>
+      </c>
+      <c r="B1821">
+        <v>8</v>
+      </c>
+      <c r="C1821">
+        <v>4</v>
+      </c>
+      <c r="D1821">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>5</v>
+      </c>
+      <c r="B1822">
+        <v>13</v>
+      </c>
+      <c r="C1822">
+        <v>2</v>
+      </c>
+      <c r="D1822">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>3</v>
+      </c>
+      <c r="B1823">
+        <v>14</v>
+      </c>
+      <c r="C1823">
+        <v>4</v>
+      </c>
+      <c r="D1823">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>5</v>
+      </c>
+      <c r="B1824">
+        <v>13</v>
+      </c>
+      <c r="C1824">
+        <v>3</v>
+      </c>
+      <c r="D1824">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>4</v>
+      </c>
+      <c r="B1825">
+        <v>2</v>
+      </c>
+      <c r="C1825">
+        <v>7</v>
+      </c>
+      <c r="D1825">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4115FF55-9EC4-4219-BD35-B64FD5146C4D}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{665C82B2-9C3C-41DA-8709-DE5BE4DB3CA3}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1825"/>
+  <dimension ref="A1:D1850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1808" workbookViewId="0">
-      <selection activeCell="A1826" sqref="A1826"/>
+    <sheetView tabSelected="1" topLeftCell="A1832" workbookViewId="0">
+      <selection activeCell="D1855" sqref="D1855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25927,6 +25927,356 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>3</v>
+      </c>
+      <c r="B1826">
+        <v>7</v>
+      </c>
+      <c r="C1826">
+        <v>4</v>
+      </c>
+      <c r="D1826">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>6</v>
+      </c>
+      <c r="B1827">
+        <v>7</v>
+      </c>
+      <c r="C1827">
+        <v>7</v>
+      </c>
+      <c r="D1827">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>6</v>
+      </c>
+      <c r="B1828">
+        <v>14</v>
+      </c>
+      <c r="C1828">
+        <v>4</v>
+      </c>
+      <c r="D1828">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>4</v>
+      </c>
+      <c r="B1829">
+        <v>14</v>
+      </c>
+      <c r="C1829">
+        <v>2</v>
+      </c>
+      <c r="D1829">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>3</v>
+      </c>
+      <c r="B1830">
+        <v>13</v>
+      </c>
+      <c r="C1830">
+        <v>5</v>
+      </c>
+      <c r="D1830">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>4</v>
+      </c>
+      <c r="B1831">
+        <v>12</v>
+      </c>
+      <c r="C1831">
+        <v>3</v>
+      </c>
+      <c r="D1831">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>6</v>
+      </c>
+      <c r="B1832">
+        <v>4</v>
+      </c>
+      <c r="C1832">
+        <v>5</v>
+      </c>
+      <c r="D1832">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>3</v>
+      </c>
+      <c r="B1833">
+        <v>4</v>
+      </c>
+      <c r="C1833">
+        <v>4</v>
+      </c>
+      <c r="D1833">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>3</v>
+      </c>
+      <c r="B1834">
+        <v>4</v>
+      </c>
+      <c r="C1834">
+        <v>5</v>
+      </c>
+      <c r="D1834">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>1</v>
+      </c>
+      <c r="B1835">
+        <v>19</v>
+      </c>
+      <c r="C1835">
+        <v>4</v>
+      </c>
+      <c r="D1835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>4</v>
+      </c>
+      <c r="B1836">
+        <v>8</v>
+      </c>
+      <c r="C1836">
+        <v>3</v>
+      </c>
+      <c r="D1836">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>3</v>
+      </c>
+      <c r="B1837">
+        <v>13</v>
+      </c>
+      <c r="C1837">
+        <v>4</v>
+      </c>
+      <c r="D1837">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>6</v>
+      </c>
+      <c r="B1838">
+        <v>4</v>
+      </c>
+      <c r="C1838">
+        <v>5</v>
+      </c>
+      <c r="D1838">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>2</v>
+      </c>
+      <c r="B1839">
+        <v>18</v>
+      </c>
+      <c r="C1839">
+        <v>4</v>
+      </c>
+      <c r="D1839">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>4</v>
+      </c>
+      <c r="B1840">
+        <v>6</v>
+      </c>
+      <c r="C1840">
+        <v>5</v>
+      </c>
+      <c r="D1840">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>3</v>
+      </c>
+      <c r="B1841">
+        <v>14</v>
+      </c>
+      <c r="C1841">
+        <v>4</v>
+      </c>
+      <c r="D1841">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>2</v>
+      </c>
+      <c r="B1842">
+        <v>8</v>
+      </c>
+      <c r="C1842">
+        <v>1</v>
+      </c>
+      <c r="D1842">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>7</v>
+      </c>
+      <c r="B1843">
+        <v>17</v>
+      </c>
+      <c r="C1843">
+        <v>9</v>
+      </c>
+      <c r="D1843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>5</v>
+      </c>
+      <c r="B1844">
+        <v>14</v>
+      </c>
+      <c r="C1844">
+        <v>6</v>
+      </c>
+      <c r="D1844">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>4</v>
+      </c>
+      <c r="B1845">
+        <v>16</v>
+      </c>
+      <c r="C1845">
+        <v>3</v>
+      </c>
+      <c r="D1845">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>3</v>
+      </c>
+      <c r="B1846">
+        <v>8</v>
+      </c>
+      <c r="C1846">
+        <v>5</v>
+      </c>
+      <c r="D1846">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>4</v>
+      </c>
+      <c r="B1847">
+        <v>17</v>
+      </c>
+      <c r="C1847">
+        <v>5</v>
+      </c>
+      <c r="D1847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>2</v>
+      </c>
+      <c r="B1848">
+        <v>19</v>
+      </c>
+      <c r="C1848">
+        <v>4</v>
+      </c>
+      <c r="D1848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>7</v>
+      </c>
+      <c r="B1849">
+        <v>5</v>
+      </c>
+      <c r="C1849">
+        <v>5</v>
+      </c>
+      <c r="D1849">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>7</v>
+      </c>
+      <c r="B1850">
+        <v>13</v>
+      </c>
+      <c r="C1850">
+        <v>3</v>
+      </c>
+      <c r="D1850">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{665C82B2-9C3C-41DA-8709-DE5BE4DB3CA3}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA06D776-8056-4476-8A0B-9472508D5F2D}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1850"/>
+  <dimension ref="A1:D1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1832" workbookViewId="0">
-      <selection activeCell="D1855" sqref="D1855"/>
+    <sheetView tabSelected="1" topLeftCell="A1847" workbookViewId="0">
+      <selection activeCell="A1867" sqref="A1867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26277,6 +26277,230 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>3</v>
+      </c>
+      <c r="B1851">
+        <v>17</v>
+      </c>
+      <c r="C1851">
+        <v>4</v>
+      </c>
+      <c r="D1851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>5</v>
+      </c>
+      <c r="B1852">
+        <v>13</v>
+      </c>
+      <c r="C1852">
+        <v>6</v>
+      </c>
+      <c r="D1852">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>1</v>
+      </c>
+      <c r="B1853">
+        <v>3</v>
+      </c>
+      <c r="C1853">
+        <v>3</v>
+      </c>
+      <c r="D1853">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>6</v>
+      </c>
+      <c r="B1854">
+        <v>8</v>
+      </c>
+      <c r="C1854">
+        <v>5</v>
+      </c>
+      <c r="D1854">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>3</v>
+      </c>
+      <c r="B1855">
+        <v>16</v>
+      </c>
+      <c r="C1855">
+        <v>9</v>
+      </c>
+      <c r="D1855">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>5</v>
+      </c>
+      <c r="B1856">
+        <v>12</v>
+      </c>
+      <c r="C1856">
+        <v>2</v>
+      </c>
+      <c r="D1856">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>5</v>
+      </c>
+      <c r="B1857">
+        <v>1</v>
+      </c>
+      <c r="C1857">
+        <v>3</v>
+      </c>
+      <c r="D1857">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>4</v>
+      </c>
+      <c r="B1858">
+        <v>15</v>
+      </c>
+      <c r="C1858">
+        <v>5</v>
+      </c>
+      <c r="D1858">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>5</v>
+      </c>
+      <c r="B1859">
+        <v>12</v>
+      </c>
+      <c r="C1859">
+        <v>3</v>
+      </c>
+      <c r="D1859">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>5</v>
+      </c>
+      <c r="B1860">
+        <v>12</v>
+      </c>
+      <c r="C1860">
+        <v>4</v>
+      </c>
+      <c r="D1860">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>3</v>
+      </c>
+      <c r="B1861">
+        <v>15</v>
+      </c>
+      <c r="C1861">
+        <v>2</v>
+      </c>
+      <c r="D1861">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>5</v>
+      </c>
+      <c r="B1862">
+        <v>14</v>
+      </c>
+      <c r="C1862">
+        <v>3</v>
+      </c>
+      <c r="D1862">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>2</v>
+      </c>
+      <c r="B1863">
+        <v>6</v>
+      </c>
+      <c r="C1863">
+        <v>3</v>
+      </c>
+      <c r="D1863">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>7</v>
+      </c>
+      <c r="B1864">
+        <v>13</v>
+      </c>
+      <c r="C1864">
+        <v>6</v>
+      </c>
+      <c r="D1864">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>3</v>
+      </c>
+      <c r="B1865">
+        <v>12</v>
+      </c>
+      <c r="C1865">
+        <v>2</v>
+      </c>
+      <c r="D1865">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>3</v>
+      </c>
+      <c r="B1866">
+        <v>13</v>
+      </c>
+      <c r="C1866">
+        <v>4</v>
+      </c>
+      <c r="D1866">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA06D776-8056-4476-8A0B-9472508D5F2D}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6509237-A519-4738-BD83-0594B8F945F0}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1866"/>
+  <dimension ref="A1:D1878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1847" workbookViewId="0">
-      <selection activeCell="A1867" sqref="A1867"/>
+    <sheetView tabSelected="1" topLeftCell="A1853" workbookViewId="0">
+      <selection activeCell="A1879" sqref="A1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26501,6 +26501,174 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>3</v>
+      </c>
+      <c r="B1867">
+        <v>7</v>
+      </c>
+      <c r="C1867">
+        <v>4</v>
+      </c>
+      <c r="D1867">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>2</v>
+      </c>
+      <c r="B1868">
+        <v>15</v>
+      </c>
+      <c r="C1868">
+        <v>3</v>
+      </c>
+      <c r="D1868">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>6</v>
+      </c>
+      <c r="B1869">
+        <v>3</v>
+      </c>
+      <c r="C1869">
+        <v>7</v>
+      </c>
+      <c r="D1869">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>2</v>
+      </c>
+      <c r="B1870">
+        <v>2</v>
+      </c>
+      <c r="C1870">
+        <v>1</v>
+      </c>
+      <c r="D1870">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>6</v>
+      </c>
+      <c r="B1871">
+        <v>8</v>
+      </c>
+      <c r="C1871">
+        <v>9</v>
+      </c>
+      <c r="D1871">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>4</v>
+      </c>
+      <c r="B1872">
+        <v>16</v>
+      </c>
+      <c r="C1872">
+        <v>5</v>
+      </c>
+      <c r="D1872">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>3</v>
+      </c>
+      <c r="B1873">
+        <v>14</v>
+      </c>
+      <c r="C1873">
+        <v>4</v>
+      </c>
+      <c r="D1873">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>6</v>
+      </c>
+      <c r="B1874">
+        <v>15</v>
+      </c>
+      <c r="C1874">
+        <v>5</v>
+      </c>
+      <c r="D1874">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>4</v>
+      </c>
+      <c r="B1875">
+        <v>7</v>
+      </c>
+      <c r="C1875">
+        <v>5</v>
+      </c>
+      <c r="D1875">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>6</v>
+      </c>
+      <c r="B1876">
+        <v>14</v>
+      </c>
+      <c r="C1876">
+        <v>4</v>
+      </c>
+      <c r="D1876">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>5</v>
+      </c>
+      <c r="B1877">
+        <v>8</v>
+      </c>
+      <c r="C1877">
+        <v>7</v>
+      </c>
+      <c r="D1877">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>4</v>
+      </c>
+      <c r="B1878">
+        <v>7</v>
+      </c>
+      <c r="C1878">
+        <v>3</v>
+      </c>
+      <c r="D1878">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6509237-A519-4738-BD83-0594B8F945F0}"/>
+  <xr:revisionPtr revIDLastSave="795" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BA5F9A-8D06-4695-8B34-2D6380260448}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19485" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1878"/>
+  <dimension ref="A1:D1888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1853" workbookViewId="0">
-      <selection activeCell="A1879" sqref="A1879"/>
+    <sheetView tabSelected="1" topLeftCell="A1877" workbookViewId="0">
+      <selection activeCell="A1889" sqref="A1889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26669,6 +26669,146 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>4</v>
+      </c>
+      <c r="B1879">
+        <v>13</v>
+      </c>
+      <c r="C1879">
+        <v>3</v>
+      </c>
+      <c r="D1879">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>5</v>
+      </c>
+      <c r="B1880">
+        <v>4</v>
+      </c>
+      <c r="C1880">
+        <v>7</v>
+      </c>
+      <c r="D1880">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>6</v>
+      </c>
+      <c r="B1881">
+        <v>12</v>
+      </c>
+      <c r="C1881">
+        <v>5</v>
+      </c>
+      <c r="D1881">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>4</v>
+      </c>
+      <c r="B1882">
+        <v>4</v>
+      </c>
+      <c r="C1882">
+        <v>5</v>
+      </c>
+      <c r="D1882">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>3</v>
+      </c>
+      <c r="B1883">
+        <v>12</v>
+      </c>
+      <c r="C1883">
+        <v>7</v>
+      </c>
+      <c r="D1883">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>5</v>
+      </c>
+      <c r="B1884">
+        <v>16</v>
+      </c>
+      <c r="C1884">
+        <v>4</v>
+      </c>
+      <c r="D1884">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>4</v>
+      </c>
+      <c r="B1885">
+        <v>4</v>
+      </c>
+      <c r="C1885">
+        <v>3</v>
+      </c>
+      <c r="D1885">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>6</v>
+      </c>
+      <c r="B1886">
+        <v>14</v>
+      </c>
+      <c r="C1886">
+        <v>4</v>
+      </c>
+      <c r="D1886">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>3</v>
+      </c>
+      <c r="B1887">
+        <v>1</v>
+      </c>
+      <c r="C1887">
+        <v>4</v>
+      </c>
+      <c r="D1887">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>9</v>
+      </c>
+      <c r="B1888">
+        <v>13</v>
+      </c>
+      <c r="C1888">
+        <v>4</v>
+      </c>
+      <c r="D1888">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="795" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BA5F9A-8D06-4695-8B34-2D6380260448}"/>
+  <xr:revisionPtr revIDLastSave="852" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{773192B6-92B4-4AB8-9457-545BCDAAF05E}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1888"/>
+  <dimension ref="A1:D1902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1877" workbookViewId="0">
-      <selection activeCell="A1889" sqref="A1889"/>
+    <sheetView tabSelected="1" topLeftCell="A1886" workbookViewId="0">
+      <selection activeCell="A1903" sqref="A1903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26809,6 +26809,202 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>5</v>
+      </c>
+      <c r="B1889">
+        <v>4</v>
+      </c>
+      <c r="C1889">
+        <v>4</v>
+      </c>
+      <c r="D1889">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>5</v>
+      </c>
+      <c r="B1890">
+        <v>7</v>
+      </c>
+      <c r="C1890">
+        <v>4</v>
+      </c>
+      <c r="D1890">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>4</v>
+      </c>
+      <c r="B1891">
+        <v>4</v>
+      </c>
+      <c r="C1891">
+        <v>5</v>
+      </c>
+      <c r="D1891">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>2</v>
+      </c>
+      <c r="B1892">
+        <v>12</v>
+      </c>
+      <c r="C1892">
+        <v>3</v>
+      </c>
+      <c r="D1892">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>7</v>
+      </c>
+      <c r="B1893">
+        <v>14</v>
+      </c>
+      <c r="C1893">
+        <v>6</v>
+      </c>
+      <c r="D1893">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>3</v>
+      </c>
+      <c r="B1894">
+        <v>13</v>
+      </c>
+      <c r="C1894">
+        <v>5</v>
+      </c>
+      <c r="D1894">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>7</v>
+      </c>
+      <c r="B1895">
+        <v>12</v>
+      </c>
+      <c r="C1895">
+        <v>5</v>
+      </c>
+      <c r="D1895">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>5</v>
+      </c>
+      <c r="B1896">
+        <v>3</v>
+      </c>
+      <c r="C1896">
+        <v>4</v>
+      </c>
+      <c r="D1896">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>9</v>
+      </c>
+      <c r="B1897">
+        <v>12</v>
+      </c>
+      <c r="C1897">
+        <v>7</v>
+      </c>
+      <c r="D1897">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>1</v>
+      </c>
+      <c r="B1898">
+        <v>6</v>
+      </c>
+      <c r="C1898">
+        <v>4</v>
+      </c>
+      <c r="D1898">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>5</v>
+      </c>
+      <c r="B1899">
+        <v>5</v>
+      </c>
+      <c r="C1899">
+        <v>6</v>
+      </c>
+      <c r="D1899">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>3</v>
+      </c>
+      <c r="B1900">
+        <v>4</v>
+      </c>
+      <c r="C1900">
+        <v>4</v>
+      </c>
+      <c r="D1900">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>5</v>
+      </c>
+      <c r="B1901">
+        <v>7</v>
+      </c>
+      <c r="C1901">
+        <v>7</v>
+      </c>
+      <c r="D1901">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>4</v>
+      </c>
+      <c r="B1902">
+        <v>6</v>
+      </c>
+      <c r="C1902">
+        <v>2</v>
+      </c>
+      <c r="D1902">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="852" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{773192B6-92B4-4AB8-9457-545BCDAAF05E}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E3FD09-00C8-42AB-91FF-840B1D153366}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nine" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1902"/>
+  <dimension ref="A1:D1916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1886" workbookViewId="0">
-      <selection activeCell="A1903" sqref="A1903"/>
+    <sheetView tabSelected="1" topLeftCell="A1895" workbookViewId="0">
+      <selection activeCell="A1917" sqref="A1917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27005,6 +27005,202 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>4</v>
+      </c>
+      <c r="B1903">
+        <v>8</v>
+      </c>
+      <c r="C1903">
+        <v>5</v>
+      </c>
+      <c r="D1903">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>4</v>
+      </c>
+      <c r="B1904">
+        <v>7</v>
+      </c>
+      <c r="C1904">
+        <v>3</v>
+      </c>
+      <c r="D1904">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>2</v>
+      </c>
+      <c r="B1905">
+        <v>6</v>
+      </c>
+      <c r="C1905">
+        <v>4</v>
+      </c>
+      <c r="D1905">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>7</v>
+      </c>
+      <c r="B1906">
+        <v>8</v>
+      </c>
+      <c r="C1906">
+        <v>5</v>
+      </c>
+      <c r="D1906">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>6</v>
+      </c>
+      <c r="B1907">
+        <v>13</v>
+      </c>
+      <c r="C1907">
+        <v>9</v>
+      </c>
+      <c r="D1907">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>4</v>
+      </c>
+      <c r="B1908">
+        <v>14</v>
+      </c>
+      <c r="C1908">
+        <v>5</v>
+      </c>
+      <c r="D1908">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>6</v>
+      </c>
+      <c r="B1909">
+        <v>8</v>
+      </c>
+      <c r="C1909">
+        <v>4</v>
+      </c>
+      <c r="D1909">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>4</v>
+      </c>
+      <c r="B1910">
+        <v>4</v>
+      </c>
+      <c r="C1910">
+        <v>6</v>
+      </c>
+      <c r="D1910">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>5</v>
+      </c>
+      <c r="B1911">
+        <v>14</v>
+      </c>
+      <c r="C1911">
+        <v>3</v>
+      </c>
+      <c r="D1911">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>7</v>
+      </c>
+      <c r="B1912">
+        <v>13</v>
+      </c>
+      <c r="C1912">
+        <v>5</v>
+      </c>
+      <c r="D1912">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>3</v>
+      </c>
+      <c r="B1913">
+        <v>13</v>
+      </c>
+      <c r="C1913">
+        <v>5</v>
+      </c>
+      <c r="D1913">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>5</v>
+      </c>
+      <c r="B1914">
+        <v>14</v>
+      </c>
+      <c r="C1914">
+        <v>4</v>
+      </c>
+      <c r="D1914">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>5</v>
+      </c>
+      <c r="B1915">
+        <v>7</v>
+      </c>
+      <c r="C1915">
+        <v>6</v>
+      </c>
+      <c r="D1915">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>5</v>
+      </c>
+      <c r="B1916">
+        <v>13</v>
+      </c>
+      <c r="C1916">
+        <v>2</v>
+      </c>
+      <c r="D1916">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E3FD09-00C8-42AB-91FF-840B1D153366}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B844D3AB-674B-4D9E-A783-0EA47100DF56}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1916"/>
+  <dimension ref="A1:D1946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1895" workbookViewId="0">
-      <selection activeCell="A1917" sqref="A1917"/>
+    <sheetView tabSelected="1" topLeftCell="A1931" workbookViewId="0">
+      <selection activeCell="A1947" sqref="A1947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27201,6 +27201,426 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>5</v>
+      </c>
+      <c r="B1917">
+        <v>8</v>
+      </c>
+      <c r="C1917">
+        <v>6</v>
+      </c>
+      <c r="D1917">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>4</v>
+      </c>
+      <c r="B1918">
+        <v>16</v>
+      </c>
+      <c r="C1918">
+        <v>3</v>
+      </c>
+      <c r="D1918">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>6</v>
+      </c>
+      <c r="B1919">
+        <v>4</v>
+      </c>
+      <c r="C1919">
+        <v>9</v>
+      </c>
+      <c r="D1919">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>4</v>
+      </c>
+      <c r="B1920">
+        <v>5</v>
+      </c>
+      <c r="C1920">
+        <v>3</v>
+      </c>
+      <c r="D1920">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>5</v>
+      </c>
+      <c r="B1921">
+        <v>7</v>
+      </c>
+      <c r="C1921">
+        <v>4</v>
+      </c>
+      <c r="D1921">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>3</v>
+      </c>
+      <c r="B1922">
+        <v>16</v>
+      </c>
+      <c r="C1922">
+        <v>4</v>
+      </c>
+      <c r="D1922">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>4</v>
+      </c>
+      <c r="B1923">
+        <v>3</v>
+      </c>
+      <c r="C1923">
+        <v>5</v>
+      </c>
+      <c r="D1923">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>7</v>
+      </c>
+      <c r="B1924">
+        <v>13</v>
+      </c>
+      <c r="C1924">
+        <v>4</v>
+      </c>
+      <c r="D1924">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>3</v>
+      </c>
+      <c r="B1925">
+        <v>6</v>
+      </c>
+      <c r="C1925">
+        <v>2</v>
+      </c>
+      <c r="D1925">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>5</v>
+      </c>
+      <c r="B1926">
+        <v>15</v>
+      </c>
+      <c r="C1926">
+        <v>7</v>
+      </c>
+      <c r="D1926">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>5</v>
+      </c>
+      <c r="B1927">
+        <v>5</v>
+      </c>
+      <c r="C1927">
+        <v>4</v>
+      </c>
+      <c r="D1927">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>5</v>
+      </c>
+      <c r="B1928">
+        <v>14</v>
+      </c>
+      <c r="C1928">
+        <v>7</v>
+      </c>
+      <c r="D1928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>3</v>
+      </c>
+      <c r="B1929">
+        <v>5</v>
+      </c>
+      <c r="C1929">
+        <v>2</v>
+      </c>
+      <c r="D1929">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>5</v>
+      </c>
+      <c r="B1930">
+        <v>4</v>
+      </c>
+      <c r="C1930">
+        <v>4</v>
+      </c>
+      <c r="D1930">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>5</v>
+      </c>
+      <c r="B1931">
+        <v>15</v>
+      </c>
+      <c r="C1931">
+        <v>4</v>
+      </c>
+      <c r="D1931">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>4</v>
+      </c>
+      <c r="B1932">
+        <v>2</v>
+      </c>
+      <c r="C1932">
+        <v>3</v>
+      </c>
+      <c r="D1932">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>3</v>
+      </c>
+      <c r="B1933">
+        <v>13</v>
+      </c>
+      <c r="C1933">
+        <v>1</v>
+      </c>
+      <c r="D1933">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>4</v>
+      </c>
+      <c r="B1934">
+        <v>18</v>
+      </c>
+      <c r="C1934">
+        <v>3</v>
+      </c>
+      <c r="D1934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>5</v>
+      </c>
+      <c r="B1935">
+        <v>16</v>
+      </c>
+      <c r="C1935">
+        <v>4</v>
+      </c>
+      <c r="D1935">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1936">
+        <v>6</v>
+      </c>
+      <c r="B1936">
+        <v>8</v>
+      </c>
+      <c r="C1936">
+        <v>5</v>
+      </c>
+      <c r="D1936">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1937">
+        <v>9</v>
+      </c>
+      <c r="B1937">
+        <v>5</v>
+      </c>
+      <c r="C1937">
+        <v>3</v>
+      </c>
+      <c r="D1937">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1938">
+        <v>3</v>
+      </c>
+      <c r="B1938">
+        <v>8</v>
+      </c>
+      <c r="C1938">
+        <v>5</v>
+      </c>
+      <c r="D1938">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1939">
+        <v>3</v>
+      </c>
+      <c r="B1939">
+        <v>15</v>
+      </c>
+      <c r="C1939">
+        <v>4</v>
+      </c>
+      <c r="D1939">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1940">
+        <v>4</v>
+      </c>
+      <c r="B1940">
+        <v>6</v>
+      </c>
+      <c r="C1940">
+        <v>5</v>
+      </c>
+      <c r="D1940">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1941">
+        <v>4</v>
+      </c>
+      <c r="B1941">
+        <v>7</v>
+      </c>
+      <c r="C1941">
+        <v>5</v>
+      </c>
+      <c r="D1941">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1942">
+        <v>7</v>
+      </c>
+      <c r="B1942">
+        <v>7</v>
+      </c>
+      <c r="C1942">
+        <v>5</v>
+      </c>
+      <c r="D1942">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1943">
+        <v>5</v>
+      </c>
+      <c r="B1943">
+        <v>6</v>
+      </c>
+      <c r="C1943">
+        <v>4</v>
+      </c>
+      <c r="D1943">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1944">
+        <v>4</v>
+      </c>
+      <c r="B1944">
+        <v>5</v>
+      </c>
+      <c r="C1944">
+        <v>3</v>
+      </c>
+      <c r="D1944">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1945">
+        <v>6</v>
+      </c>
+      <c r="B1945">
+        <v>12</v>
+      </c>
+      <c r="C1945">
+        <v>7</v>
+      </c>
+      <c r="D1945">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1946">
+        <v>4</v>
+      </c>
+      <c r="B1946">
+        <v>6</v>
+      </c>
+      <c r="C1946">
+        <v>2</v>
+      </c>
+      <c r="D1946">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{8FD3100B-1B9D-4F1E-A6BA-F425B720D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B844D3AB-674B-4D9E-A783-0EA47100DF56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5C5F2-01F5-4E38-8AFF-A460347C3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1946"/>
+  <dimension ref="A1:D1986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1931" workbookViewId="0">
-      <selection activeCell="A1947" sqref="A1947"/>
+    <sheetView tabSelected="1" topLeftCell="A1970" workbookViewId="0">
+      <selection activeCell="A1987" sqref="A1987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27621,6 +27617,566 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1947">
+        <v>6</v>
+      </c>
+      <c r="B1947">
+        <v>18</v>
+      </c>
+      <c r="C1947">
+        <v>5</v>
+      </c>
+      <c r="D1947">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1948">
+        <v>4</v>
+      </c>
+      <c r="B1948">
+        <v>14</v>
+      </c>
+      <c r="C1948">
+        <v>3</v>
+      </c>
+      <c r="D1948">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1949">
+        <v>4</v>
+      </c>
+      <c r="B1949">
+        <v>4</v>
+      </c>
+      <c r="C1949">
+        <v>6</v>
+      </c>
+      <c r="D1949">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1950">
+        <v>4</v>
+      </c>
+      <c r="B1950">
+        <v>17</v>
+      </c>
+      <c r="C1950">
+        <v>6</v>
+      </c>
+      <c r="D1950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1951">
+        <v>5</v>
+      </c>
+      <c r="B1951">
+        <v>17</v>
+      </c>
+      <c r="C1951">
+        <v>4</v>
+      </c>
+      <c r="D1951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1952">
+        <v>5</v>
+      </c>
+      <c r="B1952">
+        <v>7</v>
+      </c>
+      <c r="C1952">
+        <v>7</v>
+      </c>
+      <c r="D1952">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1953">
+        <v>5</v>
+      </c>
+      <c r="B1953">
+        <v>14</v>
+      </c>
+      <c r="C1953">
+        <v>4</v>
+      </c>
+      <c r="D1953">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1954">
+        <v>3</v>
+      </c>
+      <c r="B1954">
+        <v>7</v>
+      </c>
+      <c r="C1954">
+        <v>4</v>
+      </c>
+      <c r="D1954">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1955">
+        <v>4</v>
+      </c>
+      <c r="B1955">
+        <v>4</v>
+      </c>
+      <c r="C1955">
+        <v>2</v>
+      </c>
+      <c r="D1955">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1956">
+        <v>4</v>
+      </c>
+      <c r="B1956">
+        <v>3</v>
+      </c>
+      <c r="C1956">
+        <v>3</v>
+      </c>
+      <c r="D1956">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1957">
+        <v>4</v>
+      </c>
+      <c r="B1957">
+        <v>15</v>
+      </c>
+      <c r="C1957">
+        <v>5</v>
+      </c>
+      <c r="D1957">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1958">
+        <v>7</v>
+      </c>
+      <c r="B1958">
+        <v>8</v>
+      </c>
+      <c r="C1958">
+        <v>6</v>
+      </c>
+      <c r="D1958">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1959">
+        <v>4</v>
+      </c>
+      <c r="B1959">
+        <v>14</v>
+      </c>
+      <c r="C1959">
+        <v>3</v>
+      </c>
+      <c r="D1959">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1960">
+        <v>4</v>
+      </c>
+      <c r="B1960">
+        <v>16</v>
+      </c>
+      <c r="C1960">
+        <v>5</v>
+      </c>
+      <c r="D1960">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1961">
+        <v>5</v>
+      </c>
+      <c r="B1961">
+        <v>19</v>
+      </c>
+      <c r="C1961">
+        <v>4</v>
+      </c>
+      <c r="D1961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1962">
+        <v>5</v>
+      </c>
+      <c r="B1962">
+        <v>4</v>
+      </c>
+      <c r="C1962">
+        <v>4</v>
+      </c>
+      <c r="D1962">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1963">
+        <v>5</v>
+      </c>
+      <c r="B1963">
+        <v>4</v>
+      </c>
+      <c r="C1963">
+        <v>6</v>
+      </c>
+      <c r="D1963">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1964">
+        <v>7</v>
+      </c>
+      <c r="B1964">
+        <v>3</v>
+      </c>
+      <c r="C1964">
+        <v>5</v>
+      </c>
+      <c r="D1964">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1965">
+        <v>2</v>
+      </c>
+      <c r="B1965">
+        <v>14</v>
+      </c>
+      <c r="C1965">
+        <v>4</v>
+      </c>
+      <c r="D1965">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1966">
+        <v>4</v>
+      </c>
+      <c r="B1966">
+        <v>7</v>
+      </c>
+      <c r="C1966">
+        <v>5</v>
+      </c>
+      <c r="D1966">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1967">
+        <v>4</v>
+      </c>
+      <c r="B1967">
+        <v>8</v>
+      </c>
+      <c r="C1967">
+        <v>3</v>
+      </c>
+      <c r="D1967">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1968">
+        <v>6</v>
+      </c>
+      <c r="B1968">
+        <v>14</v>
+      </c>
+      <c r="C1968">
+        <v>9</v>
+      </c>
+      <c r="D1968">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1969">
+        <v>7</v>
+      </c>
+      <c r="B1969">
+        <v>7</v>
+      </c>
+      <c r="C1969">
+        <v>5</v>
+      </c>
+      <c r="D1969">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1970">
+        <v>4</v>
+      </c>
+      <c r="B1970">
+        <v>14</v>
+      </c>
+      <c r="C1970">
+        <v>5</v>
+      </c>
+      <c r="D1970">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1971">
+        <v>5</v>
+      </c>
+      <c r="B1971">
+        <v>13</v>
+      </c>
+      <c r="C1971">
+        <v>4</v>
+      </c>
+      <c r="D1971">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1972">
+        <v>3</v>
+      </c>
+      <c r="B1972">
+        <v>13</v>
+      </c>
+      <c r="C1972">
+        <v>5</v>
+      </c>
+      <c r="D1972">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1973">
+        <v>6</v>
+      </c>
+      <c r="B1973">
+        <v>14</v>
+      </c>
+      <c r="C1973">
+        <v>5</v>
+      </c>
+      <c r="D1973">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1974">
+        <v>5</v>
+      </c>
+      <c r="B1974">
+        <v>17</v>
+      </c>
+      <c r="C1974">
+        <v>3</v>
+      </c>
+      <c r="D1974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1975">
+        <v>6</v>
+      </c>
+      <c r="B1975">
+        <v>14</v>
+      </c>
+      <c r="C1975">
+        <v>7</v>
+      </c>
+      <c r="D1975">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1976">
+        <v>3</v>
+      </c>
+      <c r="B1976">
+        <v>8</v>
+      </c>
+      <c r="C1976">
+        <v>4</v>
+      </c>
+      <c r="D1976">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1977">
+        <v>6</v>
+      </c>
+      <c r="B1977">
+        <v>8</v>
+      </c>
+      <c r="C1977">
+        <v>3</v>
+      </c>
+      <c r="D1977">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1978">
+        <v>3</v>
+      </c>
+      <c r="B1978">
+        <v>6</v>
+      </c>
+      <c r="C1978">
+        <v>4</v>
+      </c>
+      <c r="D1978">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1979">
+        <v>4</v>
+      </c>
+      <c r="B1979">
+        <v>5</v>
+      </c>
+      <c r="C1979">
+        <v>3</v>
+      </c>
+      <c r="D1979">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1980">
+        <v>5</v>
+      </c>
+      <c r="B1980">
+        <v>16</v>
+      </c>
+      <c r="C1980">
+        <v>4</v>
+      </c>
+      <c r="D1980">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1981">
+        <v>4</v>
+      </c>
+      <c r="B1981">
+        <v>6</v>
+      </c>
+      <c r="C1981">
+        <v>5</v>
+      </c>
+      <c r="D1981">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1982">
+        <v>4</v>
+      </c>
+      <c r="B1982">
+        <v>15</v>
+      </c>
+      <c r="C1982">
+        <v>2</v>
+      </c>
+      <c r="D1982">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1983">
+        <v>4</v>
+      </c>
+      <c r="B1983">
+        <v>6</v>
+      </c>
+      <c r="C1983">
+        <v>3</v>
+      </c>
+      <c r="D1983">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1984">
+        <v>6</v>
+      </c>
+      <c r="B1984">
+        <v>4</v>
+      </c>
+      <c r="C1984">
+        <v>4</v>
+      </c>
+      <c r="D1984">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1985">
+        <v>4</v>
+      </c>
+      <c r="B1985">
+        <v>12</v>
+      </c>
+      <c r="C1985">
+        <v>7</v>
+      </c>
+      <c r="D1985">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1986">
+        <v>4</v>
+      </c>
+      <c r="B1986">
+        <v>13</v>
+      </c>
+      <c r="C1986">
+        <v>3</v>
+      </c>
+      <c r="D1986">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\OneDrive\Documents\magic-8ball\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5C5F2-01F5-4E38-8AFF-A460347C3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{D8A5C5F2-01F5-4E38-8AFF-A460347C3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{988911DB-13FC-43DC-AFE1-8C81C5D59AA1}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1986"/>
+  <dimension ref="A1:D2012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1970" workbookViewId="0">
-      <selection activeCell="A1987" sqref="A1987"/>
+    <sheetView tabSelected="1" topLeftCell="A1991" workbookViewId="0">
+      <selection activeCell="A2013" sqref="A2013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28177,6 +28177,370 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1987">
+        <v>4</v>
+      </c>
+      <c r="B1987">
+        <v>19</v>
+      </c>
+      <c r="C1987">
+        <v>5</v>
+      </c>
+      <c r="D1987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1988">
+        <v>6</v>
+      </c>
+      <c r="B1988">
+        <v>8</v>
+      </c>
+      <c r="C1988">
+        <v>5</v>
+      </c>
+      <c r="D1988">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1989">
+        <v>7</v>
+      </c>
+      <c r="B1989">
+        <v>5</v>
+      </c>
+      <c r="C1989">
+        <v>5</v>
+      </c>
+      <c r="D1989">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1990">
+        <v>4</v>
+      </c>
+      <c r="B1990">
+        <v>14</v>
+      </c>
+      <c r="C1990">
+        <v>3</v>
+      </c>
+      <c r="D1990">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1991">
+        <v>3</v>
+      </c>
+      <c r="B1991">
+        <v>12</v>
+      </c>
+      <c r="C1991">
+        <v>6</v>
+      </c>
+      <c r="D1991">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1992">
+        <v>5</v>
+      </c>
+      <c r="B1992">
+        <v>2</v>
+      </c>
+      <c r="C1992">
+        <v>4</v>
+      </c>
+      <c r="D1992">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1993">
+        <v>5</v>
+      </c>
+      <c r="B1993">
+        <v>6</v>
+      </c>
+      <c r="C1993">
+        <v>4</v>
+      </c>
+      <c r="D1993">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1994">
+        <v>3</v>
+      </c>
+      <c r="B1994">
+        <v>6</v>
+      </c>
+      <c r="C1994">
+        <v>4</v>
+      </c>
+      <c r="D1994">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1995">
+        <v>5</v>
+      </c>
+      <c r="B1995">
+        <v>5</v>
+      </c>
+      <c r="C1995">
+        <v>4</v>
+      </c>
+      <c r="D1995">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1996">
+        <v>2</v>
+      </c>
+      <c r="B1996">
+        <v>7</v>
+      </c>
+      <c r="C1996">
+        <v>4</v>
+      </c>
+      <c r="D1996">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1997">
+        <v>7</v>
+      </c>
+      <c r="B1997">
+        <v>7</v>
+      </c>
+      <c r="C1997">
+        <v>9</v>
+      </c>
+      <c r="D1997">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1998">
+        <v>5</v>
+      </c>
+      <c r="B1998">
+        <v>4</v>
+      </c>
+      <c r="C1998">
+        <v>1</v>
+      </c>
+      <c r="D1998">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1999">
+        <v>5</v>
+      </c>
+      <c r="B1999">
+        <v>6</v>
+      </c>
+      <c r="C1999">
+        <v>6</v>
+      </c>
+      <c r="D1999">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2000">
+        <v>6</v>
+      </c>
+      <c r="B2000">
+        <v>5</v>
+      </c>
+      <c r="C2000">
+        <v>7</v>
+      </c>
+      <c r="D2000">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2001">
+        <v>5</v>
+      </c>
+      <c r="B2001">
+        <v>14</v>
+      </c>
+      <c r="C2001">
+        <v>4</v>
+      </c>
+      <c r="D2001">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2002">
+        <v>4</v>
+      </c>
+      <c r="B2002">
+        <v>8</v>
+      </c>
+      <c r="C2002">
+        <v>2</v>
+      </c>
+      <c r="D2002">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2003">
+        <v>3</v>
+      </c>
+      <c r="B2003">
+        <v>13</v>
+      </c>
+      <c r="C2003">
+        <v>4</v>
+      </c>
+      <c r="D2003">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2004">
+        <v>6</v>
+      </c>
+      <c r="B2004">
+        <v>14</v>
+      </c>
+      <c r="C2004">
+        <v>7</v>
+      </c>
+      <c r="D2004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2005">
+        <v>4</v>
+      </c>
+      <c r="B2005">
+        <v>12</v>
+      </c>
+      <c r="C2005">
+        <v>5</v>
+      </c>
+      <c r="D2005">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2006">
+        <v>5</v>
+      </c>
+      <c r="B2006">
+        <v>5</v>
+      </c>
+      <c r="C2006">
+        <v>4</v>
+      </c>
+      <c r="D2006">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2007">
+        <v>4</v>
+      </c>
+      <c r="B2007">
+        <v>7</v>
+      </c>
+      <c r="C2007">
+        <v>5</v>
+      </c>
+      <c r="D2007">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2008">
+        <v>6</v>
+      </c>
+      <c r="B2008">
+        <v>6</v>
+      </c>
+      <c r="C2008">
+        <v>7</v>
+      </c>
+      <c r="D2008">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2009">
+        <v>5</v>
+      </c>
+      <c r="B2009">
+        <v>7</v>
+      </c>
+      <c r="C2009">
+        <v>3</v>
+      </c>
+      <c r="D2009">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2010">
+        <v>3</v>
+      </c>
+      <c r="B2010">
+        <v>4</v>
+      </c>
+      <c r="C2010">
+        <v>5</v>
+      </c>
+      <c r="D2010">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2011">
+        <v>6</v>
+      </c>
+      <c r="B2011">
+        <v>6</v>
+      </c>
+      <c r="C2011">
+        <v>5</v>
+      </c>
+      <c r="D2011">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2012">
+        <v>4</v>
+      </c>
+      <c r="B2012">
+        <v>7</v>
+      </c>
+      <c r="C2012">
+        <v>5</v>
+      </c>
+      <c r="D2012">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/SLMatchupsNine.xlsx
+++ b/data/SLMatchupsNine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/magic-8ball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{D8A5C5F2-01F5-4E38-8AFF-A460347C3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{988911DB-13FC-43DC-AFE1-8C81C5D59AA1}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{D8A5C5F2-01F5-4E38-8AFF-A460347C3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE4227E-DB87-44A2-90DB-B850F3A48CF3}"/>
   <bookViews>
     <workbookView xWindow="20565" yWindow="900" windowWidth="16410" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2012"/>
+  <dimension ref="A1:D2025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1991" workbookViewId="0">
-      <selection activeCell="A2013" sqref="A2013"/>
+    <sheetView tabSelected="1" topLeftCell="A2018" workbookViewId="0">
+      <selection activeCell="A2026" sqref="A2026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28541,6 +28545,188 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2013">
+        <v>1</v>
+      </c>
+      <c r="B2013">
+        <v>5</v>
+      </c>
+      <c r="C2013">
+        <v>4</v>
+      </c>
+      <c r="D2013">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2014">
+        <v>6</v>
+      </c>
+      <c r="B2014">
+        <v>14</v>
+      </c>
+      <c r="C2014">
+        <v>5</v>
+      </c>
+      <c r="D2014">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>3</v>
+      </c>
+      <c r="B2015">
+        <v>6</v>
+      </c>
+      <c r="C2015">
+        <v>5</v>
+      </c>
+      <c r="D2015">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>2</v>
+      </c>
+      <c r="B2016">
+        <v>17</v>
+      </c>
+      <c r="C2016">
+        <v>4</v>
+      </c>
+      <c r="D2016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2017">
+        <v>6</v>
+      </c>
+      <c r="B2017">
+        <v>7</v>
+      </c>
+      <c r="C2017">
+        <v>5</v>
+      </c>
+      <c r="D2017">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2018">
+        <v>5</v>
+      </c>
+      <c r="B2018">
+        <v>3</v>
+      </c>
+      <c r="C2018">
+        <v>6</v>
+      </c>
+      <c r="D2018">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2019">
+        <v>5</v>
+      </c>
+      <c r="B2019">
+        <v>4</v>
+      </c>
+      <c r="C2019">
+        <v>6</v>
+      </c>
+      <c r="D2019">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2020">
+        <v>7</v>
+      </c>
+      <c r="B2020">
+        <v>8</v>
+      </c>
+      <c r="C2020">
+        <v>9</v>
+      </c>
+      <c r="D2020">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2021">
+        <v>2</v>
+      </c>
+      <c r="B2021">
+        <v>8</v>
+      </c>
+      <c r="C2021">
+        <v>3</v>
+      </c>
+      <c r="D2021">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2022">
+        <v>7</v>
+      </c>
+      <c r="B2022">
+        <v>13</v>
+      </c>
+      <c r="C2022">
+        <v>5</v>
+      </c>
+      <c r="D2022">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2023">
+        <v>3</v>
+      </c>
+      <c r="B2023">
+        <v>8</v>
+      </c>
+      <c r="C2023">
+        <v>5</v>
+      </c>
+      <c r="D2023">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2024">
+        <v>4</v>
+      </c>
+      <c r="B2024">
+        <v>12</v>
+      </c>
+      <c r="C2024">
+        <v>5</v>
+      </c>
+      <c r="D2024">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2025">
+        <v>4</v>
+      </c>
+      <c r="B2025">
+        <v>12</v>
+      </c>
+      <c r="C2025">
+        <v>5</v>
+      </c>
+      <c r="D2025">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
